--- a/JupyterNotebooks/AvgHW/BrassA-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
+    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,68 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -630,130 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -761,37 +653,37 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9966887321707144</v>
+      </c>
+      <c r="D3">
+        <v>0.9974264338150487</v>
+      </c>
+      <c r="E3">
         <v>1.007420704489601</v>
       </c>
-      <c r="D3">
+      <c r="F3">
+        <v>0.9985406079215192</v>
+      </c>
+      <c r="G3">
         <v>0.9966887321707144</v>
       </c>
-      <c r="E3">
-        <v>0.9985406079215192</v>
-      </c>
-      <c r="F3">
+      <c r="H3">
+        <v>0.9987512220209317</v>
+      </c>
+      <c r="I3">
+        <v>1.001287303069682</v>
+      </c>
+      <c r="J3">
         <v>1.007420704489601</v>
       </c>
-      <c r="G3">
-        <v>0.9987512220209317</v>
-      </c>
-      <c r="H3">
-        <v>1.001287303069682</v>
-      </c>
-      <c r="I3">
+      <c r="K3">
         <v>1.007420704489601</v>
       </c>
-      <c r="J3">
-        <v>0.9966887321707144</v>
-      </c>
-      <c r="K3">
-        <v>0.9974264338150487</v>
-      </c>
       <c r="L3">
+        <v>0.9970698751499381</v>
+      </c>
+      <c r="M3">
         <v>1.002243095781198</v>
-      </c>
-      <c r="M3">
-        <v>0.9970698751499381</v>
       </c>
       <c r="N3">
         <v>1.007420704489601</v>
@@ -824,7 +716,7 @@
         <v>0.9999284968023291</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -832,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9934589665563499</v>
+      </c>
+      <c r="D4">
+        <v>0.9950967011152565</v>
+      </c>
+      <c r="E4">
         <v>1.014179771657182</v>
       </c>
-      <c r="D4">
-        <v>0.9934589665563504</v>
-      </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.9972516214398184</v>
       </c>
-      <c r="F4">
+      <c r="G4">
+        <v>0.9934589665563499</v>
+      </c>
+      <c r="H4">
+        <v>0.9976248795993053</v>
+      </c>
+      <c r="I4">
+        <v>1.002494120428265</v>
+      </c>
+      <c r="J4">
         <v>1.014179771657182</v>
       </c>
-      <c r="G4">
-        <v>0.9976248795993053</v>
-      </c>
-      <c r="H4">
-        <v>1.002494120428265</v>
-      </c>
-      <c r="I4">
+      <c r="K4">
         <v>1.014179771657182</v>
       </c>
-      <c r="J4">
-        <v>0.9934589665563504</v>
-      </c>
-      <c r="K4">
-        <v>0.9950967011152565</v>
-      </c>
       <c r="L4">
+        <v>0.9943153237397316</v>
+      </c>
+      <c r="M4">
         <v>1.004325359557431</v>
-      </c>
-      <c r="M4">
-        <v>0.9943153237397316</v>
       </c>
       <c r="N4">
         <v>1.014179771657182</v>
@@ -871,7 +763,7 @@
         <v>0.9972516214398184</v>
       </c>
       <c r="P4">
-        <v>0.9953552939980843</v>
+        <v>0.9953552939980841</v>
       </c>
       <c r="Q4">
         <v>0.9974382505195618</v>
@@ -880,7 +772,7 @@
         <v>1.00163011988445</v>
       </c>
       <c r="S4">
-        <v>0.9961118225318247</v>
+        <v>0.9961118225318245</v>
       </c>
       <c r="T4">
         <v>1.00163011988445</v>
@@ -889,13 +781,13 @@
         <v>1.000628809813164</v>
       </c>
       <c r="V4">
-        <v>1.003339002181968</v>
+        <v>1.003339002181967</v>
       </c>
       <c r="W4">
         <v>0.9998433430116676</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -903,37 +795,37 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9873904745460572</v>
+      </c>
+      <c r="D5">
+        <v>0.9907126028737999</v>
+      </c>
+      <c r="E5">
         <v>1.026856895076717</v>
       </c>
-      <c r="D5">
-        <v>0.9873904745460574</v>
-      </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.995128359093951</v>
       </c>
-      <c r="F5">
+      <c r="G5">
+        <v>0.9873904745460572</v>
+      </c>
+      <c r="H5">
+        <v>0.9953493656336247</v>
+      </c>
+      <c r="I5">
+        <v>1.004924871540958</v>
+      </c>
+      <c r="J5">
         <v>1.026856895076717</v>
       </c>
-      <c r="G5">
-        <v>0.9953493656336247</v>
-      </c>
-      <c r="H5">
-        <v>1.004924871540958</v>
-      </c>
-      <c r="I5">
+      <c r="K5">
         <v>1.026856895076717</v>
       </c>
-      <c r="J5">
-        <v>0.9873904745460574</v>
-      </c>
-      <c r="K5">
-        <v>0.9907126028737999</v>
-      </c>
       <c r="L5">
+        <v>0.9890228184762478</v>
+      </c>
+      <c r="M5">
         <v>1.008135576700631</v>
-      </c>
-      <c r="M5">
-        <v>0.9890228184762478</v>
       </c>
       <c r="N5">
         <v>1.026856895076717</v>
@@ -966,7 +858,7 @@
         <v>0.9996901204927482</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -974,37 +866,37 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.9814573694283297</v>
+      </c>
+      <c r="D6">
+        <v>0.9864437204642842</v>
+      </c>
+      <c r="E6">
         <v>1.039170642772627</v>
       </c>
-      <c r="D6">
+      <c r="F6">
+        <v>0.9931079222446645</v>
+      </c>
+      <c r="G6">
         <v>0.9814573694283297</v>
       </c>
-      <c r="E6">
-        <v>0.9931079222446645</v>
-      </c>
-      <c r="F6">
+      <c r="H6">
+        <v>0.9931216742615072</v>
+      </c>
+      <c r="I6">
+        <v>1.007319037492703</v>
+      </c>
+      <c r="J6">
         <v>1.039170642772627</v>
       </c>
-      <c r="G6">
-        <v>0.9931216742615072</v>
-      </c>
-      <c r="H6">
-        <v>1.007319037492703</v>
-      </c>
-      <c r="I6">
+      <c r="K6">
         <v>1.039170642772627</v>
       </c>
-      <c r="J6">
-        <v>0.9814573694283297</v>
-      </c>
-      <c r="K6">
-        <v>0.9864437204642842</v>
-      </c>
       <c r="L6">
+        <v>0.9838458304664689</v>
+      </c>
+      <c r="M6">
         <v>1.011841147936565</v>
-      </c>
-      <c r="M6">
-        <v>0.9838458304664691</v>
       </c>
       <c r="N6">
         <v>1.039170642772627</v>
@@ -1037,7 +929,7 @@
         <v>0.9995384181333937</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1045,70 +937,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.00002377493974</v>
+        <v>0.9994359056785779</v>
       </c>
       <c r="D7">
-        <v>0.999435905678578</v>
+        <v>1.000011550643513</v>
       </c>
       <c r="E7">
+        <v>1.000023774939741</v>
+      </c>
+      <c r="F7">
         <v>1.000381704938957</v>
       </c>
-      <c r="F7">
-        <v>1.00002377493974</v>
-      </c>
       <c r="G7">
+        <v>0.9994359056785779</v>
+      </c>
+      <c r="H7">
         <v>0.9998669090581661</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1.000254422394022</v>
       </c>
-      <c r="I7">
-        <v>1.00002377493974</v>
-      </c>
       <c r="J7">
-        <v>0.999435905678578</v>
+        <v>1.000023774939741</v>
       </c>
       <c r="K7">
-        <v>1.000011550643513</v>
+        <v>1.000023774939741</v>
       </c>
       <c r="L7">
+        <v>0.9996496822489483</v>
+      </c>
+      <c r="M7">
         <v>1.000016981722542</v>
       </c>
-      <c r="M7">
-        <v>0.9996496822489485</v>
-      </c>
       <c r="N7">
-        <v>1.00002377493974</v>
+        <v>1.000023774939741</v>
       </c>
       <c r="O7">
         <v>1.000381704938957</v>
       </c>
       <c r="P7">
-        <v>0.9999088053087677</v>
+        <v>0.9999088053087675</v>
       </c>
       <c r="Q7">
-        <v>1.000124306998562</v>
+        <v>1.000124306998561</v>
       </c>
       <c r="R7">
         <v>0.999947128519092</v>
       </c>
       <c r="S7">
-        <v>0.9998948398919004</v>
+        <v>0.9998948398919003</v>
       </c>
       <c r="T7">
-        <v>0.999947128519092</v>
+        <v>0.9999471285190918</v>
       </c>
       <c r="U7">
-        <v>0.9999270736538605</v>
+        <v>0.9999270736538604</v>
       </c>
       <c r="V7">
-        <v>0.9999464139110366</v>
+        <v>0.9999464139110363</v>
       </c>
       <c r="W7">
-        <v>0.9999551164530583</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43">
+        <v>0.9999551164530582</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1116,37 +1008,37 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>0.9984315253742191</v>
+      </c>
+      <c r="D8">
+        <v>0.9999792054131514</v>
+      </c>
+      <c r="E8">
         <v>1.000216475310121</v>
       </c>
-      <c r="D8">
-        <v>0.9984315253742195</v>
-      </c>
-      <c r="E8">
+      <c r="F8">
         <v>1.000954781927416</v>
       </c>
-      <c r="F8">
+      <c r="G8">
+        <v>0.9984315253742191</v>
+      </c>
+      <c r="H8">
+        <v>0.9996371499060969</v>
+      </c>
+      <c r="I8">
+        <v>1.000686053488528</v>
+      </c>
+      <c r="J8">
         <v>1.000216475310121</v>
       </c>
-      <c r="G8">
-        <v>0.9996371499060971</v>
-      </c>
-      <c r="H8">
-        <v>1.000686053488528</v>
-      </c>
-      <c r="I8">
+      <c r="K8">
         <v>1.000216475310121</v>
       </c>
-      <c r="J8">
-        <v>0.9984315253742195</v>
-      </c>
-      <c r="K8">
-        <v>0.9999792054131514</v>
-      </c>
       <c r="L8">
+        <v>0.9990204891915054</v>
+      </c>
+      <c r="M8">
         <v>1.000101457802424</v>
-      </c>
-      <c r="M8">
-        <v>0.9990204891915054</v>
       </c>
       <c r="N8">
         <v>1.000216475310121</v>
@@ -1155,7 +1047,7 @@
         <v>1.000954781927416</v>
       </c>
       <c r="P8">
-        <v>0.9996931536508179</v>
+        <v>0.9996931536508178</v>
       </c>
       <c r="Q8">
         <v>1.000295965916757</v>
@@ -1164,22 +1056,22 @@
         <v>0.999867594203919</v>
       </c>
       <c r="S8">
-        <v>0.9996744857359109</v>
+        <v>0.9996744857359108</v>
       </c>
       <c r="T8">
         <v>0.999867594203919</v>
       </c>
       <c r="U8">
-        <v>0.9998099831294636</v>
+        <v>0.9998099831294635</v>
       </c>
       <c r="V8">
-        <v>0.9998912815655953</v>
+        <v>0.999891281565595</v>
       </c>
       <c r="W8">
-        <v>0.9998783923016829</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43">
+        <v>0.9998783923016827</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1187,37 +1079,37 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9978693833721992</v>
+      </c>
+      <c r="D9">
+        <v>0.9999330562521883</v>
+      </c>
+      <c r="E9">
         <v>1.000401957518954</v>
       </c>
-      <c r="D9">
+      <c r="F9">
+        <v>1.00119432219303</v>
+      </c>
+      <c r="G9">
         <v>0.9978693833721992</v>
       </c>
-      <c r="E9">
-        <v>1.00119432219303</v>
-      </c>
-      <c r="F9">
+      <c r="H9">
+        <v>0.9995269346368746</v>
+      </c>
+      <c r="I9">
+        <v>1.000903119228238</v>
+      </c>
+      <c r="J9">
         <v>1.000401957518954</v>
       </c>
-      <c r="G9">
-        <v>0.9995269346368746</v>
-      </c>
-      <c r="H9">
-        <v>1.000903119228238</v>
-      </c>
-      <c r="I9">
+      <c r="K9">
         <v>1.000401957518954</v>
       </c>
-      <c r="J9">
-        <v>0.9978693833721992</v>
-      </c>
-      <c r="K9">
-        <v>0.9999330562521883</v>
-      </c>
       <c r="L9">
+        <v>0.9986752711934066</v>
+      </c>
+      <c r="M9">
         <v>1.000187135299028</v>
-      </c>
-      <c r="M9">
-        <v>0.9986752711934066</v>
       </c>
       <c r="N9">
         <v>1.000401957518954</v>
@@ -1250,7 +1142,7 @@
         <v>0.9998363974617397</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1258,37 +1150,37 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9953582875217682</v>
+      </c>
+      <c r="D10">
+        <v>0.9998957602143039</v>
+      </c>
+      <c r="E10">
         <v>1.000758313260834</v>
       </c>
-      <c r="D10">
+      <c r="F10">
+        <v>1.002711098243058</v>
+      </c>
+      <c r="G10">
         <v>0.9953582875217682</v>
       </c>
-      <c r="E10">
-        <v>1.002711098243058</v>
-      </c>
-      <c r="F10">
+      <c r="H10">
+        <v>0.9989492173911442</v>
+      </c>
+      <c r="I10">
+        <v>1.001997851150652</v>
+      </c>
+      <c r="J10">
         <v>1.000758313260834</v>
       </c>
-      <c r="G10">
-        <v>0.9989492173911442</v>
-      </c>
-      <c r="H10">
-        <v>1.001997851150652</v>
-      </c>
-      <c r="I10">
+      <c r="K10">
         <v>1.000758313260834</v>
       </c>
-      <c r="J10">
-        <v>0.9953582875217682</v>
-      </c>
-      <c r="K10">
-        <v>0.9998957602143039</v>
-      </c>
       <c r="L10">
+        <v>0.9971083172617001</v>
+      </c>
+      <c r="M10">
         <v>1.000355375761323</v>
-      </c>
-      <c r="M10">
-        <v>0.9971083172617001</v>
       </c>
       <c r="N10">
         <v>1.000758313260834</v>
@@ -1321,7 +1213,7 @@
         <v>0.9996417776005979</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1329,37 +1221,37 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9923898201283626</v>
+      </c>
+      <c r="D11">
+        <v>0.9996833020711159</v>
+      </c>
+      <c r="E11">
         <v>1.001655182388622</v>
       </c>
-      <c r="D11">
+      <c r="F11">
+        <v>1.004130691028202</v>
+      </c>
+      <c r="G11">
         <v>0.9923898201283626</v>
       </c>
-      <c r="E11">
-        <v>1.004130691028202</v>
-      </c>
-      <c r="F11">
+      <c r="H11">
+        <v>0.9983094604310476</v>
+      </c>
+      <c r="I11">
+        <v>1.003205634172343</v>
+      </c>
+      <c r="J11">
         <v>1.001655182388622</v>
       </c>
-      <c r="G11">
-        <v>0.9983094604310476</v>
-      </c>
-      <c r="H11">
-        <v>1.003205634172343</v>
-      </c>
-      <c r="I11">
+      <c r="K11">
         <v>1.001655182388622</v>
       </c>
-      <c r="J11">
-        <v>0.9923898201283626</v>
-      </c>
-      <c r="K11">
-        <v>0.9996833020711159</v>
-      </c>
       <c r="L11">
+        <v>0.9952522839438329</v>
+      </c>
+      <c r="M11">
         <v>1.000740263463752</v>
-      </c>
-      <c r="M11">
-        <v>0.9952522839438329</v>
       </c>
       <c r="N11">
         <v>1.001655182388622</v>
@@ -1392,7 +1284,7 @@
         <v>0.9994208297034098</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1400,49 +1292,49 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>1.157636738154069</v>
+      </c>
+      <c r="D12">
+        <v>0.974864289375493</v>
+      </c>
+      <c r="E12">
         <v>1.051388670160163</v>
       </c>
-      <c r="D12">
+      <c r="F12">
+        <v>0.8811496961509875</v>
+      </c>
+      <c r="G12">
         <v>1.157636738154069</v>
       </c>
-      <c r="E12">
-        <v>0.8811496961509877</v>
-      </c>
-      <c r="F12">
+      <c r="H12">
+        <v>1.023781856586572</v>
+      </c>
+      <c r="I12">
+        <v>0.9370300531303986</v>
+      </c>
+      <c r="J12">
         <v>1.051388670160163</v>
       </c>
-      <c r="G12">
-        <v>1.023781856586572</v>
-      </c>
-      <c r="H12">
-        <v>0.9370300531303986</v>
-      </c>
-      <c r="I12">
+      <c r="K12">
         <v>1.051388670160163</v>
       </c>
-      <c r="J12">
-        <v>1.157636738154069</v>
-      </c>
-      <c r="K12">
-        <v>0.9748642893754931</v>
-      </c>
       <c r="L12">
+        <v>1.083746428940472</v>
+      </c>
+      <c r="M12">
         <v>1.006543621874826</v>
-      </c>
-      <c r="M12">
-        <v>1.083746428940472</v>
       </c>
       <c r="N12">
         <v>1.051388670160163</v>
       </c>
       <c r="O12">
-        <v>0.8811496961509877</v>
+        <v>0.8811496961509875</v>
       </c>
       <c r="P12">
         <v>1.019393217152528</v>
       </c>
       <c r="Q12">
-        <v>0.9524657763687798</v>
+        <v>0.9524657763687797</v>
       </c>
       <c r="R12">
         <v>1.030058368155073</v>
@@ -1463,7 +1355,7 @@
         <v>1.014517669296623</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1471,40 +1363,40 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9355928644891254</v>
+        <v>0.9897858132154131</v>
       </c>
       <c r="D13">
+        <v>1.023831357310236</v>
+      </c>
+      <c r="E13">
+        <v>0.9355928644891256</v>
+      </c>
+      <c r="F13">
+        <v>1.032157968565828</v>
+      </c>
+      <c r="G13">
         <v>0.9897858132154131</v>
       </c>
-      <c r="E13">
-        <v>1.032157968565828</v>
-      </c>
-      <c r="F13">
-        <v>0.9355928644891254</v>
-      </c>
-      <c r="G13">
+      <c r="H13">
         <v>1.00606276986319</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1.002274981732172</v>
       </c>
-      <c r="I13">
-        <v>0.9355928644891254</v>
-      </c>
       <c r="J13">
-        <v>0.9897858132154131</v>
+        <v>0.9355928644891256</v>
       </c>
       <c r="K13">
-        <v>1.023831357310236</v>
+        <v>0.9355928644891256</v>
       </c>
       <c r="L13">
+        <v>1.004479277257104</v>
+      </c>
+      <c r="M13">
         <v>0.9840237090203153</v>
       </c>
-      <c r="M13">
-        <v>1.004479277257104</v>
-      </c>
       <c r="N13">
-        <v>0.9355928644891254</v>
+        <v>0.9355928644891256</v>
       </c>
       <c r="O13">
         <v>1.032157968565828</v>
@@ -1531,10 +1423,10 @@
         <v>0.9798384561245363</v>
       </c>
       <c r="W13">
-        <v>0.9972760926816729</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43">
+        <v>0.9972760926816731</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1542,37 +1434,37 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>1.274525819602066</v>
+      </c>
+      <c r="D14">
+        <v>1.0556921547135</v>
+      </c>
+      <c r="E14">
         <v>0.8167524683051485</v>
       </c>
-      <c r="D14">
+      <c r="F14">
+        <v>0.9166065752138568</v>
+      </c>
+      <c r="G14">
         <v>1.274525819602066</v>
       </c>
-      <c r="E14">
-        <v>0.9166065752138568</v>
-      </c>
-      <c r="F14">
+      <c r="H14">
+        <v>1.067328978838221</v>
+      </c>
+      <c r="I14">
+        <v>0.889725005151477</v>
+      </c>
+      <c r="J14">
         <v>0.8167524683051485</v>
       </c>
-      <c r="G14">
-        <v>1.067328978838221</v>
-      </c>
-      <c r="H14">
-        <v>0.889725005151477</v>
-      </c>
-      <c r="I14">
+      <c r="K14">
         <v>0.8167524683051485</v>
       </c>
-      <c r="J14">
-        <v>1.274525819602066</v>
-      </c>
-      <c r="K14">
-        <v>1.0556921547135</v>
-      </c>
       <c r="L14">
+        <v>1.184685975631371</v>
+      </c>
+      <c r="M14">
         <v>0.9363073158876608</v>
-      </c>
-      <c r="M14">
-        <v>1.184685975631371</v>
       </c>
       <c r="N14">
         <v>0.8167524683051485</v>
@@ -1605,7 +1497,7 @@
         <v>1.017703036667913</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1613,37 +1505,37 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.086263935413478</v>
+      </c>
+      <c r="D15">
+        <v>1.013684794133076</v>
+      </c>
+      <c r="E15">
         <v>0.9502127844330988</v>
       </c>
-      <c r="D15">
+      <c r="F15">
+        <v>0.9923458013234966</v>
+      </c>
+      <c r="G15">
         <v>1.086263935413478</v>
       </c>
-      <c r="E15">
-        <v>0.9923458013234966</v>
-      </c>
-      <c r="F15">
+      <c r="H15">
+        <v>1.008060594746041</v>
+      </c>
+      <c r="I15">
+        <v>0.9777567528305007</v>
+      </c>
+      <c r="J15">
         <v>0.9502127844330988</v>
       </c>
-      <c r="G15">
-        <v>1.008060594746041</v>
-      </c>
-      <c r="H15">
-        <v>0.9777567528305007</v>
-      </c>
-      <c r="I15">
+      <c r="K15">
         <v>0.9502127844330988</v>
       </c>
-      <c r="J15">
-        <v>1.086263935413478</v>
-      </c>
-      <c r="K15">
-        <v>1.013684794133076</v>
-      </c>
       <c r="L15">
+        <v>1.04782111932408</v>
+      </c>
+      <c r="M15">
         <v>0.9746441528022979</v>
-      </c>
-      <c r="M15">
-        <v>1.04782111932408</v>
       </c>
       <c r="N15">
         <v>0.9502127844330988</v>
@@ -1676,7 +1568,7 @@
         <v>1.006348741875759</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1684,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000257782474139</v>
+        <v>0.9297172493920646</v>
       </c>
       <c r="D16">
-        <v>1.000180697259046</v>
+        <v>0.9530557571502289</v>
       </c>
       <c r="E16">
-        <v>0.9998610353871953</v>
+        <v>1.136636980916063</v>
       </c>
       <c r="F16">
-        <v>1.000257782474139</v>
+        <v>0.9778915617131306</v>
       </c>
       <c r="G16">
-        <v>0.9999594699782927</v>
+        <v>0.9297172493920646</v>
       </c>
       <c r="H16">
-        <v>0.9999755005974089</v>
+        <v>0.9758066563946407</v>
       </c>
       <c r="I16">
-        <v>1.000257782474139</v>
+        <v>1.026917951635895</v>
       </c>
       <c r="J16">
-        <v>1.000180697259046</v>
+        <v>1.136636980916063</v>
       </c>
       <c r="K16">
-        <v>0.9998975938090551</v>
+        <v>1.136636980916063</v>
       </c>
       <c r="L16">
-        <v>1.000030382563728</v>
+        <v>0.9410462648054553</v>
       </c>
       <c r="M16">
-        <v>1.000033206050818</v>
+        <v>1.042029507397916</v>
       </c>
       <c r="N16">
-        <v>1.000257782474139</v>
+        <v>1.136636980916063</v>
       </c>
       <c r="O16">
-        <v>0.9998610353871953</v>
+        <v>0.9778915617131306</v>
       </c>
       <c r="P16">
-        <v>1.000020866323121</v>
+        <v>0.9538044055525976</v>
       </c>
       <c r="Q16">
-        <v>0.9999102526827439</v>
+        <v>0.9768491090538857</v>
       </c>
       <c r="R16">
-        <v>1.00009983837346</v>
+        <v>1.01474859734042</v>
       </c>
       <c r="S16">
-        <v>1.000000400874845</v>
+        <v>0.961138489166612</v>
       </c>
       <c r="T16">
-        <v>1.00009983837346</v>
+        <v>1.01474859734042</v>
       </c>
       <c r="U16">
-        <v>1.000064746274668</v>
+        <v>1.005013112103975</v>
       </c>
       <c r="V16">
-        <v>1.000103353514562</v>
+        <v>1.031337885866393</v>
       </c>
       <c r="W16">
-        <v>1.00002445851496</v>
+        <v>0.9978877411756742</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1755,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9994486315997462</v>
+        <v>0.9317913964671676</v>
       </c>
       <c r="D17">
-        <v>0.9989708978577974</v>
+        <v>0.9686642877957308</v>
       </c>
       <c r="E17">
-        <v>1.000891420316042</v>
+        <v>1.093398976056641</v>
       </c>
       <c r="F17">
-        <v>0.9994486315997462</v>
+        <v>0.9985550444808383</v>
       </c>
       <c r="G17">
-        <v>0.9998553487761737</v>
+        <v>0.9317913964671676</v>
       </c>
       <c r="H17">
-        <v>1.000424222176317</v>
+        <v>0.9789887787292703</v>
       </c>
       <c r="I17">
-        <v>0.9994486315997462</v>
+        <v>1.027280254383582</v>
       </c>
       <c r="J17">
-        <v>0.9989708978577974</v>
+        <v>1.093398976056641</v>
       </c>
       <c r="K17">
-        <v>1.000236342825352</v>
+        <v>1.093398976056641</v>
       </c>
       <c r="L17">
-        <v>0.99989642384808</v>
+        <v>0.9474569288301197</v>
       </c>
       <c r="M17">
-        <v>0.9994735435769134</v>
+        <v>1.029214452109517</v>
       </c>
       <c r="N17">
-        <v>0.9994486315997462</v>
+        <v>1.093398976056641</v>
       </c>
       <c r="O17">
-        <v>1.000891420316042</v>
+        <v>0.9985550444808383</v>
       </c>
       <c r="P17">
-        <v>0.9999311590869195</v>
+        <v>0.9651732204740029</v>
       </c>
       <c r="Q17">
-        <v>1.000373384546108</v>
+        <v>0.9887719116050543</v>
       </c>
       <c r="R17">
-        <v>0.9997703165911952</v>
+        <v>1.007915139001549</v>
       </c>
       <c r="S17">
-        <v>0.9999058889833377</v>
+        <v>0.969778406559092</v>
       </c>
       <c r="T17">
-        <v>0.9997703165911952</v>
+        <v>1.007915139001549</v>
       </c>
       <c r="U17">
-        <v>0.9997915746374397</v>
+        <v>1.000683548933479</v>
       </c>
       <c r="V17">
-        <v>0.999722986029901</v>
+        <v>1.019226634358112</v>
       </c>
       <c r="W17">
-        <v>0.9998996038720527</v>
+        <v>0.9969187648566082</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1826,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.00355260900688</v>
+        <v>0.936328594480375</v>
       </c>
       <c r="D18">
-        <v>0.9998256754930169</v>
+        <v>0.9996752196270009</v>
       </c>
       <c r="E18">
-        <v>0.9985530858793044</v>
+        <v>1.007458371265331</v>
       </c>
       <c r="F18">
-        <v>1.00355260900688</v>
+        <v>1.039272608540553</v>
       </c>
       <c r="G18">
-        <v>0.9995987853311959</v>
+        <v>0.936328594480375</v>
       </c>
       <c r="H18">
-        <v>1.000103717037496</v>
+        <v>0.9854461880314728</v>
       </c>
       <c r="I18">
-        <v>1.00355260900688</v>
+        <v>1.027777459499697</v>
       </c>
       <c r="J18">
-        <v>0.9998256754930169</v>
+        <v>1.007458371265331</v>
       </c>
       <c r="K18">
-        <v>0.9987183992383243</v>
+        <v>1.007458371265331</v>
       </c>
       <c r="L18">
-        <v>1.000959491744342</v>
+        <v>0.9604802016915347</v>
       </c>
       <c r="M18">
-        <v>0.9993750730181035</v>
+        <v>1.003758112019189</v>
       </c>
       <c r="N18">
-        <v>1.00355260900688</v>
+        <v>1.007458371265331</v>
       </c>
       <c r="O18">
-        <v>0.9985530858793044</v>
+        <v>1.039272608540553</v>
       </c>
       <c r="P18">
-        <v>0.9991893806861607</v>
+        <v>0.9878006015104639</v>
       </c>
       <c r="Q18">
-        <v>0.9990759356052501</v>
+        <v>1.012359398286013</v>
       </c>
       <c r="R18">
-        <v>1.000643790126401</v>
+        <v>0.994353191428753</v>
       </c>
       <c r="S18">
-        <v>0.9993258489011724</v>
+        <v>0.9870157970174668</v>
       </c>
       <c r="T18">
-        <v>1.000643790126401</v>
+        <v>0.994353191428753</v>
       </c>
       <c r="U18">
-        <v>1.0003825389276</v>
+        <v>0.9921264405794329</v>
       </c>
       <c r="V18">
-        <v>1.001016552943456</v>
+        <v>0.9951928267166125</v>
       </c>
       <c r="W18">
-        <v>1.000085854593583</v>
+        <v>0.9950245943943943</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1897,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.012101184780297</v>
+        <v>0.9262237920093943</v>
       </c>
       <c r="D19">
+        <v>1.002587745171087</v>
+      </c>
+      <c r="E19">
+        <v>1.000013356846984</v>
+      </c>
+      <c r="F19">
+        <v>1.053214249772201</v>
+      </c>
+      <c r="G19">
+        <v>0.9262237920093943</v>
+      </c>
+      <c r="H19">
+        <v>0.9818305498848617</v>
+      </c>
+      <c r="I19">
+        <v>1.034308154745089</v>
+      </c>
+      <c r="J19">
+        <v>1.000013356846984</v>
+      </c>
+      <c r="K19">
+        <v>1.000013356846984</v>
+      </c>
+      <c r="L19">
+        <v>0.9538625049661935</v>
+      </c>
+      <c r="M19">
+        <v>1.000703114411204</v>
+      </c>
+      <c r="N19">
+        <v>1.000013356846984</v>
+      </c>
+      <c r="O19">
+        <v>1.053214249772201</v>
+      </c>
+      <c r="P19">
+        <v>0.9897190208907976</v>
+      </c>
+      <c r="Q19">
+        <v>1.017522399828531</v>
+      </c>
+      <c r="R19">
+        <v>0.9931504662095262</v>
+      </c>
+      <c r="S19">
+        <v>0.9870895305554855</v>
+      </c>
+      <c r="T19">
+        <v>0.9931504662095262</v>
+      </c>
+      <c r="U19">
+        <v>0.9903204871283601</v>
+      </c>
+      <c r="V19">
+        <v>0.9922590610720847</v>
+      </c>
+      <c r="W19">
+        <v>0.9940929334758767</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000180697259046</v>
+      </c>
+      <c r="D20">
+        <v>0.9998975938090551</v>
+      </c>
+      <c r="E20">
+        <v>1.000257782474139</v>
+      </c>
+      <c r="F20">
+        <v>0.9998610353871951</v>
+      </c>
+      <c r="G20">
+        <v>1.000180697259046</v>
+      </c>
+      <c r="H20">
+        <v>0.999959469978293</v>
+      </c>
+      <c r="I20">
+        <v>0.9999755005974089</v>
+      </c>
+      <c r="J20">
+        <v>1.000257782474139</v>
+      </c>
+      <c r="K20">
+        <v>1.000257782474139</v>
+      </c>
+      <c r="L20">
+        <v>1.000033206050818</v>
+      </c>
+      <c r="M20">
+        <v>1.000030382563728</v>
+      </c>
+      <c r="N20">
+        <v>1.000257782474139</v>
+      </c>
+      <c r="O20">
+        <v>0.9998610353871951</v>
+      </c>
+      <c r="P20">
+        <v>1.00002086632312</v>
+      </c>
+      <c r="Q20">
+        <v>0.999910252682744</v>
+      </c>
+      <c r="R20">
+        <v>1.00009983837346</v>
+      </c>
+      <c r="S20">
+        <v>1.000000400874845</v>
+      </c>
+      <c r="T20">
+        <v>1.00009983837346</v>
+      </c>
+      <c r="U20">
+        <v>1.000064746274668</v>
+      </c>
+      <c r="V20">
+        <v>1.000103353514562</v>
+      </c>
+      <c r="W20">
+        <v>1.00002445851496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9989708978577974</v>
+      </c>
+      <c r="D21">
+        <v>1.000236342825352</v>
+      </c>
+      <c r="E21">
+        <v>0.9994486315997463</v>
+      </c>
+      <c r="F21">
+        <v>1.000891420316042</v>
+      </c>
+      <c r="G21">
+        <v>0.9989708978577974</v>
+      </c>
+      <c r="H21">
+        <v>0.9998553487761737</v>
+      </c>
+      <c r="I21">
+        <v>1.000424222176317</v>
+      </c>
+      <c r="J21">
+        <v>0.9994486315997463</v>
+      </c>
+      <c r="K21">
+        <v>0.9994486315997463</v>
+      </c>
+      <c r="L21">
+        <v>0.999473543576913</v>
+      </c>
+      <c r="M21">
+        <v>0.9998964238480799</v>
+      </c>
+      <c r="N21">
+        <v>0.9994486315997463</v>
+      </c>
+      <c r="O21">
+        <v>1.000891420316042</v>
+      </c>
+      <c r="P21">
+        <v>0.9999311590869197</v>
+      </c>
+      <c r="Q21">
+        <v>1.000373384546108</v>
+      </c>
+      <c r="R21">
+        <v>0.9997703165911952</v>
+      </c>
+      <c r="S21">
+        <v>0.9999058889833377</v>
+      </c>
+      <c r="T21">
+        <v>0.9997703165911952</v>
+      </c>
+      <c r="U21">
+        <v>0.9997915746374397</v>
+      </c>
+      <c r="V21">
+        <v>0.999722986029901</v>
+      </c>
+      <c r="W21">
+        <v>0.9998996038720527</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9998256754930169</v>
+      </c>
+      <c r="D22">
+        <v>0.9987183992383241</v>
+      </c>
+      <c r="E22">
+        <v>1.003552609006881</v>
+      </c>
+      <c r="F22">
+        <v>0.9985530858793044</v>
+      </c>
+      <c r="G22">
+        <v>0.9998256754930169</v>
+      </c>
+      <c r="H22">
+        <v>0.9995987853311956</v>
+      </c>
+      <c r="I22">
+        <v>1.000103717037496</v>
+      </c>
+      <c r="J22">
+        <v>1.003552609006881</v>
+      </c>
+      <c r="K22">
+        <v>1.003552609006881</v>
+      </c>
+      <c r="L22">
+        <v>0.999375073018103</v>
+      </c>
+      <c r="M22">
+        <v>1.000959491744342</v>
+      </c>
+      <c r="N22">
+        <v>1.003552609006881</v>
+      </c>
+      <c r="O22">
+        <v>0.9985530858793044</v>
+      </c>
+      <c r="P22">
+        <v>0.9991893806861607</v>
+      </c>
+      <c r="Q22">
+        <v>0.99907593560525</v>
+      </c>
+      <c r="R22">
+        <v>1.000643790126401</v>
+      </c>
+      <c r="S22">
+        <v>0.9993258489011723</v>
+      </c>
+      <c r="T22">
+        <v>1.000643790126401</v>
+      </c>
+      <c r="U22">
+        <v>1.000382538927599</v>
+      </c>
+      <c r="V22">
+        <v>1.001016552943456</v>
+      </c>
+      <c r="W22">
+        <v>1.000085854593583</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>1.002110748158929</v>
       </c>
-      <c r="E19">
+      <c r="D23">
+        <v>0.9955218694672872</v>
+      </c>
+      <c r="E23">
+        <v>1.012101184780296</v>
+      </c>
+      <c r="F23">
         <v>0.993594359810794</v>
       </c>
-      <c r="F19">
-        <v>1.012101184780297</v>
-      </c>
-      <c r="G19">
+      <c r="G23">
+        <v>1.002110748158929</v>
+      </c>
+      <c r="H23">
         <v>0.9990341857767988</v>
       </c>
-      <c r="H19">
+      <c r="I23">
         <v>0.9993594104303223</v>
       </c>
-      <c r="I19">
-        <v>1.012101184780297</v>
-      </c>
-      <c r="J19">
-        <v>1.002110748158929</v>
-      </c>
-      <c r="K19">
-        <v>0.9955218694672872</v>
-      </c>
-      <c r="L19">
+      <c r="J23">
+        <v>1.012101184780296</v>
+      </c>
+      <c r="K23">
+        <v>1.012101184780296</v>
+      </c>
+      <c r="L23">
+        <v>0.9993690587800974</v>
+      </c>
+      <c r="M23">
         <v>1.003079326359816</v>
       </c>
-      <c r="M19">
-        <v>0.9993690587800973</v>
-      </c>
-      <c r="N19">
-        <v>1.012101184780297</v>
-      </c>
-      <c r="O19">
+      <c r="N23">
+        <v>1.012101184780296</v>
+      </c>
+      <c r="O23">
         <v>0.993594359810794</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9978525539848617</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9963142727937964</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.00260209758334</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9982464312488407</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.00260209758334</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>1.001710119631705</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.003788332661423</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>1.000521267945543</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/BrassA-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW25.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9966887321707144</v>
+        <v>0.9214744326945224</v>
       </c>
       <c r="D3">
-        <v>0.9974264338150487</v>
+        <v>0.9988131822550456</v>
       </c>
       <c r="E3">
-        <v>1.007420704489601</v>
+        <v>1.011278882269447</v>
       </c>
       <c r="F3">
-        <v>0.9985406079215192</v>
+        <v>1.047829140165706</v>
       </c>
       <c r="G3">
-        <v>0.9966887321707144</v>
+        <v>0.9214744326945224</v>
       </c>
       <c r="H3">
-        <v>0.9987512220209317</v>
+        <v>0.981664533443804</v>
       </c>
       <c r="I3">
-        <v>1.001287303069682</v>
+        <v>1.034459843674352</v>
       </c>
       <c r="J3">
-        <v>1.007420704489601</v>
+        <v>1.011278882269447</v>
       </c>
       <c r="K3">
-        <v>1.007420704489601</v>
+        <v>1.011278882269447</v>
       </c>
       <c r="L3">
-        <v>0.9970698751499381</v>
+        <v>0.9508181248775236</v>
       </c>
       <c r="M3">
-        <v>1.002243095781198</v>
+        <v>1.005103490453891</v>
       </c>
       <c r="N3">
-        <v>1.007420704489601</v>
+        <v>1.011278882269447</v>
       </c>
       <c r="O3">
-        <v>0.9985406079215192</v>
+        <v>1.047829140165706</v>
       </c>
       <c r="P3">
-        <v>0.9976146700461168</v>
+        <v>0.9846517864301141</v>
       </c>
       <c r="Q3">
-        <v>0.9986459149712255</v>
+        <v>1.014746836804755</v>
       </c>
       <c r="R3">
-        <v>1.000883348193945</v>
+        <v>0.9935274850432251</v>
       </c>
       <c r="S3">
-        <v>0.9979935207043885</v>
+        <v>0.9836560354346774</v>
       </c>
       <c r="T3">
-        <v>1.000883348193945</v>
+        <v>0.9935274850432253</v>
       </c>
       <c r="U3">
-        <v>1.000350316650692</v>
+        <v>0.99056174714337</v>
       </c>
       <c r="V3">
-        <v>1.001764394218473</v>
+        <v>0.9947051741685854</v>
       </c>
       <c r="W3">
-        <v>0.9999284968023291</v>
+        <v>0.9939302037292865</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9934589665563499</v>
+        <v>0.9293161453251982</v>
       </c>
       <c r="D4">
-        <v>0.9950967011152565</v>
+        <v>0.9994412323164371</v>
       </c>
       <c r="E4">
-        <v>1.014179771657182</v>
+        <v>1.008781056265374</v>
       </c>
       <c r="F4">
-        <v>0.9972516214398184</v>
+        <v>1.043608087443159</v>
       </c>
       <c r="G4">
-        <v>0.9934589665563499</v>
+        <v>0.9293161453251982</v>
       </c>
       <c r="H4">
-        <v>0.9976248795993053</v>
+        <v>0.9836628920126751</v>
       </c>
       <c r="I4">
-        <v>1.002494120428265</v>
+        <v>1.030974228688032</v>
       </c>
       <c r="J4">
-        <v>1.014179771657182</v>
+        <v>1.008781056265374</v>
       </c>
       <c r="K4">
-        <v>1.014179771657182</v>
+        <v>1.008781056265374</v>
       </c>
       <c r="L4">
-        <v>0.9943153237397316</v>
+        <v>0.9559557153484872</v>
       </c>
       <c r="M4">
-        <v>1.004325359557431</v>
+        <v>1.004233526804884</v>
       </c>
       <c r="N4">
-        <v>1.014179771657182</v>
+        <v>1.008781056265374</v>
       </c>
       <c r="O4">
-        <v>0.9972516214398184</v>
+        <v>1.043608087443159</v>
       </c>
       <c r="P4">
-        <v>0.9953552939980841</v>
+        <v>0.9864621163841789</v>
       </c>
       <c r="Q4">
-        <v>0.9974382505195618</v>
+        <v>1.013635489727917</v>
       </c>
       <c r="R4">
-        <v>1.00163011988445</v>
+        <v>0.993901763011244</v>
       </c>
       <c r="S4">
-        <v>0.9961118225318245</v>
+        <v>0.9855290415936776</v>
       </c>
       <c r="T4">
-        <v>1.00163011988445</v>
+        <v>0.993901763011244</v>
       </c>
       <c r="U4">
-        <v>1.000628809813164</v>
+        <v>0.9913420452616017</v>
       </c>
       <c r="V4">
-        <v>1.003339002181967</v>
+        <v>0.9948298474623563</v>
       </c>
       <c r="W4">
-        <v>0.9998433430116676</v>
+        <v>0.9944966105255308</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9873904745460572</v>
+        <v>0.9065673382749332</v>
       </c>
       <c r="D5">
-        <v>0.9907126028737999</v>
+        <v>0.9976753624797827</v>
       </c>
       <c r="E5">
-        <v>1.026856895076717</v>
+        <v>1.01587372528302</v>
       </c>
       <c r="F5">
-        <v>0.995128359093951</v>
+        <v>1.055917645417789</v>
       </c>
       <c r="G5">
-        <v>0.9873904745460572</v>
+        <v>0.9065673382749332</v>
       </c>
       <c r="H5">
-        <v>0.9953493656336247</v>
+        <v>0.9778831956334219</v>
       </c>
       <c r="I5">
-        <v>1.004924871540958</v>
+        <v>1.041082765229109</v>
       </c>
       <c r="J5">
-        <v>1.026856895076717</v>
+        <v>1.01587372528302</v>
       </c>
       <c r="K5">
-        <v>1.026856895076717</v>
+        <v>1.01587372528302</v>
       </c>
       <c r="L5">
-        <v>0.9890228184762478</v>
+        <v>0.9410755372776289</v>
       </c>
       <c r="M5">
-        <v>1.008135576700631</v>
+        <v>1.00671691361186</v>
       </c>
       <c r="N5">
-        <v>1.026856895076717</v>
+        <v>1.01587372528302</v>
       </c>
       <c r="O5">
-        <v>0.995128359093951</v>
+        <v>1.055917645417789</v>
       </c>
       <c r="P5">
-        <v>0.9912594168200042</v>
+        <v>0.9812424918463611</v>
       </c>
       <c r="Q5">
-        <v>0.9952388623637879</v>
+        <v>1.016900420525606</v>
       </c>
       <c r="R5">
-        <v>1.003125242905575</v>
+        <v>0.9927862363252475</v>
       </c>
       <c r="S5">
-        <v>0.9926227330912111</v>
+        <v>0.980122726442048</v>
       </c>
       <c r="T5">
-        <v>1.003125242905575</v>
+        <v>0.9927862363252477</v>
       </c>
       <c r="U5">
-        <v>1.001181273587587</v>
+        <v>0.9890604761522912</v>
       </c>
       <c r="V5">
-        <v>1.006316397885413</v>
+        <v>0.9944231259784371</v>
       </c>
       <c r="W5">
-        <v>0.9996901204927482</v>
+        <v>0.9928490604009432</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9814573694283297</v>
+        <v>0.8926309861363639</v>
       </c>
       <c r="D6">
-        <v>0.9864437204642842</v>
+        <v>0.9966782799431816</v>
       </c>
       <c r="E6">
-        <v>1.039170642772627</v>
+        <v>1.019986956931819</v>
       </c>
       <c r="F6">
-        <v>0.9931079222446645</v>
+        <v>1.063555798238635</v>
       </c>
       <c r="G6">
-        <v>0.9814573694283297</v>
+        <v>0.8926309861363639</v>
       </c>
       <c r="H6">
-        <v>0.9931216742615072</v>
+        <v>0.974368942954546</v>
       </c>
       <c r="I6">
-        <v>1.007319037492703</v>
+        <v>1.047270574545455</v>
       </c>
       <c r="J6">
-        <v>1.039170642772627</v>
+        <v>1.019986956931819</v>
       </c>
       <c r="K6">
-        <v>1.039170642772627</v>
+        <v>1.019986956931819</v>
       </c>
       <c r="L6">
-        <v>0.9838458304664689</v>
+        <v>0.9319958663068176</v>
       </c>
       <c r="M6">
-        <v>1.011841147936565</v>
+        <v>1.008177298011364</v>
       </c>
       <c r="N6">
-        <v>1.039170642772627</v>
+        <v>1.019986956931819</v>
       </c>
       <c r="O6">
-        <v>0.9931079222446645</v>
+        <v>1.063555798238635</v>
       </c>
       <c r="P6">
-        <v>0.9872826458364972</v>
+        <v>0.9780933921874995</v>
       </c>
       <c r="Q6">
-        <v>0.9931147982530859</v>
+        <v>1.01896237059659</v>
       </c>
       <c r="R6">
-        <v>1.004578644815207</v>
+        <v>0.9920579137689391</v>
       </c>
       <c r="S6">
-        <v>0.9892289886448339</v>
+        <v>0.9768519091098483</v>
       </c>
       <c r="T6">
-        <v>1.004578644815207</v>
+        <v>0.9920579137689391</v>
       </c>
       <c r="U6">
-        <v>1.001714402176782</v>
+        <v>0.9876356710653409</v>
       </c>
       <c r="V6">
-        <v>1.009205650295951</v>
+        <v>0.9941059282386364</v>
       </c>
       <c r="W6">
-        <v>0.9995384181333937</v>
+        <v>0.9918330878835226</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9994359056785779</v>
+        <v>0.6021978170197639</v>
       </c>
       <c r="D7">
-        <v>1.000011550643513</v>
+        <v>0.9613681352179658</v>
       </c>
       <c r="E7">
-        <v>1.000023774939741</v>
+        <v>1.148291044481581</v>
       </c>
       <c r="F7">
-        <v>1.000381704938957</v>
+        <v>1.169771341054862</v>
       </c>
       <c r="G7">
-        <v>0.9994359056785779</v>
+        <v>0.6021978170197639</v>
       </c>
       <c r="H7">
-        <v>0.9998669090581661</v>
+        <v>0.9159237881449839</v>
       </c>
       <c r="I7">
-        <v>1.000254422394022</v>
+        <v>1.157741054005581</v>
       </c>
       <c r="J7">
-        <v>1.000023774939741</v>
+        <v>1.148291044481581</v>
       </c>
       <c r="K7">
-        <v>1.000023774939741</v>
+        <v>1.148291044481581</v>
       </c>
       <c r="L7">
-        <v>0.9996496822489483</v>
+        <v>0.7503196049283846</v>
       </c>
       <c r="M7">
-        <v>1.000016981722542</v>
+        <v>1.06214057069439</v>
       </c>
       <c r="N7">
-        <v>1.000023774939741</v>
+        <v>1.148291044481581</v>
       </c>
       <c r="O7">
-        <v>1.000381704938957</v>
+        <v>1.169771341054862</v>
       </c>
       <c r="P7">
-        <v>0.9999088053087675</v>
+        <v>0.8859845790373129</v>
       </c>
       <c r="Q7">
-        <v>1.000124306998561</v>
+        <v>1.042847564599923</v>
       </c>
       <c r="R7">
-        <v>0.999947128519092</v>
+        <v>0.9734200675187358</v>
       </c>
       <c r="S7">
-        <v>0.9998948398919003</v>
+        <v>0.8959643154065365</v>
       </c>
       <c r="T7">
-        <v>0.9999471285190918</v>
+        <v>0.9734200675187358</v>
       </c>
       <c r="U7">
-        <v>0.9999270736538604</v>
+        <v>0.9590459976752977</v>
       </c>
       <c r="V7">
-        <v>0.9999464139110363</v>
+        <v>0.9968950070365544</v>
       </c>
       <c r="W7">
-        <v>0.9999551164530582</v>
+        <v>0.970969169443439</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9984315253742191</v>
+        <v>0.6020198843442415</v>
       </c>
       <c r="D8">
-        <v>0.9999792054131514</v>
+        <v>0.961523138601477</v>
       </c>
       <c r="E8">
-        <v>1.000216475310121</v>
+        <v>1.14787249576717</v>
       </c>
       <c r="F8">
-        <v>1.000954781927416</v>
+        <v>1.17021616720523</v>
       </c>
       <c r="G8">
-        <v>0.9984315253742191</v>
+        <v>0.6020198843442415</v>
       </c>
       <c r="H8">
-        <v>0.9996371499060969</v>
+        <v>0.9158487791668299</v>
       </c>
       <c r="I8">
-        <v>1.000686053488528</v>
+        <v>1.157892921556712</v>
       </c>
       <c r="J8">
-        <v>1.000216475310121</v>
+        <v>1.14787249576717</v>
       </c>
       <c r="K8">
-        <v>1.000216475310121</v>
+        <v>1.14787249576717</v>
       </c>
       <c r="L8">
-        <v>0.9990204891915054</v>
+        <v>0.7502166113772195</v>
       </c>
       <c r="M8">
-        <v>1.000101457802424</v>
+        <v>1.061982663063161</v>
       </c>
       <c r="N8">
-        <v>1.000216475310121</v>
+        <v>1.14787249576717</v>
       </c>
       <c r="O8">
-        <v>1.000954781927416</v>
+        <v>1.17021616720523</v>
       </c>
       <c r="P8">
-        <v>0.9996931536508178</v>
+        <v>0.8861180257747355</v>
       </c>
       <c r="Q8">
-        <v>1.000295965916757</v>
+        <v>1.04303247318603</v>
       </c>
       <c r="R8">
-        <v>0.999867594203919</v>
+        <v>0.9733695157722136</v>
       </c>
       <c r="S8">
-        <v>0.9996744857359108</v>
+        <v>0.8960282769054336</v>
       </c>
       <c r="T8">
-        <v>0.999867594203919</v>
+        <v>0.9733695157722136</v>
       </c>
       <c r="U8">
-        <v>0.9998099831294635</v>
+        <v>0.9589893316208677</v>
       </c>
       <c r="V8">
-        <v>0.999891281565595</v>
+        <v>0.9967659644501282</v>
       </c>
       <c r="W8">
-        <v>0.9998783923016827</v>
+        <v>0.970946582635255</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9978693833721992</v>
+        <v>0.6016793235979657</v>
       </c>
       <c r="D9">
-        <v>0.9999330562521883</v>
+        <v>0.9618197418641736</v>
       </c>
       <c r="E9">
-        <v>1.000401957518954</v>
+        <v>1.147071599369078</v>
       </c>
       <c r="F9">
-        <v>1.00119432219303</v>
+        <v>1.171067418915539</v>
       </c>
       <c r="G9">
-        <v>0.9978693833721992</v>
+        <v>0.6016793235979657</v>
       </c>
       <c r="H9">
-        <v>0.9995269346368746</v>
+        <v>0.9157052213957506</v>
       </c>
       <c r="I9">
-        <v>1.000903119228238</v>
+        <v>1.158183567230267</v>
       </c>
       <c r="J9">
-        <v>1.000401957518954</v>
+        <v>1.147071599369078</v>
       </c>
       <c r="K9">
-        <v>1.000401957518954</v>
+        <v>1.147071599369078</v>
       </c>
       <c r="L9">
-        <v>0.9986752711934066</v>
+        <v>0.750019474560164</v>
       </c>
       <c r="M9">
-        <v>1.000187135299028</v>
+        <v>1.061680501862094</v>
       </c>
       <c r="N9">
-        <v>1.000401957518954</v>
+        <v>1.147071599369078</v>
       </c>
       <c r="O9">
-        <v>1.00119432219303</v>
+        <v>1.171067418915539</v>
       </c>
       <c r="P9">
-        <v>0.9995318527826146</v>
+        <v>0.8863733712567523</v>
       </c>
       <c r="Q9">
-        <v>1.000360628414952</v>
+        <v>1.043386320155645</v>
       </c>
       <c r="R9">
-        <v>0.9998218876947277</v>
+        <v>0.9732727806275273</v>
       </c>
       <c r="S9">
-        <v>0.9995302134007013</v>
+        <v>0.8961506546364184</v>
       </c>
       <c r="T9">
-        <v>0.9998218876947277</v>
+        <v>0.9732727806275275</v>
       </c>
       <c r="U9">
-        <v>0.9997481494302644</v>
+        <v>0.9588808908195833</v>
       </c>
       <c r="V9">
-        <v>0.9998789110480022</v>
+        <v>0.9965190325294822</v>
       </c>
       <c r="W9">
-        <v>0.9998363974617397</v>
+        <v>0.9709033560993789</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9953582875217682</v>
+        <v>0.6017054866771185</v>
       </c>
       <c r="D10">
-        <v>0.9998957602143039</v>
+        <v>0.9617971919433895</v>
       </c>
       <c r="E10">
-        <v>1.000758313260834</v>
+        <v>1.147132463940416</v>
       </c>
       <c r="F10">
-        <v>1.002711098243058</v>
+        <v>1.171002484931921</v>
       </c>
       <c r="G10">
-        <v>0.9953582875217682</v>
+        <v>0.6017054866771185</v>
       </c>
       <c r="H10">
-        <v>0.9989492173911442</v>
+        <v>0.9157162221882311</v>
       </c>
       <c r="I10">
-        <v>1.001997851150652</v>
+        <v>1.158161326723205</v>
       </c>
       <c r="J10">
-        <v>1.000758313260834</v>
+        <v>1.147132463940416</v>
       </c>
       <c r="K10">
-        <v>1.000758313260834</v>
+        <v>1.147132463940416</v>
       </c>
       <c r="L10">
-        <v>0.9971083172617001</v>
+        <v>0.7500346476661895</v>
       </c>
       <c r="M10">
-        <v>1.000355375761323</v>
+        <v>1.061703476752827</v>
       </c>
       <c r="N10">
-        <v>1.000758313260834</v>
+        <v>1.147132463940416</v>
       </c>
       <c r="O10">
-        <v>1.002711098243058</v>
+        <v>1.171002484931921</v>
       </c>
       <c r="P10">
-        <v>0.9990346928824134</v>
+        <v>0.88635398580452</v>
       </c>
       <c r="Q10">
-        <v>1.000830157817101</v>
+        <v>1.043359353560076</v>
       </c>
       <c r="R10">
-        <v>0.9996092330085536</v>
+        <v>0.973280145183152</v>
       </c>
       <c r="S10">
-        <v>0.9990062010519903</v>
+        <v>0.8961413979324236</v>
       </c>
       <c r="T10">
-        <v>0.9996092330085536</v>
+        <v>0.973280145183152</v>
       </c>
       <c r="U10">
-        <v>0.9994442291042013</v>
+        <v>0.9588891644344217</v>
       </c>
       <c r="V10">
-        <v>0.9997070459355278</v>
+        <v>0.9965378243356205</v>
       </c>
       <c r="W10">
-        <v>0.9996417776005979</v>
+        <v>0.9709066626029123</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9923898201283626</v>
+        <v>0.9948731642185173</v>
       </c>
       <c r="D11">
-        <v>0.9996833020711159</v>
+        <v>0.9970387062094919</v>
       </c>
       <c r="E11">
-        <v>1.001655182388622</v>
+        <v>1.008701996484606</v>
       </c>
       <c r="F11">
-        <v>1.004130691028202</v>
+        <v>0.9988118913825212</v>
       </c>
       <c r="G11">
-        <v>0.9923898201283626</v>
+        <v>0.9948731642185173</v>
       </c>
       <c r="H11">
-        <v>0.9983094604310476</v>
+        <v>0.9984385575879962</v>
       </c>
       <c r="I11">
-        <v>1.003205634172343</v>
+        <v>1.001880427344801</v>
       </c>
       <c r="J11">
-        <v>1.001655182388622</v>
+        <v>1.008701996484606</v>
       </c>
       <c r="K11">
-        <v>1.001655182388622</v>
+        <v>1.008701996484606</v>
       </c>
       <c r="L11">
-        <v>0.9952522839438329</v>
+        <v>0.9959383110160175</v>
       </c>
       <c r="M11">
-        <v>1.000740263463752</v>
+        <v>1.002771859119746</v>
       </c>
       <c r="N11">
-        <v>1.001655182388622</v>
+        <v>1.008701996484606</v>
       </c>
       <c r="O11">
-        <v>1.004130691028202</v>
+        <v>0.9988118913825212</v>
       </c>
       <c r="P11">
-        <v>0.9982602555782822</v>
+        <v>0.9968425278005193</v>
       </c>
       <c r="Q11">
-        <v>1.001220075729625</v>
+        <v>0.9986252244852587</v>
       </c>
       <c r="R11">
-        <v>0.9993918978483954</v>
+        <v>1.000795684028548</v>
       </c>
       <c r="S11">
-        <v>0.9982766571958708</v>
+        <v>0.9973745377296783</v>
       </c>
       <c r="T11">
-        <v>0.9993918978483954</v>
+        <v>1.000795684028548</v>
       </c>
       <c r="U11">
-        <v>0.9991212884940586</v>
+        <v>1.00020640241841</v>
       </c>
       <c r="V11">
-        <v>0.9996280672729713</v>
+        <v>1.001905521231649</v>
       </c>
       <c r="W11">
-        <v>0.9994208297034098</v>
+        <v>0.9998068641704621</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.157636738154069</v>
+        <v>0.996399644689363</v>
       </c>
       <c r="D12">
-        <v>0.974864289375493</v>
+        <v>0.9985449011792997</v>
       </c>
       <c r="E12">
-        <v>1.051388670160163</v>
+        <v>1.004380409215923</v>
       </c>
       <c r="F12">
-        <v>0.8811496961509875</v>
+        <v>1.000136171064429</v>
       </c>
       <c r="G12">
-        <v>1.157636738154069</v>
+        <v>0.996399644689363</v>
       </c>
       <c r="H12">
-        <v>1.023781856586572</v>
+        <v>0.9989636273664676</v>
       </c>
       <c r="I12">
-        <v>0.9370300531303986</v>
+        <v>1.001420213159135</v>
       </c>
       <c r="J12">
-        <v>1.051388670160163</v>
+        <v>1.004380409215923</v>
       </c>
       <c r="K12">
-        <v>1.051388670160163</v>
+        <v>1.004380409215923</v>
       </c>
       <c r="L12">
-        <v>1.083746428940472</v>
+        <v>0.9973181633328561</v>
       </c>
       <c r="M12">
-        <v>1.006543621874826</v>
+        <v>1.001405663387431</v>
       </c>
       <c r="N12">
-        <v>1.051388670160163</v>
+        <v>1.004380409215923</v>
       </c>
       <c r="O12">
-        <v>0.8811496961509875</v>
+        <v>1.000136171064429</v>
       </c>
       <c r="P12">
-        <v>1.019393217152528</v>
+        <v>0.9982679078768959</v>
       </c>
       <c r="Q12">
-        <v>0.9524657763687797</v>
+        <v>0.9995498992154481</v>
       </c>
       <c r="R12">
-        <v>1.030058368155073</v>
+        <v>1.000305408323238</v>
       </c>
       <c r="S12">
-        <v>1.020856096963876</v>
+        <v>0.9984998143734197</v>
       </c>
       <c r="T12">
-        <v>1.030058368155073</v>
+        <v>1.000305408323238</v>
       </c>
       <c r="U12">
-        <v>1.028489240262948</v>
+        <v>0.9999699630840454</v>
       </c>
       <c r="V12">
-        <v>1.033069126242391</v>
+        <v>1.000852052310421</v>
       </c>
       <c r="W12">
-        <v>1.014517669296623</v>
+        <v>0.999821099174363</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9897858132154131</v>
+        <v>0.9884528001423458</v>
       </c>
       <c r="D13">
-        <v>1.023831357310236</v>
+        <v>0.9948723945327029</v>
       </c>
       <c r="E13">
-        <v>0.9355928644891256</v>
+        <v>1.015300896892055</v>
       </c>
       <c r="F13">
-        <v>1.032157968565828</v>
+        <v>0.9999471513508381</v>
       </c>
       <c r="G13">
-        <v>0.9897858132154131</v>
+        <v>0.9884528001423458</v>
       </c>
       <c r="H13">
-        <v>1.00606276986319</v>
+        <v>0.9965137075416518</v>
       </c>
       <c r="I13">
-        <v>1.002274981732172</v>
+        <v>1.004601866313473</v>
       </c>
       <c r="J13">
-        <v>0.9355928644891256</v>
+        <v>1.015300896892055</v>
       </c>
       <c r="K13">
-        <v>0.9355928644891256</v>
+        <v>1.015300896892055</v>
       </c>
       <c r="L13">
-        <v>1.004479277257104</v>
+        <v>0.9911879750956396</v>
       </c>
       <c r="M13">
-        <v>0.9840237090203153</v>
+        <v>1.004827249651425</v>
       </c>
       <c r="N13">
-        <v>0.9355928644891256</v>
+        <v>1.015300896892055</v>
       </c>
       <c r="O13">
-        <v>1.032157968565828</v>
+        <v>0.9999471513508381</v>
       </c>
       <c r="P13">
-        <v>1.01097189089062</v>
+        <v>0.994199975746592</v>
       </c>
       <c r="Q13">
-        <v>1.019110369214509</v>
+        <v>0.998230429446245</v>
       </c>
       <c r="R13">
-        <v>0.9858455487567888</v>
+        <v>1.001233616128413</v>
       </c>
       <c r="S13">
-        <v>1.00933551721481</v>
+        <v>0.9949712196782786</v>
       </c>
       <c r="T13">
-        <v>0.9858455487567888</v>
+        <v>1.001233616128413</v>
       </c>
       <c r="U13">
-        <v>0.9908998540333891</v>
+        <v>1.000053638981723</v>
       </c>
       <c r="V13">
-        <v>0.9798384561245363</v>
+        <v>1.003103090563789</v>
       </c>
       <c r="W13">
-        <v>0.9972760926816731</v>
+        <v>0.9994630051900166</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.274525819602066</v>
+        <v>0.9902572469103951</v>
       </c>
       <c r="D14">
-        <v>1.0556921547135</v>
+        <v>0.9930710656835456</v>
       </c>
       <c r="E14">
-        <v>0.8167524683051485</v>
+        <v>1.020079233426056</v>
       </c>
       <c r="F14">
-        <v>0.9166065752138568</v>
+        <v>0.9965078145071111</v>
       </c>
       <c r="G14">
-        <v>1.274525819602066</v>
+        <v>0.9902572469103951</v>
       </c>
       <c r="H14">
-        <v>1.067328978838221</v>
+        <v>0.9964886965884178</v>
       </c>
       <c r="I14">
-        <v>0.889725005151477</v>
+        <v>1.003785097005495</v>
       </c>
       <c r="J14">
-        <v>0.8167524683051485</v>
+        <v>1.020079233426056</v>
       </c>
       <c r="K14">
-        <v>0.8167524683051485</v>
+        <v>1.020079233426056</v>
       </c>
       <c r="L14">
-        <v>1.184685975631371</v>
+        <v>0.9916278485674579</v>
       </c>
       <c r="M14">
-        <v>0.9363073158876608</v>
+        <v>1.006111586471993</v>
       </c>
       <c r="N14">
-        <v>0.8167524683051485</v>
+        <v>1.020079233426056</v>
       </c>
       <c r="O14">
-        <v>0.9166065752138568</v>
+        <v>0.9965078145071111</v>
       </c>
       <c r="P14">
-        <v>1.095566197407962</v>
+        <v>0.9933825307087532</v>
       </c>
       <c r="Q14">
-        <v>0.9919677770260389</v>
+        <v>0.9964982555477644</v>
       </c>
       <c r="R14">
-        <v>1.002628287707024</v>
+        <v>1.002281431614521</v>
       </c>
       <c r="S14">
-        <v>1.086153791218048</v>
+        <v>0.9944179193353081</v>
       </c>
       <c r="T14">
-        <v>1.002628287707024</v>
+        <v>1.002281431614521</v>
       </c>
       <c r="U14">
-        <v>1.018803460489823</v>
+        <v>1.000833247857995</v>
       </c>
       <c r="V14">
-        <v>0.9783932620528883</v>
+        <v>1.004682444971607</v>
       </c>
       <c r="W14">
-        <v>1.017703036667913</v>
+        <v>0.9997410736450588</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.086263935413478</v>
+        <v>0.9966887321707144</v>
       </c>
       <c r="D15">
-        <v>1.013684794133076</v>
+        <v>0.9974264338150487</v>
       </c>
       <c r="E15">
-        <v>0.9502127844330988</v>
+        <v>1.007420704489601</v>
       </c>
       <c r="F15">
-        <v>0.9923458013234966</v>
+        <v>0.9985406079215192</v>
       </c>
       <c r="G15">
-        <v>1.086263935413478</v>
+        <v>0.9966887321707144</v>
       </c>
       <c r="H15">
-        <v>1.008060594746041</v>
+        <v>0.9987512220209317</v>
       </c>
       <c r="I15">
-        <v>0.9777567528305007</v>
+        <v>1.001287303069682</v>
       </c>
       <c r="J15">
-        <v>0.9502127844330988</v>
+        <v>1.007420704489601</v>
       </c>
       <c r="K15">
-        <v>0.9502127844330988</v>
+        <v>1.007420704489601</v>
       </c>
       <c r="L15">
-        <v>1.04782111932408</v>
+        <v>0.9970698751499381</v>
       </c>
       <c r="M15">
-        <v>0.9746441528022979</v>
+        <v>1.002243095781198</v>
       </c>
       <c r="N15">
-        <v>0.9502127844330988</v>
+        <v>1.007420704489601</v>
       </c>
       <c r="O15">
-        <v>0.9923458013234966</v>
+        <v>0.9985406079215192</v>
       </c>
       <c r="P15">
-        <v>1.039304868368487</v>
+        <v>0.9976146700461168</v>
       </c>
       <c r="Q15">
-        <v>1.000203198034769</v>
+        <v>0.9986459149712255</v>
       </c>
       <c r="R15">
-        <v>1.009607507056691</v>
+        <v>1.000883348193945</v>
       </c>
       <c r="S15">
-        <v>1.028890110494338</v>
+        <v>0.9979935207043885</v>
       </c>
       <c r="T15">
-        <v>1.009607507056691</v>
+        <v>1.000883348193945</v>
       </c>
       <c r="U15">
-        <v>1.009220778979029</v>
+        <v>1.000350316650692</v>
       </c>
       <c r="V15">
-        <v>0.9974191800698426</v>
+        <v>1.001764394218473</v>
       </c>
       <c r="W15">
-        <v>1.006348741875759</v>
+        <v>0.9999284968023291</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9297172493920646</v>
+        <v>0.9934589665563499</v>
       </c>
       <c r="D16">
-        <v>0.9530557571502289</v>
+        <v>0.9950967011152565</v>
       </c>
       <c r="E16">
-        <v>1.136636980916063</v>
+        <v>1.014179771657182</v>
       </c>
       <c r="F16">
-        <v>0.9778915617131306</v>
+        <v>0.9972516214398184</v>
       </c>
       <c r="G16">
-        <v>0.9297172493920646</v>
+        <v>0.9934589665563499</v>
       </c>
       <c r="H16">
-        <v>0.9758066563946407</v>
+        <v>0.9976248795993053</v>
       </c>
       <c r="I16">
-        <v>1.026917951635895</v>
+        <v>1.002494120428265</v>
       </c>
       <c r="J16">
-        <v>1.136636980916063</v>
+        <v>1.014179771657182</v>
       </c>
       <c r="K16">
-        <v>1.136636980916063</v>
+        <v>1.014179771657182</v>
       </c>
       <c r="L16">
-        <v>0.9410462648054553</v>
+        <v>0.9943153237397316</v>
       </c>
       <c r="M16">
-        <v>1.042029507397916</v>
+        <v>1.004325359557431</v>
       </c>
       <c r="N16">
-        <v>1.136636980916063</v>
+        <v>1.014179771657182</v>
       </c>
       <c r="O16">
-        <v>0.9778915617131306</v>
+        <v>0.9972516214398184</v>
       </c>
       <c r="P16">
-        <v>0.9538044055525976</v>
+        <v>0.9953552939980841</v>
       </c>
       <c r="Q16">
-        <v>0.9768491090538857</v>
+        <v>0.9974382505195618</v>
       </c>
       <c r="R16">
-        <v>1.01474859734042</v>
+        <v>1.00163011988445</v>
       </c>
       <c r="S16">
-        <v>0.961138489166612</v>
+        <v>0.9961118225318245</v>
       </c>
       <c r="T16">
-        <v>1.01474859734042</v>
+        <v>1.00163011988445</v>
       </c>
       <c r="U16">
-        <v>1.005013112103975</v>
+        <v>1.000628809813164</v>
       </c>
       <c r="V16">
-        <v>1.031337885866393</v>
+        <v>1.003339002181967</v>
       </c>
       <c r="W16">
-        <v>0.9978877411756742</v>
+        <v>0.9998433430116676</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9317913964671676</v>
+        <v>0.9873904745460572</v>
       </c>
       <c r="D17">
-        <v>0.9686642877957308</v>
+        <v>0.9907126028737999</v>
       </c>
       <c r="E17">
-        <v>1.093398976056641</v>
+        <v>1.026856895076717</v>
       </c>
       <c r="F17">
-        <v>0.9985550444808383</v>
+        <v>0.995128359093951</v>
       </c>
       <c r="G17">
-        <v>0.9317913964671676</v>
+        <v>0.9873904745460572</v>
       </c>
       <c r="H17">
-        <v>0.9789887787292703</v>
+        <v>0.9953493656336247</v>
       </c>
       <c r="I17">
-        <v>1.027280254383582</v>
+        <v>1.004924871540958</v>
       </c>
       <c r="J17">
-        <v>1.093398976056641</v>
+        <v>1.026856895076717</v>
       </c>
       <c r="K17">
-        <v>1.093398976056641</v>
+        <v>1.026856895076717</v>
       </c>
       <c r="L17">
-        <v>0.9474569288301197</v>
+        <v>0.9890228184762478</v>
       </c>
       <c r="M17">
-        <v>1.029214452109517</v>
+        <v>1.008135576700631</v>
       </c>
       <c r="N17">
-        <v>1.093398976056641</v>
+        <v>1.026856895076717</v>
       </c>
       <c r="O17">
-        <v>0.9985550444808383</v>
+        <v>0.995128359093951</v>
       </c>
       <c r="P17">
-        <v>0.9651732204740029</v>
+        <v>0.9912594168200042</v>
       </c>
       <c r="Q17">
-        <v>0.9887719116050543</v>
+        <v>0.9952388623637879</v>
       </c>
       <c r="R17">
-        <v>1.007915139001549</v>
+        <v>1.003125242905575</v>
       </c>
       <c r="S17">
-        <v>0.969778406559092</v>
+        <v>0.9926227330912111</v>
       </c>
       <c r="T17">
-        <v>1.007915139001549</v>
+        <v>1.003125242905575</v>
       </c>
       <c r="U17">
-        <v>1.000683548933479</v>
+        <v>1.001181273587587</v>
       </c>
       <c r="V17">
-        <v>1.019226634358112</v>
+        <v>1.006316397885413</v>
       </c>
       <c r="W17">
-        <v>0.9969187648566082</v>
+        <v>0.9996901204927482</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.936328594480375</v>
+        <v>0.9814573694283297</v>
       </c>
       <c r="D18">
-        <v>0.9996752196270009</v>
+        <v>0.9864437204642842</v>
       </c>
       <c r="E18">
-        <v>1.007458371265331</v>
+        <v>1.039170642772627</v>
       </c>
       <c r="F18">
-        <v>1.039272608540553</v>
+        <v>0.9931079222446645</v>
       </c>
       <c r="G18">
-        <v>0.936328594480375</v>
+        <v>0.9814573694283297</v>
       </c>
       <c r="H18">
-        <v>0.9854461880314728</v>
+        <v>0.9931216742615072</v>
       </c>
       <c r="I18">
-        <v>1.027777459499697</v>
+        <v>1.007319037492703</v>
       </c>
       <c r="J18">
-        <v>1.007458371265331</v>
+        <v>1.039170642772627</v>
       </c>
       <c r="K18">
-        <v>1.007458371265331</v>
+        <v>1.039170642772627</v>
       </c>
       <c r="L18">
-        <v>0.9604802016915347</v>
+        <v>0.9838458304664689</v>
       </c>
       <c r="M18">
-        <v>1.003758112019189</v>
+        <v>1.011841147936565</v>
       </c>
       <c r="N18">
-        <v>1.007458371265331</v>
+        <v>1.039170642772627</v>
       </c>
       <c r="O18">
-        <v>1.039272608540553</v>
+        <v>0.9931079222446645</v>
       </c>
       <c r="P18">
-        <v>0.9878006015104639</v>
+        <v>0.9872826458364972</v>
       </c>
       <c r="Q18">
-        <v>1.012359398286013</v>
+        <v>0.9931147982530859</v>
       </c>
       <c r="R18">
-        <v>0.994353191428753</v>
+        <v>1.004578644815207</v>
       </c>
       <c r="S18">
-        <v>0.9870157970174668</v>
+        <v>0.9892289886448339</v>
       </c>
       <c r="T18">
-        <v>0.994353191428753</v>
+        <v>1.004578644815207</v>
       </c>
       <c r="U18">
-        <v>0.9921264405794329</v>
+        <v>1.001714402176782</v>
       </c>
       <c r="V18">
-        <v>0.9951928267166125</v>
+        <v>1.009205650295951</v>
       </c>
       <c r="W18">
-        <v>0.9950245943943943</v>
+        <v>0.9995384181333937</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9262237920093943</v>
+        <v>0.9994359056785779</v>
       </c>
       <c r="D19">
-        <v>1.002587745171087</v>
+        <v>1.000011550643513</v>
       </c>
       <c r="E19">
-        <v>1.000013356846984</v>
+        <v>1.000023774939741</v>
       </c>
       <c r="F19">
-        <v>1.053214249772201</v>
+        <v>1.000381704938957</v>
       </c>
       <c r="G19">
-        <v>0.9262237920093943</v>
+        <v>0.9994359056785779</v>
       </c>
       <c r="H19">
-        <v>0.9818305498848617</v>
+        <v>0.9998669090581661</v>
       </c>
       <c r="I19">
-        <v>1.034308154745089</v>
+        <v>1.000254422394022</v>
       </c>
       <c r="J19">
-        <v>1.000013356846984</v>
+        <v>1.000023774939741</v>
       </c>
       <c r="K19">
-        <v>1.000013356846984</v>
+        <v>1.000023774939741</v>
       </c>
       <c r="L19">
-        <v>0.9538625049661935</v>
+        <v>0.9996496822489483</v>
       </c>
       <c r="M19">
-        <v>1.000703114411204</v>
+        <v>1.000016981722542</v>
       </c>
       <c r="N19">
-        <v>1.000013356846984</v>
+        <v>1.000023774939741</v>
       </c>
       <c r="O19">
-        <v>1.053214249772201</v>
+        <v>1.000381704938957</v>
       </c>
       <c r="P19">
-        <v>0.9897190208907976</v>
+        <v>0.9999088053087675</v>
       </c>
       <c r="Q19">
-        <v>1.017522399828531</v>
+        <v>1.000124306998561</v>
       </c>
       <c r="R19">
-        <v>0.9931504662095262</v>
+        <v>0.999947128519092</v>
       </c>
       <c r="S19">
-        <v>0.9870895305554855</v>
+        <v>0.9998948398919003</v>
       </c>
       <c r="T19">
-        <v>0.9931504662095262</v>
+        <v>0.9999471285190918</v>
       </c>
       <c r="U19">
-        <v>0.9903204871283601</v>
+        <v>0.9999270736538604</v>
       </c>
       <c r="V19">
-        <v>0.9922590610720847</v>
+        <v>0.9999464139110363</v>
       </c>
       <c r="W19">
-        <v>0.9940929334758767</v>
+        <v>0.9999551164530582</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000180697259046</v>
+        <v>0.9984315253742191</v>
       </c>
       <c r="D20">
-        <v>0.9998975938090551</v>
+        <v>0.9999792054131514</v>
       </c>
       <c r="E20">
-        <v>1.000257782474139</v>
+        <v>1.000216475310121</v>
       </c>
       <c r="F20">
-        <v>0.9998610353871951</v>
+        <v>1.000954781927416</v>
       </c>
       <c r="G20">
-        <v>1.000180697259046</v>
+        <v>0.9984315253742191</v>
       </c>
       <c r="H20">
-        <v>0.999959469978293</v>
+        <v>0.9996371499060969</v>
       </c>
       <c r="I20">
-        <v>0.9999755005974089</v>
+        <v>1.000686053488528</v>
       </c>
       <c r="J20">
-        <v>1.000257782474139</v>
+        <v>1.000216475310121</v>
       </c>
       <c r="K20">
-        <v>1.000257782474139</v>
+        <v>1.000216475310121</v>
       </c>
       <c r="L20">
-        <v>1.000033206050818</v>
+        <v>0.9990204891915054</v>
       </c>
       <c r="M20">
-        <v>1.000030382563728</v>
+        <v>1.000101457802424</v>
       </c>
       <c r="N20">
-        <v>1.000257782474139</v>
+        <v>1.000216475310121</v>
       </c>
       <c r="O20">
-        <v>0.9998610353871951</v>
+        <v>1.000954781927416</v>
       </c>
       <c r="P20">
-        <v>1.00002086632312</v>
+        <v>0.9996931536508178</v>
       </c>
       <c r="Q20">
-        <v>0.999910252682744</v>
+        <v>1.000295965916757</v>
       </c>
       <c r="R20">
-        <v>1.00009983837346</v>
+        <v>0.999867594203919</v>
       </c>
       <c r="S20">
-        <v>1.000000400874845</v>
+        <v>0.9996744857359108</v>
       </c>
       <c r="T20">
-        <v>1.00009983837346</v>
+        <v>0.999867594203919</v>
       </c>
       <c r="U20">
-        <v>1.000064746274668</v>
+        <v>0.9998099831294635</v>
       </c>
       <c r="V20">
-        <v>1.000103353514562</v>
+        <v>0.999891281565595</v>
       </c>
       <c r="W20">
-        <v>1.00002445851496</v>
+        <v>0.9998783923016827</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9989708978577974</v>
+        <v>0.9978693833721992</v>
       </c>
       <c r="D21">
-        <v>1.000236342825352</v>
+        <v>0.9999330562521883</v>
       </c>
       <c r="E21">
-        <v>0.9994486315997463</v>
+        <v>1.000401957518954</v>
       </c>
       <c r="F21">
-        <v>1.000891420316042</v>
+        <v>1.00119432219303</v>
       </c>
       <c r="G21">
-        <v>0.9989708978577974</v>
+        <v>0.9978693833721992</v>
       </c>
       <c r="H21">
-        <v>0.9998553487761737</v>
+        <v>0.9995269346368746</v>
       </c>
       <c r="I21">
-        <v>1.000424222176317</v>
+        <v>1.000903119228238</v>
       </c>
       <c r="J21">
-        <v>0.9994486315997463</v>
+        <v>1.000401957518954</v>
       </c>
       <c r="K21">
-        <v>0.9994486315997463</v>
+        <v>1.000401957518954</v>
       </c>
       <c r="L21">
-        <v>0.999473543576913</v>
+        <v>0.9986752711934066</v>
       </c>
       <c r="M21">
-        <v>0.9998964238480799</v>
+        <v>1.000187135299028</v>
       </c>
       <c r="N21">
-        <v>0.9994486315997463</v>
+        <v>1.000401957518954</v>
       </c>
       <c r="O21">
-        <v>1.000891420316042</v>
+        <v>1.00119432219303</v>
       </c>
       <c r="P21">
-        <v>0.9999311590869197</v>
+        <v>0.9995318527826146</v>
       </c>
       <c r="Q21">
-        <v>1.000373384546108</v>
+        <v>1.000360628414952</v>
       </c>
       <c r="R21">
-        <v>0.9997703165911952</v>
+        <v>0.9998218876947277</v>
       </c>
       <c r="S21">
-        <v>0.9999058889833377</v>
+        <v>0.9995302134007013</v>
       </c>
       <c r="T21">
-        <v>0.9997703165911952</v>
+        <v>0.9998218876947277</v>
       </c>
       <c r="U21">
-        <v>0.9997915746374397</v>
+        <v>0.9997481494302644</v>
       </c>
       <c r="V21">
-        <v>0.999722986029901</v>
+        <v>0.9998789110480022</v>
       </c>
       <c r="W21">
-        <v>0.9998996038720527</v>
+        <v>0.9998363974617397</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9998256754930169</v>
+        <v>0.9953582875217682</v>
       </c>
       <c r="D22">
-        <v>0.9987183992383241</v>
+        <v>0.9998957602143039</v>
       </c>
       <c r="E22">
-        <v>1.003552609006881</v>
+        <v>1.000758313260834</v>
       </c>
       <c r="F22">
-        <v>0.9985530858793044</v>
+        <v>1.002711098243058</v>
       </c>
       <c r="G22">
-        <v>0.9998256754930169</v>
+        <v>0.9953582875217682</v>
       </c>
       <c r="H22">
-        <v>0.9995987853311956</v>
+        <v>0.9989492173911442</v>
       </c>
       <c r="I22">
-        <v>1.000103717037496</v>
+        <v>1.001997851150652</v>
       </c>
       <c r="J22">
-        <v>1.003552609006881</v>
+        <v>1.000758313260834</v>
       </c>
       <c r="K22">
-        <v>1.003552609006881</v>
+        <v>1.000758313260834</v>
       </c>
       <c r="L22">
-        <v>0.999375073018103</v>
+        <v>0.9971083172617001</v>
       </c>
       <c r="M22">
-        <v>1.000959491744342</v>
+        <v>1.000355375761323</v>
       </c>
       <c r="N22">
-        <v>1.003552609006881</v>
+        <v>1.000758313260834</v>
       </c>
       <c r="O22">
-        <v>0.9985530858793044</v>
+        <v>1.002711098243058</v>
       </c>
       <c r="P22">
-        <v>0.9991893806861607</v>
+        <v>0.9990346928824134</v>
       </c>
       <c r="Q22">
-        <v>0.99907593560525</v>
+        <v>1.000830157817101</v>
       </c>
       <c r="R22">
-        <v>1.000643790126401</v>
+        <v>0.9996092330085536</v>
       </c>
       <c r="S22">
-        <v>0.9993258489011723</v>
+        <v>0.9990062010519903</v>
       </c>
       <c r="T22">
-        <v>1.000643790126401</v>
+        <v>0.9996092330085536</v>
       </c>
       <c r="U22">
-        <v>1.000382538927599</v>
+        <v>0.9994442291042013</v>
       </c>
       <c r="V22">
-        <v>1.001016552943456</v>
+        <v>0.9997070459355278</v>
       </c>
       <c r="W22">
-        <v>1.000085854593583</v>
+        <v>0.9996417776005979</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9923898201283626</v>
+      </c>
+      <c r="D23">
+        <v>0.9996833020711159</v>
+      </c>
+      <c r="E23">
+        <v>1.001655182388622</v>
+      </c>
+      <c r="F23">
+        <v>1.004130691028202</v>
+      </c>
+      <c r="G23">
+        <v>0.9923898201283626</v>
+      </c>
+      <c r="H23">
+        <v>0.9983094604310476</v>
+      </c>
+      <c r="I23">
+        <v>1.003205634172343</v>
+      </c>
+      <c r="J23">
+        <v>1.001655182388622</v>
+      </c>
+      <c r="K23">
+        <v>1.001655182388622</v>
+      </c>
+      <c r="L23">
+        <v>0.9952522839438329</v>
+      </c>
+      <c r="M23">
+        <v>1.000740263463752</v>
+      </c>
+      <c r="N23">
+        <v>1.001655182388622</v>
+      </c>
+      <c r="O23">
+        <v>1.004130691028202</v>
+      </c>
+      <c r="P23">
+        <v>0.9982602555782822</v>
+      </c>
+      <c r="Q23">
+        <v>1.001220075729625</v>
+      </c>
+      <c r="R23">
+        <v>0.9993918978483954</v>
+      </c>
+      <c r="S23">
+        <v>0.9982766571958708</v>
+      </c>
+      <c r="T23">
+        <v>0.9993918978483954</v>
+      </c>
+      <c r="U23">
+        <v>0.9991212884940586</v>
+      </c>
+      <c r="V23">
+        <v>0.9996280672729713</v>
+      </c>
+      <c r="W23">
+        <v>0.9994208297034098</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.157636738154069</v>
+      </c>
+      <c r="D24">
+        <v>0.974864289375493</v>
+      </c>
+      <c r="E24">
+        <v>1.051388670160163</v>
+      </c>
+      <c r="F24">
+        <v>0.8811496961509875</v>
+      </c>
+      <c r="G24">
+        <v>1.157636738154069</v>
+      </c>
+      <c r="H24">
+        <v>1.023781856586572</v>
+      </c>
+      <c r="I24">
+        <v>0.9370300531303986</v>
+      </c>
+      <c r="J24">
+        <v>1.051388670160163</v>
+      </c>
+      <c r="K24">
+        <v>1.051388670160163</v>
+      </c>
+      <c r="L24">
+        <v>1.083746428940472</v>
+      </c>
+      <c r="M24">
+        <v>1.006543621874826</v>
+      </c>
+      <c r="N24">
+        <v>1.051388670160163</v>
+      </c>
+      <c r="O24">
+        <v>0.8811496961509875</v>
+      </c>
+      <c r="P24">
+        <v>1.019393217152528</v>
+      </c>
+      <c r="Q24">
+        <v>0.9524657763687797</v>
+      </c>
+      <c r="R24">
+        <v>1.030058368155073</v>
+      </c>
+      <c r="S24">
+        <v>1.020856096963876</v>
+      </c>
+      <c r="T24">
+        <v>1.030058368155073</v>
+      </c>
+      <c r="U24">
+        <v>1.028489240262948</v>
+      </c>
+      <c r="V24">
+        <v>1.033069126242391</v>
+      </c>
+      <c r="W24">
+        <v>1.014517669296623</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9897858132154131</v>
+      </c>
+      <c r="D25">
+        <v>1.023831357310236</v>
+      </c>
+      <c r="E25">
+        <v>0.9355928644891256</v>
+      </c>
+      <c r="F25">
+        <v>1.032157968565828</v>
+      </c>
+      <c r="G25">
+        <v>0.9897858132154131</v>
+      </c>
+      <c r="H25">
+        <v>1.00606276986319</v>
+      </c>
+      <c r="I25">
+        <v>1.002274981732172</v>
+      </c>
+      <c r="J25">
+        <v>0.9355928644891256</v>
+      </c>
+      <c r="K25">
+        <v>0.9355928644891256</v>
+      </c>
+      <c r="L25">
+        <v>1.004479277257104</v>
+      </c>
+      <c r="M25">
+        <v>0.9840237090203153</v>
+      </c>
+      <c r="N25">
+        <v>0.9355928644891256</v>
+      </c>
+      <c r="O25">
+        <v>1.032157968565828</v>
+      </c>
+      <c r="P25">
+        <v>1.01097189089062</v>
+      </c>
+      <c r="Q25">
+        <v>1.019110369214509</v>
+      </c>
+      <c r="R25">
+        <v>0.9858455487567888</v>
+      </c>
+      <c r="S25">
+        <v>1.00933551721481</v>
+      </c>
+      <c r="T25">
+        <v>0.9858455487567888</v>
+      </c>
+      <c r="U25">
+        <v>0.9908998540333891</v>
+      </c>
+      <c r="V25">
+        <v>0.9798384561245363</v>
+      </c>
+      <c r="W25">
+        <v>0.9972760926816731</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.274525819602066</v>
+      </c>
+      <c r="D26">
+        <v>1.0556921547135</v>
+      </c>
+      <c r="E26">
+        <v>0.8167524683051485</v>
+      </c>
+      <c r="F26">
+        <v>0.9166065752138568</v>
+      </c>
+      <c r="G26">
+        <v>1.274525819602066</v>
+      </c>
+      <c r="H26">
+        <v>1.067328978838221</v>
+      </c>
+      <c r="I26">
+        <v>0.889725005151477</v>
+      </c>
+      <c r="J26">
+        <v>0.8167524683051485</v>
+      </c>
+      <c r="K26">
+        <v>0.8167524683051485</v>
+      </c>
+      <c r="L26">
+        <v>1.184685975631371</v>
+      </c>
+      <c r="M26">
+        <v>0.9363073158876608</v>
+      </c>
+      <c r="N26">
+        <v>0.8167524683051485</v>
+      </c>
+      <c r="O26">
+        <v>0.9166065752138568</v>
+      </c>
+      <c r="P26">
+        <v>1.095566197407962</v>
+      </c>
+      <c r="Q26">
+        <v>0.9919677770260389</v>
+      </c>
+      <c r="R26">
+        <v>1.002628287707024</v>
+      </c>
+      <c r="S26">
+        <v>1.086153791218048</v>
+      </c>
+      <c r="T26">
+        <v>1.002628287707024</v>
+      </c>
+      <c r="U26">
+        <v>1.018803460489823</v>
+      </c>
+      <c r="V26">
+        <v>0.9783932620528883</v>
+      </c>
+      <c r="W26">
+        <v>1.017703036667913</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.086263935413478</v>
+      </c>
+      <c r="D27">
+        <v>1.013684794133076</v>
+      </c>
+      <c r="E27">
+        <v>0.9502127844330988</v>
+      </c>
+      <c r="F27">
+        <v>0.9923458013234966</v>
+      </c>
+      <c r="G27">
+        <v>1.086263935413478</v>
+      </c>
+      <c r="H27">
+        <v>1.008060594746041</v>
+      </c>
+      <c r="I27">
+        <v>0.9777567528305007</v>
+      </c>
+      <c r="J27">
+        <v>0.9502127844330988</v>
+      </c>
+      <c r="K27">
+        <v>0.9502127844330988</v>
+      </c>
+      <c r="L27">
+        <v>1.04782111932408</v>
+      </c>
+      <c r="M27">
+        <v>0.9746441528022979</v>
+      </c>
+      <c r="N27">
+        <v>0.9502127844330988</v>
+      </c>
+      <c r="O27">
+        <v>0.9923458013234966</v>
+      </c>
+      <c r="P27">
+        <v>1.039304868368487</v>
+      </c>
+      <c r="Q27">
+        <v>1.000203198034769</v>
+      </c>
+      <c r="R27">
+        <v>1.009607507056691</v>
+      </c>
+      <c r="S27">
+        <v>1.028890110494338</v>
+      </c>
+      <c r="T27">
+        <v>1.009607507056691</v>
+      </c>
+      <c r="U27">
+        <v>1.009220778979029</v>
+      </c>
+      <c r="V27">
+        <v>0.9974191800698426</v>
+      </c>
+      <c r="W27">
+        <v>1.006348741875759</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9297172493920646</v>
+      </c>
+      <c r="D28">
+        <v>0.9530557571502289</v>
+      </c>
+      <c r="E28">
+        <v>1.136636980916063</v>
+      </c>
+      <c r="F28">
+        <v>0.9778915617131306</v>
+      </c>
+      <c r="G28">
+        <v>0.9297172493920646</v>
+      </c>
+      <c r="H28">
+        <v>0.9758066563946407</v>
+      </c>
+      <c r="I28">
+        <v>1.026917951635895</v>
+      </c>
+      <c r="J28">
+        <v>1.136636980916063</v>
+      </c>
+      <c r="K28">
+        <v>1.136636980916063</v>
+      </c>
+      <c r="L28">
+        <v>0.9410462648054553</v>
+      </c>
+      <c r="M28">
+        <v>1.042029507397916</v>
+      </c>
+      <c r="N28">
+        <v>1.136636980916063</v>
+      </c>
+      <c r="O28">
+        <v>0.9778915617131306</v>
+      </c>
+      <c r="P28">
+        <v>0.9538044055525976</v>
+      </c>
+      <c r="Q28">
+        <v>0.9768491090538857</v>
+      </c>
+      <c r="R28">
+        <v>1.01474859734042</v>
+      </c>
+      <c r="S28">
+        <v>0.961138489166612</v>
+      </c>
+      <c r="T28">
+        <v>1.01474859734042</v>
+      </c>
+      <c r="U28">
+        <v>1.005013112103975</v>
+      </c>
+      <c r="V28">
+        <v>1.031337885866393</v>
+      </c>
+      <c r="W28">
+        <v>0.9978877411756742</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9317913964671676</v>
+      </c>
+      <c r="D29">
+        <v>0.9686642877957308</v>
+      </c>
+      <c r="E29">
+        <v>1.093398976056641</v>
+      </c>
+      <c r="F29">
+        <v>0.9985550444808383</v>
+      </c>
+      <c r="G29">
+        <v>0.9317913964671676</v>
+      </c>
+      <c r="H29">
+        <v>0.9789887787292703</v>
+      </c>
+      <c r="I29">
+        <v>1.027280254383582</v>
+      </c>
+      <c r="J29">
+        <v>1.093398976056641</v>
+      </c>
+      <c r="K29">
+        <v>1.093398976056641</v>
+      </c>
+      <c r="L29">
+        <v>0.9474569288301197</v>
+      </c>
+      <c r="M29">
+        <v>1.029214452109517</v>
+      </c>
+      <c r="N29">
+        <v>1.093398976056641</v>
+      </c>
+      <c r="O29">
+        <v>0.9985550444808383</v>
+      </c>
+      <c r="P29">
+        <v>0.9651732204740029</v>
+      </c>
+      <c r="Q29">
+        <v>0.9887719116050543</v>
+      </c>
+      <c r="R29">
+        <v>1.007915139001549</v>
+      </c>
+      <c r="S29">
+        <v>0.969778406559092</v>
+      </c>
+      <c r="T29">
+        <v>1.007915139001549</v>
+      </c>
+      <c r="U29">
+        <v>1.000683548933479</v>
+      </c>
+      <c r="V29">
+        <v>1.019226634358112</v>
+      </c>
+      <c r="W29">
+        <v>0.9969187648566082</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.936328594480375</v>
+      </c>
+      <c r="D30">
+        <v>0.9996752196270009</v>
+      </c>
+      <c r="E30">
+        <v>1.007458371265331</v>
+      </c>
+      <c r="F30">
+        <v>1.039272608540553</v>
+      </c>
+      <c r="G30">
+        <v>0.936328594480375</v>
+      </c>
+      <c r="H30">
+        <v>0.9854461880314728</v>
+      </c>
+      <c r="I30">
+        <v>1.027777459499697</v>
+      </c>
+      <c r="J30">
+        <v>1.007458371265331</v>
+      </c>
+      <c r="K30">
+        <v>1.007458371265331</v>
+      </c>
+      <c r="L30">
+        <v>0.9604802016915347</v>
+      </c>
+      <c r="M30">
+        <v>1.003758112019189</v>
+      </c>
+      <c r="N30">
+        <v>1.007458371265331</v>
+      </c>
+      <c r="O30">
+        <v>1.039272608540553</v>
+      </c>
+      <c r="P30">
+        <v>0.9878006015104639</v>
+      </c>
+      <c r="Q30">
+        <v>1.012359398286013</v>
+      </c>
+      <c r="R30">
+        <v>0.994353191428753</v>
+      </c>
+      <c r="S30">
+        <v>0.9870157970174668</v>
+      </c>
+      <c r="T30">
+        <v>0.994353191428753</v>
+      </c>
+      <c r="U30">
+        <v>0.9921264405794329</v>
+      </c>
+      <c r="V30">
+        <v>0.9951928267166125</v>
+      </c>
+      <c r="W30">
+        <v>0.9950245943943943</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9262237920093943</v>
+      </c>
+      <c r="D31">
+        <v>1.002587745171087</v>
+      </c>
+      <c r="E31">
+        <v>1.000013356846984</v>
+      </c>
+      <c r="F31">
+        <v>1.053214249772201</v>
+      </c>
+      <c r="G31">
+        <v>0.9262237920093943</v>
+      </c>
+      <c r="H31">
+        <v>0.9818305498848617</v>
+      </c>
+      <c r="I31">
+        <v>1.034308154745089</v>
+      </c>
+      <c r="J31">
+        <v>1.000013356846984</v>
+      </c>
+      <c r="K31">
+        <v>1.000013356846984</v>
+      </c>
+      <c r="L31">
+        <v>0.9538625049661935</v>
+      </c>
+      <c r="M31">
+        <v>1.000703114411204</v>
+      </c>
+      <c r="N31">
+        <v>1.000013356846984</v>
+      </c>
+      <c r="O31">
+        <v>1.053214249772201</v>
+      </c>
+      <c r="P31">
+        <v>0.9897190208907976</v>
+      </c>
+      <c r="Q31">
+        <v>1.017522399828531</v>
+      </c>
+      <c r="R31">
+        <v>0.9931504662095262</v>
+      </c>
+      <c r="S31">
+        <v>0.9870895305554855</v>
+      </c>
+      <c r="T31">
+        <v>0.9931504662095262</v>
+      </c>
+      <c r="U31">
+        <v>0.9903204871283601</v>
+      </c>
+      <c r="V31">
+        <v>0.9922590610720847</v>
+      </c>
+      <c r="W31">
+        <v>0.9940929334758767</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9238765569863013</v>
+      </c>
+      <c r="D32">
+        <v>0.9369357084931504</v>
+      </c>
+      <c r="E32">
+        <v>1.181735933150685</v>
+      </c>
+      <c r="F32">
+        <v>0.957895372328767</v>
+      </c>
+      <c r="G32">
+        <v>0.9238765569863013</v>
+      </c>
+      <c r="H32">
+        <v>0.9721952761643835</v>
+      </c>
+      <c r="I32">
+        <v>1.027646218356165</v>
+      </c>
+      <c r="J32">
+        <v>1.181735933150685</v>
+      </c>
+      <c r="K32">
+        <v>1.181735933150685</v>
+      </c>
+      <c r="L32">
+        <v>0.9325023146575344</v>
+      </c>
+      <c r="M32">
+        <v>1.055816486575343</v>
+      </c>
+      <c r="N32">
+        <v>1.181735933150685</v>
+      </c>
+      <c r="O32">
+        <v>0.957895372328767</v>
+      </c>
+      <c r="P32">
+        <v>0.9408859646575342</v>
+      </c>
+      <c r="Q32">
+        <v>0.9650453242465753</v>
+      </c>
+      <c r="R32">
+        <v>1.021169287488584</v>
+      </c>
+      <c r="S32">
+        <v>0.951322401826484</v>
+      </c>
+      <c r="T32">
+        <v>1.021169287488584</v>
+      </c>
+      <c r="U32">
+        <v>1.008925784657534</v>
+      </c>
+      <c r="V32">
+        <v>1.043487814356164</v>
+      </c>
+      <c r="W32">
+        <v>0.998575483339041</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.8205333647368421</v>
+      </c>
+      <c r="D33">
+        <v>0.9794678147368421</v>
+      </c>
+      <c r="E33">
+        <v>1.079395177368421</v>
+      </c>
+      <c r="F33">
+        <v>1.060639613157895</v>
+      </c>
+      <c r="G33">
+        <v>0.8205333647368421</v>
+      </c>
+      <c r="H33">
+        <v>0.9666401105263158</v>
+      </c>
+      <c r="I33">
+        <v>1.064772026842105</v>
+      </c>
+      <c r="J33">
+        <v>1.079395177368421</v>
+      </c>
+      <c r="K33">
+        <v>1.079395177368421</v>
+      </c>
+      <c r="L33">
+        <v>0.8903777200000003</v>
+      </c>
+      <c r="M33">
+        <v>1.034160047894737</v>
+      </c>
+      <c r="N33">
+        <v>1.079395177368421</v>
+      </c>
+      <c r="O33">
+        <v>1.060639613157895</v>
+      </c>
+      <c r="P33">
+        <v>0.9405864889473683</v>
+      </c>
+      <c r="Q33">
+        <v>1.013639861842105</v>
+      </c>
+      <c r="R33">
+        <v>0.9868560517543857</v>
+      </c>
+      <c r="S33">
+        <v>0.949271029473684</v>
+      </c>
+      <c r="T33">
+        <v>0.9868560517543857</v>
+      </c>
+      <c r="U33">
+        <v>0.9818020664473683</v>
+      </c>
+      <c r="V33">
+        <v>1.001320688631579</v>
+      </c>
+      <c r="W33">
+        <v>0.9869982344078947</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.5981558321052631</v>
+      </c>
+      <c r="D34">
+        <v>0.9648886836842105</v>
+      </c>
+      <c r="E34">
+        <v>1.138784727894737</v>
+      </c>
+      <c r="F34">
+        <v>1.179875067894737</v>
+      </c>
+      <c r="G34">
+        <v>0.5981558321052631</v>
+      </c>
+      <c r="H34">
+        <v>0.9142199231578948</v>
+      </c>
+      <c r="I34">
+        <v>1.161190721052632</v>
+      </c>
+      <c r="J34">
+        <v>1.138784727894737</v>
+      </c>
+      <c r="K34">
+        <v>1.138784727894737</v>
+      </c>
+      <c r="L34">
+        <v>0.7479798968421052</v>
+      </c>
+      <c r="M34">
+        <v>1.058554053684211</v>
+      </c>
+      <c r="N34">
+        <v>1.138784727894737</v>
+      </c>
+      <c r="O34">
+        <v>1.179875067894737</v>
+      </c>
+      <c r="P34">
+        <v>0.8890154499999999</v>
+      </c>
+      <c r="Q34">
+        <v>1.047047495526316</v>
+      </c>
+      <c r="R34">
+        <v>0.9722718759649123</v>
+      </c>
+      <c r="S34">
+        <v>0.8974169410526316</v>
+      </c>
+      <c r="T34">
+        <v>0.9722718759649123</v>
+      </c>
+      <c r="U34">
+        <v>0.9577588877631579</v>
+      </c>
+      <c r="V34">
+        <v>0.9939640557894738</v>
+      </c>
+      <c r="W34">
+        <v>0.9704561132894738</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.7301588266104773</v>
+      </c>
+      <c r="D35">
+        <v>1.015266735301963</v>
+      </c>
+      <c r="E35">
+        <v>0.9839865646031706</v>
+      </c>
+      <c r="F35">
+        <v>1.203614515155426</v>
+      </c>
+      <c r="G35">
+        <v>0.7301588266104773</v>
+      </c>
+      <c r="H35">
+        <v>0.9341179136745849</v>
+      </c>
+      <c r="I35">
+        <v>1.126390773849304</v>
+      </c>
+      <c r="J35">
+        <v>0.9839865646031706</v>
+      </c>
+      <c r="K35">
+        <v>0.9839865646031706</v>
+      </c>
+      <c r="L35">
+        <v>0.8328457147845224</v>
+      </c>
+      <c r="M35">
+        <v>0.9975572017738493</v>
+      </c>
+      <c r="N35">
+        <v>0.9839865646031706</v>
+      </c>
+      <c r="O35">
+        <v>1.203614515155426</v>
+      </c>
+      <c r="P35">
+        <v>0.9668866708829515</v>
+      </c>
+      <c r="Q35">
+        <v>1.068866214415005</v>
+      </c>
+      <c r="R35">
+        <v>0.9725866354563579</v>
+      </c>
+      <c r="S35">
+        <v>0.955963751813496</v>
+      </c>
+      <c r="T35">
+        <v>0.9725866354563579</v>
+      </c>
+      <c r="U35">
+        <v>0.9629694550109147</v>
+      </c>
+      <c r="V35">
+        <v>0.9671728769293658</v>
+      </c>
+      <c r="W35">
+        <v>0.9779922807191622</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000180697259046</v>
+      </c>
+      <c r="D36">
+        <v>0.9998975938090551</v>
+      </c>
+      <c r="E36">
+        <v>1.000257782474139</v>
+      </c>
+      <c r="F36">
+        <v>0.9998610353871951</v>
+      </c>
+      <c r="G36">
+        <v>1.000180697259046</v>
+      </c>
+      <c r="H36">
+        <v>0.999959469978293</v>
+      </c>
+      <c r="I36">
+        <v>0.9999755005974089</v>
+      </c>
+      <c r="J36">
+        <v>1.000257782474139</v>
+      </c>
+      <c r="K36">
+        <v>1.000257782474139</v>
+      </c>
+      <c r="L36">
+        <v>1.000033206050818</v>
+      </c>
+      <c r="M36">
+        <v>1.000030382563728</v>
+      </c>
+      <c r="N36">
+        <v>1.000257782474139</v>
+      </c>
+      <c r="O36">
+        <v>0.9998610353871951</v>
+      </c>
+      <c r="P36">
+        <v>1.00002086632312</v>
+      </c>
+      <c r="Q36">
+        <v>0.999910252682744</v>
+      </c>
+      <c r="R36">
+        <v>1.00009983837346</v>
+      </c>
+      <c r="S36">
+        <v>1.000000400874845</v>
+      </c>
+      <c r="T36">
+        <v>1.00009983837346</v>
+      </c>
+      <c r="U36">
+        <v>1.000064746274668</v>
+      </c>
+      <c r="V36">
+        <v>1.000103353514562</v>
+      </c>
+      <c r="W36">
+        <v>1.00002445851496</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9989708978577974</v>
+      </c>
+      <c r="D37">
+        <v>1.000236342825352</v>
+      </c>
+      <c r="E37">
+        <v>0.9994486315997463</v>
+      </c>
+      <c r="F37">
+        <v>1.000891420316042</v>
+      </c>
+      <c r="G37">
+        <v>0.9989708978577974</v>
+      </c>
+      <c r="H37">
+        <v>0.9998553487761737</v>
+      </c>
+      <c r="I37">
+        <v>1.000424222176317</v>
+      </c>
+      <c r="J37">
+        <v>0.9994486315997463</v>
+      </c>
+      <c r="K37">
+        <v>0.9994486315997463</v>
+      </c>
+      <c r="L37">
+        <v>0.999473543576913</v>
+      </c>
+      <c r="M37">
+        <v>0.9998964238480799</v>
+      </c>
+      <c r="N37">
+        <v>0.9994486315997463</v>
+      </c>
+      <c r="O37">
+        <v>1.000891420316042</v>
+      </c>
+      <c r="P37">
+        <v>0.9999311590869197</v>
+      </c>
+      <c r="Q37">
+        <v>1.000373384546108</v>
+      </c>
+      <c r="R37">
+        <v>0.9997703165911952</v>
+      </c>
+      <c r="S37">
+        <v>0.9999058889833377</v>
+      </c>
+      <c r="T37">
+        <v>0.9997703165911952</v>
+      </c>
+      <c r="U37">
+        <v>0.9997915746374397</v>
+      </c>
+      <c r="V37">
+        <v>0.999722986029901</v>
+      </c>
+      <c r="W37">
+        <v>0.9998996038720527</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9998256754930169</v>
+      </c>
+      <c r="D38">
+        <v>0.9987183992383241</v>
+      </c>
+      <c r="E38">
+        <v>1.003552609006881</v>
+      </c>
+      <c r="F38">
+        <v>0.9985530858793044</v>
+      </c>
+      <c r="G38">
+        <v>0.9998256754930169</v>
+      </c>
+      <c r="H38">
+        <v>0.9995987853311956</v>
+      </c>
+      <c r="I38">
+        <v>1.000103717037496</v>
+      </c>
+      <c r="J38">
+        <v>1.003552609006881</v>
+      </c>
+      <c r="K38">
+        <v>1.003552609006881</v>
+      </c>
+      <c r="L38">
+        <v>0.999375073018103</v>
+      </c>
+      <c r="M38">
+        <v>1.000959491744342</v>
+      </c>
+      <c r="N38">
+        <v>1.003552609006881</v>
+      </c>
+      <c r="O38">
+        <v>0.9985530858793044</v>
+      </c>
+      <c r="P38">
+        <v>0.9991893806861607</v>
+      </c>
+      <c r="Q38">
+        <v>0.99907593560525</v>
+      </c>
+      <c r="R38">
+        <v>1.000643790126401</v>
+      </c>
+      <c r="S38">
+        <v>0.9993258489011723</v>
+      </c>
+      <c r="T38">
+        <v>1.000643790126401</v>
+      </c>
+      <c r="U38">
+        <v>1.000382538927599</v>
+      </c>
+      <c r="V38">
+        <v>1.001016552943456</v>
+      </c>
+      <c r="W38">
+        <v>1.000085854593583</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.002110748158929</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9955218694672872</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.012101184780296</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.993594359810794</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.002110748158929</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9990341857767988</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9993594104303223</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.012101184780296</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.012101184780296</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9993690587800974</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.003079326359816</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.012101184780296</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.993594359810794</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9978525539848617</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9963142727937964</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.00260209758334</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9982464312488407</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.00260209758334</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>1.001710119631705</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.003788332661423</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>1.000521267945543</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.8880921062650746</v>
+      </c>
+      <c r="D40">
+        <v>0.9642946877391725</v>
+      </c>
+      <c r="E40">
+        <v>1.111903151570726</v>
+      </c>
+      <c r="F40">
+        <v>1.008428523383737</v>
+      </c>
+      <c r="G40">
+        <v>0.8880921062650746</v>
+      </c>
+      <c r="H40">
+        <v>0.9738916398082197</v>
+      </c>
+      <c r="I40">
+        <v>1.040032586258667</v>
+      </c>
+      <c r="J40">
+        <v>1.111903151570726</v>
+      </c>
+      <c r="K40">
+        <v>1.111903151570726</v>
+      </c>
+      <c r="L40">
+        <v>0.9231070056802286</v>
+      </c>
+      <c r="M40">
+        <v>1.039013245261073</v>
+      </c>
+      <c r="N40">
+        <v>1.111903151570726</v>
+      </c>
+      <c r="O40">
+        <v>1.008428523383737</v>
+      </c>
+      <c r="P40">
+        <v>0.9482603148244059</v>
+      </c>
+      <c r="Q40">
+        <v>0.9911600815959785</v>
+      </c>
+      <c r="R40">
+        <v>1.002807927073179</v>
+      </c>
+      <c r="S40">
+        <v>0.9568040898190104</v>
+      </c>
+      <c r="T40">
+        <v>1.002807927073179</v>
+      </c>
+      <c r="U40">
+        <v>0.9955788552569393</v>
+      </c>
+      <c r="V40">
+        <v>1.018843714519697</v>
+      </c>
+      <c r="W40">
+        <v>0.9935953682458623</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.002999824923712</v>
+      </c>
+      <c r="D41">
+        <v>0.9991795599004554</v>
+      </c>
+      <c r="E41">
+        <v>1.001849351692528</v>
+      </c>
+      <c r="F41">
+        <v>0.9974977689038468</v>
+      </c>
+      <c r="G41">
+        <v>1.002999824923712</v>
+      </c>
+      <c r="H41">
+        <v>1.000283411949751</v>
+      </c>
+      <c r="I41">
+        <v>0.9989015625444496</v>
+      </c>
+      <c r="J41">
+        <v>1.001849351692528</v>
+      </c>
+      <c r="K41">
+        <v>1.001849351692528</v>
+      </c>
+      <c r="L41">
+        <v>1.001396206266212</v>
+      </c>
+      <c r="M41">
+        <v>1.000326172229468</v>
+      </c>
+      <c r="N41">
+        <v>1.001849351692528</v>
+      </c>
+      <c r="O41">
+        <v>0.9974977689038468</v>
+      </c>
+      <c r="P41">
+        <v>1.000248796913779</v>
+      </c>
+      <c r="Q41">
+        <v>0.9988905904267991</v>
+      </c>
+      <c r="R41">
+        <v>1.000782315173362</v>
+      </c>
+      <c r="S41">
+        <v>1.000260335259103</v>
+      </c>
+      <c r="T41">
+        <v>1.000782315173362</v>
+      </c>
+      <c r="U41">
+        <v>1.00065758936746</v>
+      </c>
+      <c r="V41">
+        <v>1.000895941832473</v>
+      </c>
+      <c r="W41">
+        <v>1.000304232301303</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.8861333813478307</v>
+      </c>
+      <c r="D42">
+        <v>0.9654019738529005</v>
+      </c>
+      <c r="E42">
+        <v>1.109140115164376</v>
+      </c>
+      <c r="F42">
+        <v>1.010705426214857</v>
+      </c>
+      <c r="G42">
+        <v>0.8861333813478307</v>
+      </c>
+      <c r="H42">
+        <v>0.9738889311678143</v>
+      </c>
+      <c r="I42">
+        <v>1.040710639814454</v>
+      </c>
+      <c r="J42">
+        <v>1.109140115164376</v>
+      </c>
+      <c r="K42">
+        <v>1.109140115164376</v>
+      </c>
+      <c r="L42">
+        <v>0.9224432122960549</v>
+      </c>
+      <c r="M42">
+        <v>1.038391698970148</v>
+      </c>
+      <c r="N42">
+        <v>1.109140115164376</v>
+      </c>
+      <c r="O42">
+        <v>1.010705426214857</v>
+      </c>
+      <c r="P42">
+        <v>0.9484194037813439</v>
+      </c>
+      <c r="Q42">
+        <v>0.9922971786913357</v>
+      </c>
+      <c r="R42">
+        <v>1.001992974242355</v>
+      </c>
+      <c r="S42">
+        <v>0.9569092462435007</v>
+      </c>
+      <c r="T42">
+        <v>1.001992974242355</v>
+      </c>
+      <c r="U42">
+        <v>0.9949669634737195</v>
+      </c>
+      <c r="V42">
+        <v>1.017801593811851</v>
+      </c>
+      <c r="W42">
+        <v>0.9933519223535545</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BrassA-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW25.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
+    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,68 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -630,130 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -761,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.007420704489601</v>
+        <v>0.9984315253742191</v>
       </c>
       <c r="D3">
-        <v>0.9966887321707144</v>
+        <v>0.9999792054131514</v>
       </c>
       <c r="E3">
-        <v>0.9985406079215192</v>
+        <v>1.000216475310121</v>
       </c>
       <c r="F3">
-        <v>1.007420704489601</v>
+        <v>1.000954781927416</v>
       </c>
       <c r="G3">
-        <v>0.9987512220209317</v>
+        <v>0.9984315253742191</v>
       </c>
       <c r="H3">
-        <v>1.001287303069682</v>
+        <v>0.9996371499060969</v>
       </c>
       <c r="I3">
-        <v>1.007420704489601</v>
+        <v>1.000686053488528</v>
       </c>
       <c r="J3">
-        <v>0.9966887321707144</v>
+        <v>1.000216475310121</v>
       </c>
       <c r="K3">
-        <v>0.9974264338150487</v>
+        <v>1.000216475310121</v>
       </c>
       <c r="L3">
-        <v>1.002243095781198</v>
+        <v>0.9990204891915054</v>
       </c>
       <c r="M3">
-        <v>0.9970698751499381</v>
+        <v>1.000101457802424</v>
       </c>
       <c r="N3">
-        <v>1.007420704489601</v>
+        <v>1.000216475310121</v>
       </c>
       <c r="O3">
-        <v>0.9985406079215192</v>
+        <v>1.000954781927416</v>
       </c>
       <c r="P3">
-        <v>0.9976146700461168</v>
+        <v>0.9996931536508178</v>
       </c>
       <c r="Q3">
-        <v>0.9986459149712255</v>
+        <v>1.000295965916757</v>
       </c>
       <c r="R3">
-        <v>1.000883348193945</v>
+        <v>0.999867594203919</v>
       </c>
       <c r="S3">
-        <v>0.9979935207043885</v>
+        <v>0.9996744857359108</v>
       </c>
       <c r="T3">
-        <v>1.000883348193945</v>
+        <v>0.999867594203919</v>
       </c>
       <c r="U3">
-        <v>1.000350316650692</v>
+        <v>0.9998099831294635</v>
       </c>
       <c r="V3">
-        <v>1.001764394218473</v>
+        <v>0.999891281565595</v>
       </c>
       <c r="W3">
-        <v>0.9999284968023291</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43">
+        <v>0.9998783923016827</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -832,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.014179771657182</v>
+        <v>0.8880921062650746</v>
       </c>
       <c r="D4">
-        <v>0.9934589665563504</v>
+        <v>0.9642946877391725</v>
       </c>
       <c r="E4">
-        <v>0.9972516214398184</v>
+        <v>1.111903151570726</v>
       </c>
       <c r="F4">
-        <v>1.014179771657182</v>
+        <v>1.008428523383737</v>
       </c>
       <c r="G4">
-        <v>0.9976248795993053</v>
+        <v>0.8880921062650746</v>
       </c>
       <c r="H4">
-        <v>1.002494120428265</v>
+        <v>0.9738916398082197</v>
       </c>
       <c r="I4">
-        <v>1.014179771657182</v>
+        <v>1.040032586258667</v>
       </c>
       <c r="J4">
-        <v>0.9934589665563504</v>
+        <v>1.111903151570726</v>
       </c>
       <c r="K4">
-        <v>0.9950967011152565</v>
+        <v>1.111903151570726</v>
       </c>
       <c r="L4">
-        <v>1.004325359557431</v>
+        <v>0.9231070056802286</v>
       </c>
       <c r="M4">
-        <v>0.9943153237397316</v>
+        <v>1.039013245261073</v>
       </c>
       <c r="N4">
-        <v>1.014179771657182</v>
+        <v>1.111903151570726</v>
       </c>
       <c r="O4">
-        <v>0.9972516214398184</v>
+        <v>1.008428523383737</v>
       </c>
       <c r="P4">
-        <v>0.9953552939980843</v>
+        <v>0.9482603148244059</v>
       </c>
       <c r="Q4">
-        <v>0.9974382505195618</v>
+        <v>0.9911600815959785</v>
       </c>
       <c r="R4">
-        <v>1.00163011988445</v>
+        <v>1.002807927073179</v>
       </c>
       <c r="S4">
-        <v>0.9961118225318247</v>
+        <v>0.9568040898190104</v>
       </c>
       <c r="T4">
-        <v>1.00163011988445</v>
+        <v>1.002807927073179</v>
       </c>
       <c r="U4">
-        <v>1.000628809813164</v>
+        <v>0.9955788552569393</v>
       </c>
       <c r="V4">
-        <v>1.003339002181968</v>
+        <v>1.018843714519697</v>
       </c>
       <c r="W4">
-        <v>0.9998433430116676</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43">
+        <v>0.9935953682458623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -903,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.026856895076717</v>
+        <v>0.9214744326945224</v>
       </c>
       <c r="D5">
-        <v>0.9873904745460574</v>
+        <v>0.9988131822550456</v>
       </c>
       <c r="E5">
-        <v>0.995128359093951</v>
+        <v>1.011278882269447</v>
       </c>
       <c r="F5">
-        <v>1.026856895076717</v>
+        <v>1.047829140165706</v>
       </c>
       <c r="G5">
-        <v>0.9953493656336247</v>
+        <v>0.9214744326945224</v>
       </c>
       <c r="H5">
-        <v>1.004924871540958</v>
+        <v>0.981664533443804</v>
       </c>
       <c r="I5">
-        <v>1.026856895076717</v>
+        <v>1.034459843674352</v>
       </c>
       <c r="J5">
-        <v>0.9873904745460574</v>
+        <v>1.011278882269447</v>
       </c>
       <c r="K5">
-        <v>0.9907126028737999</v>
+        <v>1.011278882269447</v>
       </c>
       <c r="L5">
-        <v>1.008135576700631</v>
+        <v>0.9508181248775236</v>
       </c>
       <c r="M5">
-        <v>0.9890228184762478</v>
+        <v>1.005103490453891</v>
       </c>
       <c r="N5">
-        <v>1.026856895076717</v>
+        <v>1.011278882269447</v>
       </c>
       <c r="O5">
-        <v>0.995128359093951</v>
+        <v>1.047829140165706</v>
       </c>
       <c r="P5">
-        <v>0.9912594168200042</v>
+        <v>0.9846517864301141</v>
       </c>
       <c r="Q5">
-        <v>0.9952388623637879</v>
+        <v>1.014746836804755</v>
       </c>
       <c r="R5">
-        <v>1.003125242905575</v>
+        <v>0.9935274850432251</v>
       </c>
       <c r="S5">
-        <v>0.9926227330912111</v>
+        <v>0.9836560354346774</v>
       </c>
       <c r="T5">
-        <v>1.003125242905575</v>
+        <v>0.9935274850432253</v>
       </c>
       <c r="U5">
-        <v>1.001181273587587</v>
+        <v>0.99056174714337</v>
       </c>
       <c r="V5">
-        <v>1.006316397885413</v>
+        <v>0.9947051741685854</v>
       </c>
       <c r="W5">
-        <v>0.9996901204927482</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43">
+        <v>0.9939302037292865</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -974,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.039170642772627</v>
+        <v>0.7301588266104773</v>
       </c>
       <c r="D6">
-        <v>0.9814573694283297</v>
+        <v>1.015266735301963</v>
       </c>
       <c r="E6">
-        <v>0.9931079222446645</v>
+        <v>0.9839865646031706</v>
       </c>
       <c r="F6">
-        <v>1.039170642772627</v>
+        <v>1.203614515155426</v>
       </c>
       <c r="G6">
-        <v>0.9931216742615072</v>
+        <v>0.7301588266104773</v>
       </c>
       <c r="H6">
-        <v>1.007319037492703</v>
+        <v>0.9341179136745849</v>
       </c>
       <c r="I6">
-        <v>1.039170642772627</v>
+        <v>1.126390773849304</v>
       </c>
       <c r="J6">
-        <v>0.9814573694283297</v>
+        <v>0.9839865646031706</v>
       </c>
       <c r="K6">
-        <v>0.9864437204642842</v>
+        <v>0.9839865646031706</v>
       </c>
       <c r="L6">
-        <v>1.011841147936565</v>
+        <v>0.8328457147845224</v>
       </c>
       <c r="M6">
-        <v>0.9838458304664691</v>
+        <v>0.9975572017738493</v>
       </c>
       <c r="N6">
-        <v>1.039170642772627</v>
+        <v>0.9839865646031706</v>
       </c>
       <c r="O6">
-        <v>0.9931079222446645</v>
+        <v>1.203614515155426</v>
       </c>
       <c r="P6">
-        <v>0.9872826458364972</v>
+        <v>0.9668866708829515</v>
       </c>
       <c r="Q6">
-        <v>0.9931147982530859</v>
+        <v>1.068866214415005</v>
       </c>
       <c r="R6">
-        <v>1.004578644815207</v>
+        <v>0.9725866354563579</v>
       </c>
       <c r="S6">
-        <v>0.9892289886448339</v>
+        <v>0.955963751813496</v>
       </c>
       <c r="T6">
-        <v>1.004578644815207</v>
+        <v>0.9725866354563579</v>
       </c>
       <c r="U6">
-        <v>1.001714402176782</v>
+        <v>0.9629694550109147</v>
       </c>
       <c r="V6">
-        <v>1.009205650295951</v>
+        <v>0.9671728769293658</v>
       </c>
       <c r="W6">
-        <v>0.9995384181333937</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43">
+        <v>0.9779922807191622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1045,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.00002377493974</v>
+        <v>0.9948731642185173</v>
       </c>
       <c r="D7">
-        <v>0.999435905678578</v>
+        <v>0.9970387062094919</v>
       </c>
       <c r="E7">
-        <v>1.000381704938957</v>
+        <v>1.008701996484606</v>
       </c>
       <c r="F7">
-        <v>1.00002377493974</v>
+        <v>0.9988118913825212</v>
       </c>
       <c r="G7">
-        <v>0.9998669090581661</v>
+        <v>0.9948731642185173</v>
       </c>
       <c r="H7">
-        <v>1.000254422394022</v>
+        <v>0.9984385575879962</v>
       </c>
       <c r="I7">
-        <v>1.00002377493974</v>
+        <v>1.001880427344801</v>
       </c>
       <c r="J7">
-        <v>0.999435905678578</v>
+        <v>1.008701996484606</v>
       </c>
       <c r="K7">
-        <v>1.000011550643513</v>
+        <v>1.008701996484606</v>
       </c>
       <c r="L7">
-        <v>1.000016981722542</v>
+        <v>0.9959383110160175</v>
       </c>
       <c r="M7">
-        <v>0.9996496822489485</v>
+        <v>1.002771859119746</v>
       </c>
       <c r="N7">
-        <v>1.00002377493974</v>
+        <v>1.008701996484606</v>
       </c>
       <c r="O7">
-        <v>1.000381704938957</v>
+        <v>0.9988118913825212</v>
       </c>
       <c r="P7">
-        <v>0.9999088053087677</v>
+        <v>0.9968425278005193</v>
       </c>
       <c r="Q7">
-        <v>1.000124306998562</v>
+        <v>0.9986252244852587</v>
       </c>
       <c r="R7">
-        <v>0.999947128519092</v>
+        <v>1.000795684028548</v>
       </c>
       <c r="S7">
-        <v>0.9998948398919004</v>
+        <v>0.9973745377296783</v>
       </c>
       <c r="T7">
-        <v>0.999947128519092</v>
+        <v>1.000795684028548</v>
       </c>
       <c r="U7">
-        <v>0.9999270736538605</v>
+        <v>1.00020640241841</v>
       </c>
       <c r="V7">
-        <v>0.9999464139110366</v>
+        <v>1.001905521231649</v>
       </c>
       <c r="W7">
-        <v>0.9999551164530583</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43">
+        <v>0.9998068641704621</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1116,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000216475310121</v>
+        <v>0.9989708978577974</v>
       </c>
       <c r="D8">
-        <v>0.9984315253742195</v>
+        <v>1.000236342825352</v>
       </c>
       <c r="E8">
-        <v>1.000954781927416</v>
+        <v>0.9994486315997463</v>
       </c>
       <c r="F8">
-        <v>1.000216475310121</v>
+        <v>1.000891420316042</v>
       </c>
       <c r="G8">
-        <v>0.9996371499060971</v>
+        <v>0.9989708978577974</v>
       </c>
       <c r="H8">
-        <v>1.000686053488528</v>
+        <v>0.9998553487761737</v>
       </c>
       <c r="I8">
-        <v>1.000216475310121</v>
+        <v>1.000424222176317</v>
       </c>
       <c r="J8">
-        <v>0.9984315253742195</v>
+        <v>0.9994486315997463</v>
       </c>
       <c r="K8">
-        <v>0.9999792054131514</v>
+        <v>0.9994486315997463</v>
       </c>
       <c r="L8">
-        <v>1.000101457802424</v>
+        <v>0.999473543576913</v>
       </c>
       <c r="M8">
-        <v>0.9990204891915054</v>
+        <v>0.9998964238480799</v>
       </c>
       <c r="N8">
-        <v>1.000216475310121</v>
+        <v>0.9994486315997463</v>
       </c>
       <c r="O8">
-        <v>1.000954781927416</v>
+        <v>1.000891420316042</v>
       </c>
       <c r="P8">
-        <v>0.9996931536508179</v>
+        <v>0.9999311590869197</v>
       </c>
       <c r="Q8">
-        <v>1.000295965916757</v>
+        <v>1.000373384546108</v>
       </c>
       <c r="R8">
-        <v>0.999867594203919</v>
+        <v>0.9997703165911952</v>
       </c>
       <c r="S8">
-        <v>0.9996744857359109</v>
+        <v>0.9999058889833377</v>
       </c>
       <c r="T8">
-        <v>0.999867594203919</v>
+        <v>0.9997703165911952</v>
       </c>
       <c r="U8">
-        <v>0.9998099831294636</v>
+        <v>0.9997915746374397</v>
       </c>
       <c r="V8">
-        <v>0.9998912815655953</v>
+        <v>0.999722986029901</v>
       </c>
       <c r="W8">
-        <v>0.9998783923016829</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43">
+        <v>0.9998996038720527</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1187,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000401957518954</v>
+        <v>0.9934589665563499</v>
       </c>
       <c r="D9">
-        <v>0.9978693833721992</v>
+        <v>0.9950967011152565</v>
       </c>
       <c r="E9">
-        <v>1.00119432219303</v>
+        <v>1.014179771657182</v>
       </c>
       <c r="F9">
-        <v>1.000401957518954</v>
+        <v>0.9972516214398184</v>
       </c>
       <c r="G9">
-        <v>0.9995269346368746</v>
+        <v>0.9934589665563499</v>
       </c>
       <c r="H9">
-        <v>1.000903119228238</v>
+        <v>0.9976248795993053</v>
       </c>
       <c r="I9">
-        <v>1.000401957518954</v>
+        <v>1.002494120428265</v>
       </c>
       <c r="J9">
-        <v>0.9978693833721992</v>
+        <v>1.014179771657182</v>
       </c>
       <c r="K9">
-        <v>0.9999330562521883</v>
+        <v>1.014179771657182</v>
       </c>
       <c r="L9">
-        <v>1.000187135299028</v>
+        <v>0.9943153237397316</v>
       </c>
       <c r="M9">
-        <v>0.9986752711934066</v>
+        <v>1.004325359557431</v>
       </c>
       <c r="N9">
-        <v>1.000401957518954</v>
+        <v>1.014179771657182</v>
       </c>
       <c r="O9">
-        <v>1.00119432219303</v>
+        <v>0.9972516214398184</v>
       </c>
       <c r="P9">
-        <v>0.9995318527826146</v>
+        <v>0.9953552939980841</v>
       </c>
       <c r="Q9">
-        <v>1.000360628414952</v>
+        <v>0.9974382505195618</v>
       </c>
       <c r="R9">
-        <v>0.9998218876947277</v>
+        <v>1.00163011988445</v>
       </c>
       <c r="S9">
-        <v>0.9995302134007013</v>
+        <v>0.9961118225318245</v>
       </c>
       <c r="T9">
-        <v>0.9998218876947277</v>
+        <v>1.00163011988445</v>
       </c>
       <c r="U9">
-        <v>0.9997481494302644</v>
+        <v>1.000628809813164</v>
       </c>
       <c r="V9">
-        <v>0.9998789110480022</v>
+        <v>1.003339002181967</v>
       </c>
       <c r="W9">
-        <v>0.9998363974617397</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43">
+        <v>0.9998433430116676</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1258,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000758313260834</v>
+        <v>0.7256423419997844</v>
       </c>
       <c r="D10">
-        <v>0.9953582875217682</v>
+        <v>1.016267994470126</v>
       </c>
       <c r="E10">
-        <v>1.002711098243058</v>
+        <v>0.9814763546065083</v>
       </c>
       <c r="F10">
-        <v>1.000758313260834</v>
+        <v>1.209485962696061</v>
       </c>
       <c r="G10">
-        <v>0.9989492173911442</v>
+        <v>0.7256423419997844</v>
       </c>
       <c r="H10">
-        <v>1.001997851150652</v>
+        <v>0.9324183494873959</v>
       </c>
       <c r="I10">
-        <v>1.000758313260834</v>
+        <v>1.129318715476425</v>
       </c>
       <c r="J10">
-        <v>0.9953582875217682</v>
+        <v>0.9814763546065083</v>
       </c>
       <c r="K10">
-        <v>0.9998957602143039</v>
+        <v>0.9814763546065083</v>
       </c>
       <c r="L10">
-        <v>1.000355375761323</v>
+        <v>0.829766033700153</v>
       </c>
       <c r="M10">
-        <v>0.9971083172617001</v>
+        <v>0.9964148179973068</v>
       </c>
       <c r="N10">
-        <v>1.000758313260834</v>
+        <v>0.9814763546065083</v>
       </c>
       <c r="O10">
-        <v>1.002711098243058</v>
+        <v>1.209485962696061</v>
       </c>
       <c r="P10">
-        <v>0.9990346928824134</v>
+        <v>0.9675641523479228</v>
       </c>
       <c r="Q10">
-        <v>1.000830157817101</v>
+        <v>1.070952156091729</v>
       </c>
       <c r="R10">
-        <v>0.9996092330085536</v>
+        <v>0.9722015531007847</v>
       </c>
       <c r="S10">
-        <v>0.9990062010519903</v>
+        <v>0.9558488847277472</v>
       </c>
       <c r="T10">
-        <v>0.9996092330085536</v>
+        <v>0.9722015531007845</v>
       </c>
       <c r="U10">
-        <v>0.9994442291042013</v>
+        <v>0.9622557521974373</v>
       </c>
       <c r="V10">
-        <v>0.9997070459355278</v>
+        <v>0.9660998726792516</v>
       </c>
       <c r="W10">
-        <v>0.9996417776005979</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43">
+        <v>0.9775988213042199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1329,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.001655182388622</v>
+        <v>0.8907254994678725</v>
       </c>
       <c r="D11">
-        <v>0.9923898201283626</v>
+        <v>0.96272374985784</v>
       </c>
       <c r="E11">
-        <v>1.004130691028202</v>
+        <v>1.115845482559966</v>
       </c>
       <c r="F11">
-        <v>1.001655182388622</v>
+        <v>1.005226868848298</v>
       </c>
       <c r="G11">
-        <v>0.9983094604310476</v>
+        <v>0.8907254994678725</v>
       </c>
       <c r="H11">
-        <v>1.003205634172343</v>
+        <v>0.9738945700820307</v>
       </c>
       <c r="I11">
-        <v>1.001655182388622</v>
+        <v>1.039101111145922</v>
       </c>
       <c r="J11">
-        <v>0.9923898201283626</v>
+        <v>1.115845482559966</v>
       </c>
       <c r="K11">
-        <v>0.9996833020711159</v>
+        <v>1.115845482559966</v>
       </c>
       <c r="L11">
-        <v>1.000740263463752</v>
+        <v>0.9239819219067562</v>
       </c>
       <c r="M11">
-        <v>0.9952522839438329</v>
+        <v>1.039924939306299</v>
       </c>
       <c r="N11">
-        <v>1.001655182388622</v>
+        <v>1.115845482559966</v>
       </c>
       <c r="O11">
-        <v>1.004130691028202</v>
+        <v>1.005226868848298</v>
       </c>
       <c r="P11">
-        <v>0.9982602555782822</v>
+        <v>0.9479761841580852</v>
       </c>
       <c r="Q11">
-        <v>1.001220075729625</v>
+        <v>0.9895607194651642</v>
       </c>
       <c r="R11">
-        <v>0.9993918978483954</v>
+        <v>1.003932616958712</v>
       </c>
       <c r="S11">
-        <v>0.9982766571958708</v>
+        <v>0.9566156461327336</v>
       </c>
       <c r="T11">
-        <v>0.9993918978483954</v>
+        <v>1.003932616958712</v>
       </c>
       <c r="U11">
-        <v>0.9991212884940586</v>
+        <v>0.9964231052395418</v>
       </c>
       <c r="V11">
-        <v>0.9996280672729713</v>
+        <v>1.020307580703627</v>
       </c>
       <c r="W11">
-        <v>0.9994208297034098</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43">
+        <v>0.993928017896873</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1400,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.051388670160163</v>
+        <v>0.9125188189263169</v>
       </c>
       <c r="D12">
-        <v>1.157636738154069</v>
+        <v>1.004819204242106</v>
       </c>
       <c r="E12">
-        <v>0.8811496961509877</v>
+        <v>0.9951644499578921</v>
       </c>
       <c r="F12">
-        <v>1.051388670160163</v>
+        <v>1.065539158789472</v>
       </c>
       <c r="G12">
-        <v>1.023781856586572</v>
+        <v>0.9125188189263169</v>
       </c>
       <c r="H12">
-        <v>0.9370300531303986</v>
+        <v>0.9787812058105242</v>
       </c>
       <c r="I12">
-        <v>1.051388670160163</v>
+        <v>1.040810990000002</v>
       </c>
       <c r="J12">
-        <v>1.157636738154069</v>
+        <v>0.9951644499578921</v>
       </c>
       <c r="K12">
-        <v>0.9748642893754931</v>
+        <v>0.9951644499578921</v>
       </c>
       <c r="L12">
-        <v>1.006543621874826</v>
+        <v>0.9458788218631589</v>
       </c>
       <c r="M12">
-        <v>1.083746428940472</v>
+        <v>0.9994225963684207</v>
       </c>
       <c r="N12">
-        <v>1.051388670160163</v>
+        <v>0.9951644499578921</v>
       </c>
       <c r="O12">
-        <v>0.8811496961509877</v>
+        <v>1.065539158789472</v>
       </c>
       <c r="P12">
-        <v>1.019393217152528</v>
+        <v>0.9890289888578946</v>
       </c>
       <c r="Q12">
-        <v>0.9524657763687798</v>
+        <v>1.022160182299998</v>
       </c>
       <c r="R12">
-        <v>1.030058368155073</v>
+        <v>0.9910741425578937</v>
       </c>
       <c r="S12">
-        <v>1.020856096963876</v>
+        <v>0.9856130611754378</v>
       </c>
       <c r="T12">
-        <v>1.030058368155073</v>
+        <v>0.9910741425578937</v>
       </c>
       <c r="U12">
-        <v>1.028489240262948</v>
+        <v>0.9880009083710514</v>
       </c>
       <c r="V12">
-        <v>1.033069126242391</v>
+        <v>0.9894336166884194</v>
       </c>
       <c r="W12">
-        <v>1.014517669296623</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43">
+        <v>0.9928669057447368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1471,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9355928644891254</v>
+        <v>1.045503332501224</v>
       </c>
       <c r="D13">
-        <v>0.9897858132154131</v>
+        <v>1.00519395959045</v>
       </c>
       <c r="E13">
-        <v>1.032157968565828</v>
+        <v>0.9801703173122603</v>
       </c>
       <c r="F13">
-        <v>0.9355928644891254</v>
+        <v>0.9850030934794353</v>
       </c>
       <c r="G13">
-        <v>1.00606276986319</v>
+        <v>1.045503332501224</v>
       </c>
       <c r="H13">
-        <v>1.002274981732172</v>
+        <v>1.008141919643856</v>
       </c>
       <c r="I13">
-        <v>0.9355928644891254</v>
+        <v>0.9837887123882121</v>
       </c>
       <c r="J13">
-        <v>0.9897858132154131</v>
+        <v>0.9801703173122603</v>
       </c>
       <c r="K13">
-        <v>1.023831357310236</v>
+        <v>0.9801703173122603</v>
       </c>
       <c r="L13">
-        <v>0.9840237090203153</v>
+        <v>1.027606730113264</v>
       </c>
       <c r="M13">
-        <v>1.004479277257104</v>
+        <v>0.9911503881519141</v>
       </c>
       <c r="N13">
-        <v>0.9355928644891254</v>
+        <v>0.9801703173122603</v>
       </c>
       <c r="O13">
-        <v>1.032157968565828</v>
+        <v>0.9850030934794353</v>
       </c>
       <c r="P13">
-        <v>1.01097189089062</v>
+        <v>1.01525321299033</v>
       </c>
       <c r="Q13">
-        <v>1.019110369214509</v>
+        <v>0.9965725065616458</v>
       </c>
       <c r="R13">
-        <v>0.9858455487567888</v>
+        <v>1.003558914430973</v>
       </c>
       <c r="S13">
-        <v>1.00933551721481</v>
+        <v>1.012882781874838</v>
       </c>
       <c r="T13">
-        <v>0.9858455487567888</v>
+        <v>1.003558914430973</v>
       </c>
       <c r="U13">
-        <v>0.9908998540333891</v>
+        <v>1.004704665734194</v>
       </c>
       <c r="V13">
-        <v>0.9798384561245363</v>
+        <v>0.9997977960498071</v>
       </c>
       <c r="W13">
-        <v>0.9972760926816729</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43">
+        <v>1.003319806647577</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1542,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8167524683051485</v>
+        <v>0.5229061699999994</v>
       </c>
       <c r="D14">
-        <v>1.274525819602066</v>
+        <v>1.030420399999999</v>
       </c>
       <c r="E14">
-        <v>0.9166065752138568</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="F14">
-        <v>0.8167524683051485</v>
+        <v>1.367955899999999</v>
       </c>
       <c r="G14">
-        <v>1.067328978838221</v>
+        <v>0.5229061699999994</v>
       </c>
       <c r="H14">
-        <v>0.889725005151477</v>
+        <v>0.8825002800000008</v>
       </c>
       <c r="I14">
-        <v>0.8167524683051485</v>
+        <v>1.225409299999999</v>
       </c>
       <c r="J14">
-        <v>1.274525819602066</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="K14">
-        <v>1.0556921547135</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="L14">
-        <v>0.9363073158876608</v>
+        <v>0.7044202900000011</v>
       </c>
       <c r="M14">
-        <v>1.184685975631371</v>
+        <v>0.9917943100000015</v>
       </c>
       <c r="N14">
-        <v>0.8167524683051485</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="O14">
-        <v>0.9166065752138568</v>
+        <v>1.367955899999999</v>
       </c>
       <c r="P14">
-        <v>1.095566197407962</v>
+        <v>0.9454310349999993</v>
       </c>
       <c r="Q14">
-        <v>0.9919677770260389</v>
+        <v>1.12522809</v>
       </c>
       <c r="R14">
-        <v>1.002628287707024</v>
+        <v>0.9508989299999993</v>
       </c>
       <c r="S14">
-        <v>1.086153791218048</v>
+        <v>0.9244541166666664</v>
       </c>
       <c r="T14">
-        <v>1.002628287707024</v>
+        <v>0.9508989299999993</v>
       </c>
       <c r="U14">
-        <v>1.018803460489823</v>
+        <v>0.9337992674999996</v>
       </c>
       <c r="V14">
-        <v>0.9783932620528883</v>
+        <v>0.9394063579999996</v>
       </c>
       <c r="W14">
-        <v>1.017703036667913</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43">
+        <v>0.9609051712499999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1613,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9502127844330988</v>
+        <v>0.67342322</v>
       </c>
       <c r="D15">
-        <v>1.086263935413478</v>
+        <v>0.8993632599999999</v>
       </c>
       <c r="E15">
-        <v>0.9923458013234966</v>
+        <v>1.3157154</v>
       </c>
       <c r="F15">
-        <v>0.9502127844330988</v>
+        <v>0.9917924599999999</v>
       </c>
       <c r="G15">
-        <v>1.008060594746041</v>
+        <v>0.67342322</v>
       </c>
       <c r="H15">
-        <v>0.9777567528305007</v>
+        <v>0.94594448</v>
       </c>
       <c r="I15">
-        <v>0.9502127844330988</v>
+        <v>1.0969651</v>
       </c>
       <c r="J15">
-        <v>1.086263935413478</v>
+        <v>1.3157154</v>
       </c>
       <c r="K15">
-        <v>1.013684794133076</v>
+        <v>1.3157154</v>
       </c>
       <c r="L15">
-        <v>0.9746441528022979</v>
+        <v>0.79155237</v>
       </c>
       <c r="M15">
-        <v>1.04782111932408</v>
+        <v>1.1253076</v>
       </c>
       <c r="N15">
-        <v>0.9502127844330988</v>
+        <v>1.3157154</v>
       </c>
       <c r="O15">
-        <v>0.9923458013234966</v>
+        <v>0.9917924599999999</v>
       </c>
       <c r="P15">
-        <v>1.039304868368487</v>
+        <v>0.8326078399999999</v>
       </c>
       <c r="Q15">
-        <v>1.000203198034769</v>
+        <v>0.9688684699999999</v>
       </c>
       <c r="R15">
-        <v>1.009607507056691</v>
+        <v>0.9936436933333331</v>
       </c>
       <c r="S15">
-        <v>1.028890110494338</v>
+        <v>0.8703867199999999</v>
       </c>
       <c r="T15">
-        <v>1.009607507056691</v>
+        <v>0.9936436933333331</v>
       </c>
       <c r="U15">
-        <v>1.009220778979029</v>
+        <v>0.9817188899999999</v>
       </c>
       <c r="V15">
-        <v>0.9974191800698426</v>
+        <v>1.048518192</v>
       </c>
       <c r="W15">
-        <v>1.006348741875759</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43">
+        <v>0.98000798625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1684,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000257782474139</v>
+        <v>0.25020352</v>
       </c>
       <c r="D16">
-        <v>1.000180697259046</v>
+        <v>0.69115297</v>
       </c>
       <c r="E16">
-        <v>0.9998610353871953</v>
+        <v>1.9473815</v>
       </c>
       <c r="F16">
-        <v>1.000257782474139</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="G16">
-        <v>0.9999594699782927</v>
+        <v>0.25020352</v>
       </c>
       <c r="H16">
-        <v>0.9999755005974089</v>
+        <v>0.80914508</v>
       </c>
       <c r="I16">
-        <v>1.000257782474139</v>
+        <v>1.2643698</v>
       </c>
       <c r="J16">
-        <v>1.000180697259046</v>
+        <v>1.9473815</v>
       </c>
       <c r="K16">
-        <v>0.9998975938090551</v>
+        <v>1.9473815</v>
       </c>
       <c r="L16">
-        <v>1.000030382563728</v>
+        <v>0.46000639</v>
       </c>
       <c r="M16">
-        <v>1.000033206050818</v>
+        <v>1.3157358</v>
       </c>
       <c r="N16">
-        <v>1.000257782474139</v>
+        <v>1.9473815</v>
       </c>
       <c r="O16">
-        <v>0.9998610353871953</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="P16">
-        <v>1.000020866323121</v>
+        <v>0.60601912</v>
       </c>
       <c r="Q16">
-        <v>0.9999102526827439</v>
+        <v>0.8854899000000001</v>
       </c>
       <c r="R16">
-        <v>1.00009983837346</v>
+        <v>1.053139913333333</v>
       </c>
       <c r="S16">
-        <v>1.000000400874845</v>
+        <v>0.6737277733333333</v>
       </c>
       <c r="T16">
-        <v>1.00009983837346</v>
+        <v>1.053139913333333</v>
       </c>
       <c r="U16">
-        <v>1.000064746274668</v>
+        <v>0.992141205</v>
       </c>
       <c r="V16">
-        <v>1.000103353514562</v>
+        <v>1.183189264</v>
       </c>
       <c r="W16">
-        <v>1.00002445851496</v>
+        <v>0.9624787225</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1755,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9994486315997462</v>
+        <v>0.89934794</v>
       </c>
       <c r="D17">
-        <v>0.9989708978577974</v>
+        <v>1.0439295</v>
       </c>
       <c r="E17">
-        <v>1.000891420316042</v>
+        <v>0.8927209</v>
       </c>
       <c r="F17">
-        <v>0.9994486315997462</v>
+        <v>1.1081094</v>
       </c>
       <c r="G17">
-        <v>0.9998553487761737</v>
+        <v>0.89934794</v>
       </c>
       <c r="H17">
-        <v>1.000424222176317</v>
+        <v>0.99274062</v>
       </c>
       <c r="I17">
-        <v>0.9994486315997462</v>
+        <v>1.0387629</v>
       </c>
       <c r="J17">
-        <v>0.9989708978577974</v>
+        <v>0.8927209</v>
       </c>
       <c r="K17">
-        <v>1.000236342825352</v>
+        <v>0.8927209</v>
       </c>
       <c r="L17">
-        <v>0.99989642384808</v>
+        <v>0.9581243399999999</v>
       </c>
       <c r="M17">
-        <v>0.9994735435769134</v>
+        <v>0.97530866</v>
       </c>
       <c r="N17">
-        <v>0.9994486315997462</v>
+        <v>0.8927209</v>
       </c>
       <c r="O17">
-        <v>1.000891420316042</v>
+        <v>1.1081094</v>
       </c>
       <c r="P17">
-        <v>0.9999311590869195</v>
+        <v>1.00372867</v>
       </c>
       <c r="Q17">
-        <v>1.000373384546108</v>
+        <v>1.05042501</v>
       </c>
       <c r="R17">
-        <v>0.9997703165911952</v>
+        <v>0.96672608</v>
       </c>
       <c r="S17">
-        <v>0.9999058889833377</v>
+        <v>1.000065986666667</v>
       </c>
       <c r="T17">
-        <v>0.9997703165911952</v>
+        <v>0.9667260799999999</v>
       </c>
       <c r="U17">
-        <v>0.9997915746374397</v>
+        <v>0.973229715</v>
       </c>
       <c r="V17">
-        <v>0.999722986029901</v>
+        <v>0.9571279520000001</v>
       </c>
       <c r="W17">
-        <v>0.9998996038720527</v>
+        <v>0.9886305325</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1826,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.00355260900688</v>
+        <v>0.9238765569863013</v>
       </c>
       <c r="D18">
-        <v>0.9998256754930169</v>
+        <v>0.9369357084931504</v>
       </c>
       <c r="E18">
-        <v>0.9985530858793044</v>
+        <v>1.181735933150685</v>
       </c>
       <c r="F18">
-        <v>1.00355260900688</v>
+        <v>0.957895372328767</v>
       </c>
       <c r="G18">
-        <v>0.9995987853311959</v>
+        <v>0.9238765569863013</v>
       </c>
       <c r="H18">
-        <v>1.000103717037496</v>
+        <v>0.9721952761643835</v>
       </c>
       <c r="I18">
-        <v>1.00355260900688</v>
+        <v>1.027646218356165</v>
       </c>
       <c r="J18">
-        <v>0.9998256754930169</v>
+        <v>1.181735933150685</v>
       </c>
       <c r="K18">
-        <v>0.9987183992383243</v>
+        <v>1.181735933150685</v>
       </c>
       <c r="L18">
-        <v>1.000959491744342</v>
+        <v>0.9325023146575344</v>
       </c>
       <c r="M18">
-        <v>0.9993750730181035</v>
+        <v>1.055816486575343</v>
       </c>
       <c r="N18">
-        <v>1.00355260900688</v>
+        <v>1.181735933150685</v>
       </c>
       <c r="O18">
-        <v>0.9985530858793044</v>
+        <v>0.957895372328767</v>
       </c>
       <c r="P18">
-        <v>0.9991893806861607</v>
+        <v>0.9408859646575342</v>
       </c>
       <c r="Q18">
-        <v>0.9990759356052501</v>
+        <v>0.9650453242465753</v>
       </c>
       <c r="R18">
-        <v>1.000643790126401</v>
+        <v>1.021169287488584</v>
       </c>
       <c r="S18">
-        <v>0.9993258489011724</v>
+        <v>0.951322401826484</v>
       </c>
       <c r="T18">
-        <v>1.000643790126401</v>
+        <v>1.021169287488584</v>
       </c>
       <c r="U18">
-        <v>1.0003825389276</v>
+        <v>1.008925784657534</v>
       </c>
       <c r="V18">
-        <v>1.001016552943456</v>
+        <v>1.043487814356164</v>
       </c>
       <c r="W18">
-        <v>1.000085854593583</v>
+        <v>0.998575483339041</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1897,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.012101184780297</v>
+        <v>0.8205333647368421</v>
       </c>
       <c r="D19">
-        <v>1.002110748158929</v>
+        <v>0.9794678147368421</v>
       </c>
       <c r="E19">
-        <v>0.993594359810794</v>
+        <v>1.079395177368421</v>
       </c>
       <c r="F19">
-        <v>1.012101184780297</v>
+        <v>1.060639613157895</v>
       </c>
       <c r="G19">
-        <v>0.9990341857767988</v>
+        <v>0.8205333647368421</v>
       </c>
       <c r="H19">
-        <v>0.9993594104303223</v>
+        <v>0.9666401105263158</v>
       </c>
       <c r="I19">
-        <v>1.012101184780297</v>
+        <v>1.064772026842105</v>
       </c>
       <c r="J19">
-        <v>1.002110748158929</v>
+        <v>1.079395177368421</v>
       </c>
       <c r="K19">
-        <v>0.9955218694672872</v>
+        <v>1.079395177368421</v>
       </c>
       <c r="L19">
-        <v>1.003079326359816</v>
+        <v>0.8903777200000003</v>
       </c>
       <c r="M19">
-        <v>0.9993690587800973</v>
+        <v>1.034160047894737</v>
       </c>
       <c r="N19">
-        <v>1.012101184780297</v>
+        <v>1.079395177368421</v>
       </c>
       <c r="O19">
-        <v>0.993594359810794</v>
+        <v>1.060639613157895</v>
       </c>
       <c r="P19">
-        <v>0.9978525539848617</v>
+        <v>0.9405864889473683</v>
       </c>
       <c r="Q19">
-        <v>0.9963142727937964</v>
+        <v>1.013639861842105</v>
       </c>
       <c r="R19">
-        <v>1.00260209758334</v>
+        <v>0.9868560517543857</v>
       </c>
       <c r="S19">
-        <v>0.9982464312488407</v>
+        <v>0.949271029473684</v>
       </c>
       <c r="T19">
-        <v>1.00260209758334</v>
+        <v>0.9868560517543857</v>
       </c>
       <c r="U19">
-        <v>1.001710119631705</v>
+        <v>0.9818020664473683</v>
       </c>
       <c r="V19">
-        <v>1.003788332661423</v>
+        <v>1.001320688631579</v>
       </c>
       <c r="W19">
-        <v>1.000521267945543</v>
+        <v>0.9869982344078947</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.5981558321052631</v>
+      </c>
+      <c r="D20">
+        <v>0.9648886836842105</v>
+      </c>
+      <c r="E20">
+        <v>1.138784727894737</v>
+      </c>
+      <c r="F20">
+        <v>1.179875067894737</v>
+      </c>
+      <c r="G20">
+        <v>0.5981558321052631</v>
+      </c>
+      <c r="H20">
+        <v>0.9142199231578948</v>
+      </c>
+      <c r="I20">
+        <v>1.161190721052632</v>
+      </c>
+      <c r="J20">
+        <v>1.138784727894737</v>
+      </c>
+      <c r="K20">
+        <v>1.138784727894737</v>
+      </c>
+      <c r="L20">
+        <v>0.7479798968421052</v>
+      </c>
+      <c r="M20">
+        <v>1.058554053684211</v>
+      </c>
+      <c r="N20">
+        <v>1.138784727894737</v>
+      </c>
+      <c r="O20">
+        <v>1.179875067894737</v>
+      </c>
+      <c r="P20">
+        <v>0.8890154499999999</v>
+      </c>
+      <c r="Q20">
+        <v>1.047047495526316</v>
+      </c>
+      <c r="R20">
+        <v>0.9722718759649123</v>
+      </c>
+      <c r="S20">
+        <v>0.8974169410526316</v>
+      </c>
+      <c r="T20">
+        <v>0.9722718759649123</v>
+      </c>
+      <c r="U20">
+        <v>0.9577588877631579</v>
+      </c>
+      <c r="V20">
+        <v>0.9939640557894738</v>
+      </c>
+      <c r="W20">
+        <v>0.9704561132894738</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.274525819602066</v>
+      </c>
+      <c r="D21">
+        <v>1.0556921547135</v>
+      </c>
+      <c r="E21">
+        <v>0.8167524683051485</v>
+      </c>
+      <c r="F21">
+        <v>0.9166065752138568</v>
+      </c>
+      <c r="G21">
+        <v>1.274525819602066</v>
+      </c>
+      <c r="H21">
+        <v>1.067328978838221</v>
+      </c>
+      <c r="I21">
+        <v>0.889725005151477</v>
+      </c>
+      <c r="J21">
+        <v>0.8167524683051485</v>
+      </c>
+      <c r="K21">
+        <v>0.8167524683051485</v>
+      </c>
+      <c r="L21">
+        <v>1.184685975631371</v>
+      </c>
+      <c r="M21">
+        <v>0.9363073158876608</v>
+      </c>
+      <c r="N21">
+        <v>0.8167524683051485</v>
+      </c>
+      <c r="O21">
+        <v>0.9166065752138568</v>
+      </c>
+      <c r="P21">
+        <v>1.095566197407962</v>
+      </c>
+      <c r="Q21">
+        <v>0.9919677770260389</v>
+      </c>
+      <c r="R21">
+        <v>1.002628287707024</v>
+      </c>
+      <c r="S21">
+        <v>1.086153791218048</v>
+      </c>
+      <c r="T21">
+        <v>1.002628287707024</v>
+      </c>
+      <c r="U21">
+        <v>1.018803460489823</v>
+      </c>
+      <c r="V21">
+        <v>0.9783932620528883</v>
+      </c>
+      <c r="W21">
+        <v>1.017703036667913</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.086263935413478</v>
+      </c>
+      <c r="D22">
+        <v>1.013684794133076</v>
+      </c>
+      <c r="E22">
+        <v>0.9502127844330988</v>
+      </c>
+      <c r="F22">
+        <v>0.9923458013234966</v>
+      </c>
+      <c r="G22">
+        <v>1.086263935413478</v>
+      </c>
+      <c r="H22">
+        <v>1.008060594746041</v>
+      </c>
+      <c r="I22">
+        <v>0.9777567528305007</v>
+      </c>
+      <c r="J22">
+        <v>0.9502127844330988</v>
+      </c>
+      <c r="K22">
+        <v>0.9502127844330988</v>
+      </c>
+      <c r="L22">
+        <v>1.04782111932408</v>
+      </c>
+      <c r="M22">
+        <v>0.9746441528022979</v>
+      </c>
+      <c r="N22">
+        <v>0.9502127844330988</v>
+      </c>
+      <c r="O22">
+        <v>0.9923458013234966</v>
+      </c>
+      <c r="P22">
+        <v>1.039304868368487</v>
+      </c>
+      <c r="Q22">
+        <v>1.000203198034769</v>
+      </c>
+      <c r="R22">
+        <v>1.009607507056691</v>
+      </c>
+      <c r="S22">
+        <v>1.028890110494338</v>
+      </c>
+      <c r="T22">
+        <v>1.009607507056691</v>
+      </c>
+      <c r="U22">
+        <v>1.009220778979029</v>
+      </c>
+      <c r="V22">
+        <v>0.9974191800698426</v>
+      </c>
+      <c r="W22">
+        <v>1.006348741875759</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.157636738154069</v>
+      </c>
+      <c r="D23">
+        <v>0.974864289375493</v>
+      </c>
+      <c r="E23">
+        <v>1.051388670160163</v>
+      </c>
+      <c r="F23">
+        <v>0.8811496961509875</v>
+      </c>
+      <c r="G23">
+        <v>1.157636738154069</v>
+      </c>
+      <c r="H23">
+        <v>1.023781856586572</v>
+      </c>
+      <c r="I23">
+        <v>0.9370300531303986</v>
+      </c>
+      <c r="J23">
+        <v>1.051388670160163</v>
+      </c>
+      <c r="K23">
+        <v>1.051388670160163</v>
+      </c>
+      <c r="L23">
+        <v>1.083746428940472</v>
+      </c>
+      <c r="M23">
+        <v>1.006543621874826</v>
+      </c>
+      <c r="N23">
+        <v>1.051388670160163</v>
+      </c>
+      <c r="O23">
+        <v>0.8811496961509875</v>
+      </c>
+      <c r="P23">
+        <v>1.019393217152528</v>
+      </c>
+      <c r="Q23">
+        <v>0.9524657763687797</v>
+      </c>
+      <c r="R23">
+        <v>1.030058368155073</v>
+      </c>
+      <c r="S23">
+        <v>1.020856096963876</v>
+      </c>
+      <c r="T23">
+        <v>1.030058368155073</v>
+      </c>
+      <c r="U23">
+        <v>1.028489240262948</v>
+      </c>
+      <c r="V23">
+        <v>1.033069126242391</v>
+      </c>
+      <c r="W23">
+        <v>1.014517669296623</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9897858132154131</v>
+      </c>
+      <c r="D24">
+        <v>1.023831357310236</v>
+      </c>
+      <c r="E24">
+        <v>0.9355928644891256</v>
+      </c>
+      <c r="F24">
+        <v>1.032157968565828</v>
+      </c>
+      <c r="G24">
+        <v>0.9897858132154131</v>
+      </c>
+      <c r="H24">
+        <v>1.00606276986319</v>
+      </c>
+      <c r="I24">
+        <v>1.002274981732172</v>
+      </c>
+      <c r="J24">
+        <v>0.9355928644891256</v>
+      </c>
+      <c r="K24">
+        <v>0.9355928644891256</v>
+      </c>
+      <c r="L24">
+        <v>1.004479277257104</v>
+      </c>
+      <c r="M24">
+        <v>0.9840237090203153</v>
+      </c>
+      <c r="N24">
+        <v>0.9355928644891256</v>
+      </c>
+      <c r="O24">
+        <v>1.032157968565828</v>
+      </c>
+      <c r="P24">
+        <v>1.01097189089062</v>
+      </c>
+      <c r="Q24">
+        <v>1.019110369214509</v>
+      </c>
+      <c r="R24">
+        <v>0.9858455487567888</v>
+      </c>
+      <c r="S24">
+        <v>1.00933551721481</v>
+      </c>
+      <c r="T24">
+        <v>0.9858455487567888</v>
+      </c>
+      <c r="U24">
+        <v>0.9908998540333891</v>
+      </c>
+      <c r="V24">
+        <v>0.9798384561245363</v>
+      </c>
+      <c r="W24">
+        <v>0.9972760926816731</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.7373131389974896</v>
+      </c>
+      <c r="D25">
+        <v>0.9324713620604266</v>
+      </c>
+      <c r="E25">
+        <v>1.217686208489197</v>
+      </c>
+      <c r="F25">
+        <v>1.032263682772953</v>
+      </c>
+      <c r="G25">
+        <v>0.7373131389974896</v>
+      </c>
+      <c r="H25">
+        <v>0.9474130008138536</v>
+      </c>
+      <c r="I25">
+        <v>1.089737353757439</v>
+      </c>
+      <c r="J25">
+        <v>1.217686208489197</v>
+      </c>
+      <c r="K25">
+        <v>1.217686208489197</v>
+      </c>
+      <c r="L25">
+        <v>0.8289086938651739</v>
+      </c>
+      <c r="M25">
+        <v>1.082251531440139</v>
+      </c>
+      <c r="N25">
+        <v>1.217686208489197</v>
+      </c>
+      <c r="O25">
+        <v>1.032263682772953</v>
+      </c>
+      <c r="P25">
+        <v>0.8847884108852211</v>
+      </c>
+      <c r="Q25">
+        <v>0.9898383417934031</v>
+      </c>
+      <c r="R25">
+        <v>0.9957543434198798</v>
+      </c>
+      <c r="S25">
+        <v>0.9056632741947652</v>
+      </c>
+      <c r="T25">
+        <v>0.9957543434198798</v>
+      </c>
+      <c r="U25">
+        <v>0.9836690077683732</v>
+      </c>
+      <c r="V25">
+        <v>1.030472447912538</v>
+      </c>
+      <c r="W25">
+        <v>0.9835056215245839</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9257065563060634</v>
+      </c>
+      <c r="D26">
+        <v>0.9895532608739381</v>
+      </c>
+      <c r="E26">
+        <v>1.036811344902213</v>
+      </c>
+      <c r="F26">
+        <v>1.037487050008018</v>
+      </c>
+      <c r="G26">
+        <v>0.9257065563060634</v>
+      </c>
+      <c r="H26">
+        <v>0.9778860618542849</v>
+      </c>
+      <c r="I26">
+        <v>1.034699585537691</v>
+      </c>
+      <c r="J26">
+        <v>1.036811344902213</v>
+      </c>
+      <c r="K26">
+        <v>1.036811344902213</v>
+      </c>
+      <c r="L26">
+        <v>0.9482810307479357</v>
+      </c>
+      <c r="M26">
+        <v>1.010328879790442</v>
+      </c>
+      <c r="N26">
+        <v>1.036811344902213</v>
+      </c>
+      <c r="O26">
+        <v>1.037487050008018</v>
+      </c>
+      <c r="P26">
+        <v>0.9815968031570407</v>
+      </c>
+      <c r="Q26">
+        <v>1.007686555931151</v>
+      </c>
+      <c r="R26">
+        <v>1.000001650405432</v>
+      </c>
+      <c r="S26">
+        <v>0.9803598893894554</v>
+      </c>
+      <c r="T26">
+        <v>1.000001650405432</v>
+      </c>
+      <c r="U26">
+        <v>0.9944727532676449</v>
+      </c>
+      <c r="V26">
+        <v>1.002940471594559</v>
+      </c>
+      <c r="W26">
+        <v>0.9950942212525733</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9759133612835745</v>
+      </c>
+      <c r="D27">
+        <v>0.9947670592502837</v>
+      </c>
+      <c r="E27">
+        <v>1.018522862793599</v>
+      </c>
+      <c r="F27">
+        <v>0.9955781059120832</v>
+      </c>
+      <c r="G27">
+        <v>0.9759133612835745</v>
+      </c>
+      <c r="H27">
+        <v>0.9998086048359111</v>
+      </c>
+      <c r="I27">
+        <v>1.003666062215267</v>
+      </c>
+      <c r="J27">
+        <v>1.018522862793599</v>
+      </c>
+      <c r="K27">
+        <v>1.018522862793599</v>
+      </c>
+      <c r="L27">
+        <v>0.9878726369663549</v>
+      </c>
+      <c r="M27">
+        <v>1.009804451489278</v>
+      </c>
+      <c r="N27">
+        <v>1.018522862793599</v>
+      </c>
+      <c r="O27">
+        <v>0.9955781059120832</v>
+      </c>
+      <c r="P27">
+        <v>0.9857457335978288</v>
+      </c>
+      <c r="Q27">
+        <v>0.9976933553739971</v>
+      </c>
+      <c r="R27">
+        <v>0.9966714433297522</v>
+      </c>
+      <c r="S27">
+        <v>0.9904333573438562</v>
+      </c>
+      <c r="T27">
+        <v>0.9966714433297522</v>
+      </c>
+      <c r="U27">
+        <v>0.9974557337062919</v>
+      </c>
+      <c r="V27">
+        <v>1.001669159523753</v>
+      </c>
+      <c r="W27">
+        <v>0.998241643093294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9759565951448562</v>
+      </c>
+      <c r="D28">
+        <v>0.9857618503367906</v>
+      </c>
+      <c r="E28">
+        <v>1.042209639961285</v>
+      </c>
+      <c r="F28">
+        <v>0.9956790152023051</v>
+      </c>
+      <c r="G28">
+        <v>0.9759565951448562</v>
+      </c>
+      <c r="H28">
+        <v>0.9914894990268772</v>
+      </c>
+      <c r="I28">
+        <v>1.009722614637956</v>
+      </c>
+      <c r="J28">
+        <v>1.042209639961285</v>
+      </c>
+      <c r="K28">
+        <v>1.042209639961285</v>
+      </c>
+      <c r="L28">
+        <v>0.9801108795771191</v>
+      </c>
+      <c r="M28">
+        <v>1.012550074887477</v>
+      </c>
+      <c r="N28">
+        <v>1.042209639961285</v>
+      </c>
+      <c r="O28">
+        <v>0.9956790152023051</v>
+      </c>
+      <c r="P28">
+        <v>0.9858178051735806</v>
+      </c>
+      <c r="Q28">
+        <v>0.9935842571145912</v>
+      </c>
+      <c r="R28">
+        <v>1.004615083436149</v>
+      </c>
+      <c r="S28">
+        <v>0.9877083697913461</v>
+      </c>
+      <c r="T28">
+        <v>1.004615083436149</v>
+      </c>
+      <c r="U28">
+        <v>1.001333687333831</v>
+      </c>
+      <c r="V28">
+        <v>1.009508877859322</v>
+      </c>
+      <c r="W28">
+        <v>0.9991850210968333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.032422020880363</v>
+      </c>
+      <c r="D29">
+        <v>0.9985392986599309</v>
+      </c>
+      <c r="E29">
+        <v>1.003113109304583</v>
+      </c>
+      <c r="F29">
+        <v>0.9593123476737523</v>
+      </c>
+      <c r="G29">
+        <v>1.032422020880363</v>
+      </c>
+      <c r="H29">
+        <v>1.016578568357809</v>
+      </c>
+      <c r="I29">
+        <v>0.975940638798984</v>
+      </c>
+      <c r="J29">
+        <v>1.003113109304583</v>
+      </c>
+      <c r="K29">
+        <v>1.003113109304583</v>
+      </c>
+      <c r="L29">
+        <v>1.026444680428554</v>
+      </c>
+      <c r="M29">
+        <v>1.005845480703226</v>
+      </c>
+      <c r="N29">
+        <v>1.003113109304583</v>
+      </c>
+      <c r="O29">
+        <v>0.9593123476737523</v>
+      </c>
+      <c r="P29">
+        <v>0.9958671842770574</v>
+      </c>
+      <c r="Q29">
+        <v>0.9879454580157809</v>
+      </c>
+      <c r="R29">
+        <v>0.9982824926195658</v>
+      </c>
+      <c r="S29">
+        <v>1.002770978970641</v>
+      </c>
+      <c r="T29">
+        <v>0.998282492619566</v>
+      </c>
+      <c r="U29">
+        <v>1.002856511554127</v>
+      </c>
+      <c r="V29">
+        <v>1.002907831104218</v>
+      </c>
+      <c r="W29">
+        <v>1.0022745181009</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BrassA-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8880921062650746</v>
+        <v>0.9371448266166947</v>
       </c>
       <c r="D4">
-        <v>0.9642946877391725</v>
+        <v>1.000369910230428</v>
       </c>
       <c r="E4">
-        <v>1.111903151570726</v>
+        <v>1.005416249754673</v>
       </c>
       <c r="F4">
-        <v>1.008428523383737</v>
+        <v>1.040136119158087</v>
       </c>
       <c r="G4">
-        <v>0.8880921062650746</v>
+        <v>0.9371448266166947</v>
       </c>
       <c r="H4">
-        <v>0.9738916398082197</v>
+        <v>0.9855463490411658</v>
       </c>
       <c r="I4">
-        <v>1.040032586258667</v>
+        <v>1.027687816764532</v>
       </c>
       <c r="J4">
-        <v>1.111903151570726</v>
+        <v>1.005416249754673</v>
       </c>
       <c r="K4">
-        <v>1.111903151570726</v>
+        <v>1.005416249754673</v>
       </c>
       <c r="L4">
-        <v>0.9231070056802286</v>
+        <v>0.9610652455441091</v>
       </c>
       <c r="M4">
-        <v>1.039013245261073</v>
+        <v>1.003007981514168</v>
       </c>
       <c r="N4">
-        <v>1.111903151570726</v>
+        <v>1.005416249754673</v>
       </c>
       <c r="O4">
-        <v>1.008428523383737</v>
+        <v>1.040136119158087</v>
       </c>
       <c r="P4">
-        <v>0.9482603148244059</v>
+        <v>0.9886404728873908</v>
       </c>
       <c r="Q4">
-        <v>0.9911600815959785</v>
+        <v>1.012841234099626</v>
       </c>
       <c r="R4">
-        <v>1.002807927073179</v>
+        <v>0.9942323985098183</v>
       </c>
       <c r="S4">
-        <v>0.9568040898190104</v>
+        <v>0.9876090982719825</v>
       </c>
       <c r="T4">
-        <v>1.002807927073179</v>
+        <v>0.9942323985098184</v>
       </c>
       <c r="U4">
-        <v>0.9955788552569393</v>
+        <v>0.9920608861426552</v>
       </c>
       <c r="V4">
-        <v>1.018843714519697</v>
+        <v>0.9947319588650588</v>
       </c>
       <c r="W4">
-        <v>0.9935953682458623</v>
+        <v>0.9950468123279823</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9214744326945224</v>
+        <v>0.6020198843442415</v>
       </c>
       <c r="D5">
-        <v>0.9988131822550456</v>
+        <v>0.961523138601477</v>
       </c>
       <c r="E5">
-        <v>1.011278882269447</v>
+        <v>1.14787249576717</v>
       </c>
       <c r="F5">
-        <v>1.047829140165706</v>
+        <v>1.17021616720523</v>
       </c>
       <c r="G5">
-        <v>0.9214744326945224</v>
+        <v>0.6020198843442415</v>
       </c>
       <c r="H5">
-        <v>0.981664533443804</v>
+        <v>0.9158487791668299</v>
       </c>
       <c r="I5">
-        <v>1.034459843674352</v>
+        <v>1.157892921556712</v>
       </c>
       <c r="J5">
-        <v>1.011278882269447</v>
+        <v>1.14787249576717</v>
       </c>
       <c r="K5">
-        <v>1.011278882269447</v>
+        <v>1.14787249576717</v>
       </c>
       <c r="L5">
-        <v>0.9508181248775236</v>
+        <v>0.7502166113772195</v>
       </c>
       <c r="M5">
-        <v>1.005103490453891</v>
+        <v>1.061982663063161</v>
       </c>
       <c r="N5">
-        <v>1.011278882269447</v>
+        <v>1.14787249576717</v>
       </c>
       <c r="O5">
-        <v>1.047829140165706</v>
+        <v>1.17021616720523</v>
       </c>
       <c r="P5">
-        <v>0.9846517864301141</v>
+        <v>0.8861180257747355</v>
       </c>
       <c r="Q5">
-        <v>1.014746836804755</v>
+        <v>1.04303247318603</v>
       </c>
       <c r="R5">
-        <v>0.9935274850432251</v>
+        <v>0.9733695157722136</v>
       </c>
       <c r="S5">
-        <v>0.9836560354346774</v>
+        <v>0.8960282769054336</v>
       </c>
       <c r="T5">
-        <v>0.9935274850432253</v>
+        <v>0.9733695157722136</v>
       </c>
       <c r="U5">
-        <v>0.99056174714337</v>
+        <v>0.9589893316208677</v>
       </c>
       <c r="V5">
-        <v>0.9947051741685854</v>
+        <v>0.9967659644501282</v>
       </c>
       <c r="W5">
-        <v>0.9939302037292865</v>
+        <v>0.970946582635255</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.7301588266104773</v>
+        <v>0.8880921062650746</v>
       </c>
       <c r="D6">
-        <v>1.015266735301963</v>
+        <v>0.9642946877391725</v>
       </c>
       <c r="E6">
-        <v>0.9839865646031706</v>
+        <v>1.111903151570726</v>
       </c>
       <c r="F6">
-        <v>1.203614515155426</v>
+        <v>1.008428523383737</v>
       </c>
       <c r="G6">
-        <v>0.7301588266104773</v>
+        <v>0.8880921062650746</v>
       </c>
       <c r="H6">
-        <v>0.9341179136745849</v>
+        <v>0.9738916398082197</v>
       </c>
       <c r="I6">
-        <v>1.126390773849304</v>
+        <v>1.040032586258667</v>
       </c>
       <c r="J6">
-        <v>0.9839865646031706</v>
+        <v>1.111903151570726</v>
       </c>
       <c r="K6">
-        <v>0.9839865646031706</v>
+        <v>1.111903151570726</v>
       </c>
       <c r="L6">
-        <v>0.8328457147845224</v>
+        <v>0.9231070056802286</v>
       </c>
       <c r="M6">
-        <v>0.9975572017738493</v>
+        <v>1.039013245261073</v>
       </c>
       <c r="N6">
-        <v>0.9839865646031706</v>
+        <v>1.111903151570726</v>
       </c>
       <c r="O6">
-        <v>1.203614515155426</v>
+        <v>1.008428523383737</v>
       </c>
       <c r="P6">
-        <v>0.9668866708829515</v>
+        <v>0.9482603148244059</v>
       </c>
       <c r="Q6">
-        <v>1.068866214415005</v>
+        <v>0.9911600815959785</v>
       </c>
       <c r="R6">
-        <v>0.9725866354563579</v>
+        <v>1.002807927073179</v>
       </c>
       <c r="S6">
-        <v>0.955963751813496</v>
+        <v>0.9568040898190104</v>
       </c>
       <c r="T6">
-        <v>0.9725866354563579</v>
+        <v>1.002807927073179</v>
       </c>
       <c r="U6">
-        <v>0.9629694550109147</v>
+        <v>0.9955788552569393</v>
       </c>
       <c r="V6">
-        <v>0.9671728769293658</v>
+        <v>1.018843714519697</v>
       </c>
       <c r="W6">
-        <v>0.9779922807191622</v>
+        <v>0.9935953682458623</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9948731642185173</v>
+        <v>0.9214744326945224</v>
       </c>
       <c r="D7">
-        <v>0.9970387062094919</v>
+        <v>0.9988131822550456</v>
       </c>
       <c r="E7">
-        <v>1.008701996484606</v>
+        <v>1.011278882269447</v>
       </c>
       <c r="F7">
-        <v>0.9988118913825212</v>
+        <v>1.047829140165706</v>
       </c>
       <c r="G7">
-        <v>0.9948731642185173</v>
+        <v>0.9214744326945224</v>
       </c>
       <c r="H7">
-        <v>0.9984385575879962</v>
+        <v>0.981664533443804</v>
       </c>
       <c r="I7">
-        <v>1.001880427344801</v>
+        <v>1.034459843674352</v>
       </c>
       <c r="J7">
-        <v>1.008701996484606</v>
+        <v>1.011278882269447</v>
       </c>
       <c r="K7">
-        <v>1.008701996484606</v>
+        <v>1.011278882269447</v>
       </c>
       <c r="L7">
-        <v>0.9959383110160175</v>
+        <v>0.9508181248775236</v>
       </c>
       <c r="M7">
-        <v>1.002771859119746</v>
+        <v>1.005103490453891</v>
       </c>
       <c r="N7">
-        <v>1.008701996484606</v>
+        <v>1.011278882269447</v>
       </c>
       <c r="O7">
-        <v>0.9988118913825212</v>
+        <v>1.047829140165706</v>
       </c>
       <c r="P7">
-        <v>0.9968425278005193</v>
+        <v>0.9846517864301141</v>
       </c>
       <c r="Q7">
-        <v>0.9986252244852587</v>
+        <v>1.014746836804755</v>
       </c>
       <c r="R7">
-        <v>1.000795684028548</v>
+        <v>0.9935274850432251</v>
       </c>
       <c r="S7">
-        <v>0.9973745377296783</v>
+        <v>0.9836560354346774</v>
       </c>
       <c r="T7">
-        <v>1.000795684028548</v>
+        <v>0.9935274850432253</v>
       </c>
       <c r="U7">
-        <v>1.00020640241841</v>
+        <v>0.99056174714337</v>
       </c>
       <c r="V7">
-        <v>1.001905521231649</v>
+        <v>0.9947051741685854</v>
       </c>
       <c r="W7">
-        <v>0.9998068641704621</v>
+        <v>0.9939302037292865</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9989708978577974</v>
+        <v>0.7301588266104773</v>
       </c>
       <c r="D8">
-        <v>1.000236342825352</v>
+        <v>1.015266735301963</v>
       </c>
       <c r="E8">
-        <v>0.9994486315997463</v>
+        <v>0.9839865646031706</v>
       </c>
       <c r="F8">
-        <v>1.000891420316042</v>
+        <v>1.203614515155426</v>
       </c>
       <c r="G8">
-        <v>0.9989708978577974</v>
+        <v>0.7301588266104773</v>
       </c>
       <c r="H8">
-        <v>0.9998553487761737</v>
+        <v>0.9341179136745849</v>
       </c>
       <c r="I8">
-        <v>1.000424222176317</v>
+        <v>1.126390773849304</v>
       </c>
       <c r="J8">
-        <v>0.9994486315997463</v>
+        <v>0.9839865646031706</v>
       </c>
       <c r="K8">
-        <v>0.9994486315997463</v>
+        <v>0.9839865646031706</v>
       </c>
       <c r="L8">
-        <v>0.999473543576913</v>
+        <v>0.8328457147845224</v>
       </c>
       <c r="M8">
-        <v>0.9998964238480799</v>
+        <v>0.9975572017738493</v>
       </c>
       <c r="N8">
-        <v>0.9994486315997463</v>
+        <v>0.9839865646031706</v>
       </c>
       <c r="O8">
-        <v>1.000891420316042</v>
+        <v>1.203614515155426</v>
       </c>
       <c r="P8">
-        <v>0.9999311590869197</v>
+        <v>0.9668866708829515</v>
       </c>
       <c r="Q8">
-        <v>1.000373384546108</v>
+        <v>1.068866214415005</v>
       </c>
       <c r="R8">
-        <v>0.9997703165911952</v>
+        <v>0.9725866354563579</v>
       </c>
       <c r="S8">
-        <v>0.9999058889833377</v>
+        <v>0.955963751813496</v>
       </c>
       <c r="T8">
-        <v>0.9997703165911952</v>
+        <v>0.9725866354563579</v>
       </c>
       <c r="U8">
-        <v>0.9997915746374397</v>
+        <v>0.9629694550109147</v>
       </c>
       <c r="V8">
-        <v>0.999722986029901</v>
+        <v>0.9671728769293658</v>
       </c>
       <c r="W8">
-        <v>0.9998996038720527</v>
+        <v>0.9779922807191622</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9934589665563499</v>
+        <v>0.9948731642185173</v>
       </c>
       <c r="D9">
-        <v>0.9950967011152565</v>
+        <v>0.9970387062094919</v>
       </c>
       <c r="E9">
-        <v>1.014179771657182</v>
+        <v>1.008701996484606</v>
       </c>
       <c r="F9">
-        <v>0.9972516214398184</v>
+        <v>0.9988118913825212</v>
       </c>
       <c r="G9">
-        <v>0.9934589665563499</v>
+        <v>0.9948731642185173</v>
       </c>
       <c r="H9">
-        <v>0.9976248795993053</v>
+        <v>0.9984385575879962</v>
       </c>
       <c r="I9">
-        <v>1.002494120428265</v>
+        <v>1.001880427344801</v>
       </c>
       <c r="J9">
-        <v>1.014179771657182</v>
+        <v>1.008701996484606</v>
       </c>
       <c r="K9">
-        <v>1.014179771657182</v>
+        <v>1.008701996484606</v>
       </c>
       <c r="L9">
-        <v>0.9943153237397316</v>
+        <v>0.9959383110160175</v>
       </c>
       <c r="M9">
-        <v>1.004325359557431</v>
+        <v>1.002771859119746</v>
       </c>
       <c r="N9">
-        <v>1.014179771657182</v>
+        <v>1.008701996484606</v>
       </c>
       <c r="O9">
-        <v>0.9972516214398184</v>
+        <v>0.9988118913825212</v>
       </c>
       <c r="P9">
-        <v>0.9953552939980841</v>
+        <v>0.9968425278005193</v>
       </c>
       <c r="Q9">
-        <v>0.9974382505195618</v>
+        <v>0.9986252244852587</v>
       </c>
       <c r="R9">
-        <v>1.00163011988445</v>
+        <v>1.000795684028548</v>
       </c>
       <c r="S9">
-        <v>0.9961118225318245</v>
+        <v>0.9973745377296783</v>
       </c>
       <c r="T9">
-        <v>1.00163011988445</v>
+        <v>1.000795684028548</v>
       </c>
       <c r="U9">
-        <v>1.000628809813164</v>
+        <v>1.00020640241841</v>
       </c>
       <c r="V9">
-        <v>1.003339002181967</v>
+        <v>1.001905521231649</v>
       </c>
       <c r="W9">
-        <v>0.9998433430116676</v>
+        <v>0.9998068641704621</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7256423419997844</v>
+        <v>0.9989708978577974</v>
       </c>
       <c r="D10">
-        <v>1.016267994470126</v>
+        <v>1.000236342825352</v>
       </c>
       <c r="E10">
-        <v>0.9814763546065083</v>
+        <v>0.9994486315997463</v>
       </c>
       <c r="F10">
-        <v>1.209485962696061</v>
+        <v>1.000891420316042</v>
       </c>
       <c r="G10">
-        <v>0.7256423419997844</v>
+        <v>0.9989708978577974</v>
       </c>
       <c r="H10">
-        <v>0.9324183494873959</v>
+        <v>0.9998553487761737</v>
       </c>
       <c r="I10">
-        <v>1.129318715476425</v>
+        <v>1.000424222176317</v>
       </c>
       <c r="J10">
-        <v>0.9814763546065083</v>
+        <v>0.9994486315997463</v>
       </c>
       <c r="K10">
-        <v>0.9814763546065083</v>
+        <v>0.9994486315997463</v>
       </c>
       <c r="L10">
-        <v>0.829766033700153</v>
+        <v>0.999473543576913</v>
       </c>
       <c r="M10">
-        <v>0.9964148179973068</v>
+        <v>0.9998964238480799</v>
       </c>
       <c r="N10">
-        <v>0.9814763546065083</v>
+        <v>0.9994486315997463</v>
       </c>
       <c r="O10">
-        <v>1.209485962696061</v>
+        <v>1.000891420316042</v>
       </c>
       <c r="P10">
-        <v>0.9675641523479228</v>
+        <v>0.9999311590869197</v>
       </c>
       <c r="Q10">
-        <v>1.070952156091729</v>
+        <v>1.000373384546108</v>
       </c>
       <c r="R10">
-        <v>0.9722015531007847</v>
+        <v>0.9997703165911952</v>
       </c>
       <c r="S10">
-        <v>0.9558488847277472</v>
+        <v>0.9999058889833377</v>
       </c>
       <c r="T10">
-        <v>0.9722015531007845</v>
+        <v>0.9997703165911952</v>
       </c>
       <c r="U10">
-        <v>0.9622557521974373</v>
+        <v>0.9997915746374397</v>
       </c>
       <c r="V10">
-        <v>0.9660998726792516</v>
+        <v>0.999722986029901</v>
       </c>
       <c r="W10">
-        <v>0.9775988213042199</v>
+        <v>0.9998996038720527</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8907254994678725</v>
+        <v>0.9934589665563499</v>
       </c>
       <c r="D11">
-        <v>0.96272374985784</v>
+        <v>0.9950967011152565</v>
       </c>
       <c r="E11">
-        <v>1.115845482559966</v>
+        <v>1.014179771657182</v>
       </c>
       <c r="F11">
-        <v>1.005226868848298</v>
+        <v>0.9972516214398184</v>
       </c>
       <c r="G11">
-        <v>0.8907254994678725</v>
+        <v>0.9934589665563499</v>
       </c>
       <c r="H11">
-        <v>0.9738945700820307</v>
+        <v>0.9976248795993053</v>
       </c>
       <c r="I11">
-        <v>1.039101111145922</v>
+        <v>1.002494120428265</v>
       </c>
       <c r="J11">
-        <v>1.115845482559966</v>
+        <v>1.014179771657182</v>
       </c>
       <c r="K11">
-        <v>1.115845482559966</v>
+        <v>1.014179771657182</v>
       </c>
       <c r="L11">
-        <v>0.9239819219067562</v>
+        <v>0.9943153237397316</v>
       </c>
       <c r="M11">
-        <v>1.039924939306299</v>
+        <v>1.004325359557431</v>
       </c>
       <c r="N11">
-        <v>1.115845482559966</v>
+        <v>1.014179771657182</v>
       </c>
       <c r="O11">
-        <v>1.005226868848298</v>
+        <v>0.9972516214398184</v>
       </c>
       <c r="P11">
-        <v>0.9479761841580852</v>
+        <v>0.9953552939980841</v>
       </c>
       <c r="Q11">
-        <v>0.9895607194651642</v>
+        <v>0.9974382505195618</v>
       </c>
       <c r="R11">
-        <v>1.003932616958712</v>
+        <v>1.00163011988445</v>
       </c>
       <c r="S11">
-        <v>0.9566156461327336</v>
+        <v>0.9961118225318245</v>
       </c>
       <c r="T11">
-        <v>1.003932616958712</v>
+        <v>1.00163011988445</v>
       </c>
       <c r="U11">
-        <v>0.9964231052395418</v>
+        <v>1.000628809813164</v>
       </c>
       <c r="V11">
-        <v>1.020307580703627</v>
+        <v>1.003339002181967</v>
       </c>
       <c r="W11">
-        <v>0.993928017896873</v>
+        <v>0.9998433430116676</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9125188189263169</v>
+        <v>0.7256423419997844</v>
       </c>
       <c r="D12">
-        <v>1.004819204242106</v>
+        <v>1.016267994470126</v>
       </c>
       <c r="E12">
-        <v>0.9951644499578921</v>
+        <v>0.9814763546065083</v>
       </c>
       <c r="F12">
-        <v>1.065539158789472</v>
+        <v>1.209485962696061</v>
       </c>
       <c r="G12">
-        <v>0.9125188189263169</v>
+        <v>0.7256423419997844</v>
       </c>
       <c r="H12">
-        <v>0.9787812058105242</v>
+        <v>0.9324183494873959</v>
       </c>
       <c r="I12">
-        <v>1.040810990000002</v>
+        <v>1.129318715476425</v>
       </c>
       <c r="J12">
-        <v>0.9951644499578921</v>
+        <v>0.9814763546065083</v>
       </c>
       <c r="K12">
-        <v>0.9951644499578921</v>
+        <v>0.9814763546065083</v>
       </c>
       <c r="L12">
-        <v>0.9458788218631589</v>
+        <v>0.829766033700153</v>
       </c>
       <c r="M12">
-        <v>0.9994225963684207</v>
+        <v>0.9964148179973068</v>
       </c>
       <c r="N12">
-        <v>0.9951644499578921</v>
+        <v>0.9814763546065083</v>
       </c>
       <c r="O12">
-        <v>1.065539158789472</v>
+        <v>1.209485962696061</v>
       </c>
       <c r="P12">
-        <v>0.9890289888578946</v>
+        <v>0.9675641523479228</v>
       </c>
       <c r="Q12">
-        <v>1.022160182299998</v>
+        <v>1.070952156091729</v>
       </c>
       <c r="R12">
-        <v>0.9910741425578937</v>
+        <v>0.9722015531007847</v>
       </c>
       <c r="S12">
-        <v>0.9856130611754378</v>
+        <v>0.9558488847277472</v>
       </c>
       <c r="T12">
-        <v>0.9910741425578937</v>
+        <v>0.9722015531007845</v>
       </c>
       <c r="U12">
-        <v>0.9880009083710514</v>
+        <v>0.9622557521974373</v>
       </c>
       <c r="V12">
-        <v>0.9894336166884194</v>
+        <v>0.9660998726792516</v>
       </c>
       <c r="W12">
-        <v>0.9928669057447368</v>
+        <v>0.9775988213042199</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.045503332501224</v>
+        <v>0.8907254994678725</v>
       </c>
       <c r="D13">
-        <v>1.00519395959045</v>
+        <v>0.96272374985784</v>
       </c>
       <c r="E13">
-        <v>0.9801703173122603</v>
+        <v>1.115845482559966</v>
       </c>
       <c r="F13">
-        <v>0.9850030934794353</v>
+        <v>1.005226868848298</v>
       </c>
       <c r="G13">
-        <v>1.045503332501224</v>
+        <v>0.8907254994678725</v>
       </c>
       <c r="H13">
-        <v>1.008141919643856</v>
+        <v>0.9738945700820307</v>
       </c>
       <c r="I13">
-        <v>0.9837887123882121</v>
+        <v>1.039101111145922</v>
       </c>
       <c r="J13">
-        <v>0.9801703173122603</v>
+        <v>1.115845482559966</v>
       </c>
       <c r="K13">
-        <v>0.9801703173122603</v>
+        <v>1.115845482559966</v>
       </c>
       <c r="L13">
-        <v>1.027606730113264</v>
+        <v>0.9239819219067562</v>
       </c>
       <c r="M13">
-        <v>0.9911503881519141</v>
+        <v>1.039924939306299</v>
       </c>
       <c r="N13">
-        <v>0.9801703173122603</v>
+        <v>1.115845482559966</v>
       </c>
       <c r="O13">
-        <v>0.9850030934794353</v>
+        <v>1.005226868848298</v>
       </c>
       <c r="P13">
-        <v>1.01525321299033</v>
+        <v>0.9479761841580852</v>
       </c>
       <c r="Q13">
-        <v>0.9965725065616458</v>
+        <v>0.9895607194651642</v>
       </c>
       <c r="R13">
-        <v>1.003558914430973</v>
+        <v>1.003932616958712</v>
       </c>
       <c r="S13">
-        <v>1.012882781874838</v>
+        <v>0.9566156461327336</v>
       </c>
       <c r="T13">
-        <v>1.003558914430973</v>
+        <v>1.003932616958712</v>
       </c>
       <c r="U13">
-        <v>1.004704665734194</v>
+        <v>0.9964231052395418</v>
       </c>
       <c r="V13">
-        <v>0.9997977960498071</v>
+        <v>1.020307580703627</v>
       </c>
       <c r="W13">
-        <v>1.003319806647577</v>
+        <v>0.993928017896873</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.5229061699999994</v>
+        <v>0.9125188189263169</v>
       </c>
       <c r="D14">
-        <v>1.030420399999999</v>
+        <v>1.004819204242106</v>
       </c>
       <c r="E14">
-        <v>0.9618347199999993</v>
+        <v>0.9951644499578921</v>
       </c>
       <c r="F14">
-        <v>1.367955899999999</v>
+        <v>1.065539158789472</v>
       </c>
       <c r="G14">
-        <v>0.5229061699999994</v>
+        <v>0.9125188189263169</v>
       </c>
       <c r="H14">
-        <v>0.8825002800000008</v>
+        <v>0.9787812058105242</v>
       </c>
       <c r="I14">
-        <v>1.225409299999999</v>
+        <v>1.040810990000002</v>
       </c>
       <c r="J14">
-        <v>0.9618347199999993</v>
+        <v>0.9951644499578921</v>
       </c>
       <c r="K14">
-        <v>0.9618347199999993</v>
+        <v>0.9951644499578921</v>
       </c>
       <c r="L14">
-        <v>0.7044202900000011</v>
+        <v>0.9458788218631589</v>
       </c>
       <c r="M14">
-        <v>0.9917943100000015</v>
+        <v>0.9994225963684207</v>
       </c>
       <c r="N14">
-        <v>0.9618347199999993</v>
+        <v>0.9951644499578921</v>
       </c>
       <c r="O14">
-        <v>1.367955899999999</v>
+        <v>1.065539158789472</v>
       </c>
       <c r="P14">
-        <v>0.9454310349999993</v>
+        <v>0.9890289888578946</v>
       </c>
       <c r="Q14">
-        <v>1.12522809</v>
+        <v>1.022160182299998</v>
       </c>
       <c r="R14">
-        <v>0.9508989299999993</v>
+        <v>0.9910741425578937</v>
       </c>
       <c r="S14">
-        <v>0.9244541166666664</v>
+        <v>0.9856130611754378</v>
       </c>
       <c r="T14">
-        <v>0.9508989299999993</v>
+        <v>0.9910741425578937</v>
       </c>
       <c r="U14">
-        <v>0.9337992674999996</v>
+        <v>0.9880009083710514</v>
       </c>
       <c r="V14">
-        <v>0.9394063579999996</v>
+        <v>0.9894336166884194</v>
       </c>
       <c r="W14">
-        <v>0.9609051712499999</v>
+        <v>0.9928669057447368</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.67342322</v>
+        <v>1.045503332501224</v>
       </c>
       <c r="D15">
-        <v>0.8993632599999999</v>
+        <v>1.00519395959045</v>
       </c>
       <c r="E15">
-        <v>1.3157154</v>
+        <v>0.9801703173122603</v>
       </c>
       <c r="F15">
-        <v>0.9917924599999999</v>
+        <v>0.9850030934794353</v>
       </c>
       <c r="G15">
-        <v>0.67342322</v>
+        <v>1.045503332501224</v>
       </c>
       <c r="H15">
-        <v>0.94594448</v>
+        <v>1.008141919643856</v>
       </c>
       <c r="I15">
-        <v>1.0969651</v>
+        <v>0.9837887123882121</v>
       </c>
       <c r="J15">
-        <v>1.3157154</v>
+        <v>0.9801703173122603</v>
       </c>
       <c r="K15">
-        <v>1.3157154</v>
+        <v>0.9801703173122603</v>
       </c>
       <c r="L15">
-        <v>0.79155237</v>
+        <v>1.027606730113264</v>
       </c>
       <c r="M15">
-        <v>1.1253076</v>
+        <v>0.9911503881519141</v>
       </c>
       <c r="N15">
-        <v>1.3157154</v>
+        <v>0.9801703173122603</v>
       </c>
       <c r="O15">
-        <v>0.9917924599999999</v>
+        <v>0.9850030934794353</v>
       </c>
       <c r="P15">
-        <v>0.8326078399999999</v>
+        <v>1.01525321299033</v>
       </c>
       <c r="Q15">
-        <v>0.9688684699999999</v>
+        <v>0.9965725065616458</v>
       </c>
       <c r="R15">
-        <v>0.9936436933333331</v>
+        <v>1.003558914430973</v>
       </c>
       <c r="S15">
-        <v>0.8703867199999999</v>
+        <v>1.012882781874838</v>
       </c>
       <c r="T15">
-        <v>0.9936436933333331</v>
+        <v>1.003558914430973</v>
       </c>
       <c r="U15">
-        <v>0.9817188899999999</v>
+        <v>1.004704665734194</v>
       </c>
       <c r="V15">
-        <v>1.048518192</v>
+        <v>0.9997977960498071</v>
       </c>
       <c r="W15">
-        <v>0.98000798625</v>
+        <v>1.003319806647577</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.25020352</v>
+        <v>0.5229061699999994</v>
       </c>
       <c r="D16">
-        <v>0.69115297</v>
+        <v>1.030420399999999</v>
       </c>
       <c r="E16">
-        <v>1.9473815</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="F16">
-        <v>0.9618347200000001</v>
+        <v>1.367955899999999</v>
       </c>
       <c r="G16">
-        <v>0.25020352</v>
+        <v>0.5229061699999994</v>
       </c>
       <c r="H16">
-        <v>0.80914508</v>
+        <v>0.8825002800000008</v>
       </c>
       <c r="I16">
-        <v>1.2643698</v>
+        <v>1.225409299999999</v>
       </c>
       <c r="J16">
-        <v>1.9473815</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="K16">
-        <v>1.9473815</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="L16">
-        <v>0.46000639</v>
+        <v>0.7044202900000011</v>
       </c>
       <c r="M16">
-        <v>1.3157358</v>
+        <v>0.9917943100000015</v>
       </c>
       <c r="N16">
-        <v>1.9473815</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="O16">
-        <v>0.9618347200000001</v>
+        <v>1.367955899999999</v>
       </c>
       <c r="P16">
-        <v>0.60601912</v>
+        <v>0.9454310349999993</v>
       </c>
       <c r="Q16">
-        <v>0.8854899000000001</v>
+        <v>1.12522809</v>
       </c>
       <c r="R16">
-        <v>1.053139913333333</v>
+        <v>0.9508989299999993</v>
       </c>
       <c r="S16">
-        <v>0.6737277733333333</v>
+        <v>0.9244541166666664</v>
       </c>
       <c r="T16">
-        <v>1.053139913333333</v>
+        <v>0.9508989299999993</v>
       </c>
       <c r="U16">
-        <v>0.992141205</v>
+        <v>0.9337992674999996</v>
       </c>
       <c r="V16">
-        <v>1.183189264</v>
+        <v>0.9394063579999996</v>
       </c>
       <c r="W16">
-        <v>0.9624787225</v>
+        <v>0.9609051712499999</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.89934794</v>
+        <v>0.67342322</v>
       </c>
       <c r="D17">
-        <v>1.0439295</v>
+        <v>0.8993632599999999</v>
       </c>
       <c r="E17">
-        <v>0.8927209</v>
+        <v>1.3157154</v>
       </c>
       <c r="F17">
-        <v>1.1081094</v>
+        <v>0.9917924599999999</v>
       </c>
       <c r="G17">
-        <v>0.89934794</v>
+        <v>0.67342322</v>
       </c>
       <c r="H17">
-        <v>0.99274062</v>
+        <v>0.94594448</v>
       </c>
       <c r="I17">
-        <v>1.0387629</v>
+        <v>1.0969651</v>
       </c>
       <c r="J17">
-        <v>0.8927209</v>
+        <v>1.3157154</v>
       </c>
       <c r="K17">
-        <v>0.8927209</v>
+        <v>1.3157154</v>
       </c>
       <c r="L17">
-        <v>0.9581243399999999</v>
+        <v>0.79155237</v>
       </c>
       <c r="M17">
-        <v>0.97530866</v>
+        <v>1.1253076</v>
       </c>
       <c r="N17">
-        <v>0.8927209</v>
+        <v>1.3157154</v>
       </c>
       <c r="O17">
-        <v>1.1081094</v>
+        <v>0.9917924599999999</v>
       </c>
       <c r="P17">
-        <v>1.00372867</v>
+        <v>0.8326078399999999</v>
       </c>
       <c r="Q17">
-        <v>1.05042501</v>
+        <v>0.9688684699999999</v>
       </c>
       <c r="R17">
-        <v>0.96672608</v>
+        <v>0.9936436933333331</v>
       </c>
       <c r="S17">
-        <v>1.000065986666667</v>
+        <v>0.8703867199999999</v>
       </c>
       <c r="T17">
-        <v>0.9667260799999999</v>
+        <v>0.9936436933333331</v>
       </c>
       <c r="U17">
-        <v>0.973229715</v>
+        <v>0.9817188899999999</v>
       </c>
       <c r="V17">
-        <v>0.9571279520000001</v>
+        <v>1.048518192</v>
       </c>
       <c r="W17">
-        <v>0.9886305325</v>
+        <v>0.98000798625</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9238765569863013</v>
+        <v>0.25020352</v>
       </c>
       <c r="D18">
-        <v>0.9369357084931504</v>
+        <v>0.69115297</v>
       </c>
       <c r="E18">
-        <v>1.181735933150685</v>
+        <v>1.9473815</v>
       </c>
       <c r="F18">
-        <v>0.957895372328767</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="G18">
-        <v>0.9238765569863013</v>
+        <v>0.25020352</v>
       </c>
       <c r="H18">
-        <v>0.9721952761643835</v>
+        <v>0.80914508</v>
       </c>
       <c r="I18">
-        <v>1.027646218356165</v>
+        <v>1.2643698</v>
       </c>
       <c r="J18">
-        <v>1.181735933150685</v>
+        <v>1.9473815</v>
       </c>
       <c r="K18">
-        <v>1.181735933150685</v>
+        <v>1.9473815</v>
       </c>
       <c r="L18">
-        <v>0.9325023146575344</v>
+        <v>0.46000639</v>
       </c>
       <c r="M18">
-        <v>1.055816486575343</v>
+        <v>1.3157358</v>
       </c>
       <c r="N18">
-        <v>1.181735933150685</v>
+        <v>1.9473815</v>
       </c>
       <c r="O18">
-        <v>0.957895372328767</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="P18">
-        <v>0.9408859646575342</v>
+        <v>0.60601912</v>
       </c>
       <c r="Q18">
-        <v>0.9650453242465753</v>
+        <v>0.8854899000000001</v>
       </c>
       <c r="R18">
-        <v>1.021169287488584</v>
+        <v>1.053139913333333</v>
       </c>
       <c r="S18">
-        <v>0.951322401826484</v>
+        <v>0.6737277733333333</v>
       </c>
       <c r="T18">
-        <v>1.021169287488584</v>
+        <v>1.053139913333333</v>
       </c>
       <c r="U18">
-        <v>1.008925784657534</v>
+        <v>0.992141205</v>
       </c>
       <c r="V18">
-        <v>1.043487814356164</v>
+        <v>1.183189264</v>
       </c>
       <c r="W18">
-        <v>0.998575483339041</v>
+        <v>0.9624787225</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8205333647368421</v>
+        <v>0.89934794</v>
       </c>
       <c r="D19">
-        <v>0.9794678147368421</v>
+        <v>1.0439295</v>
       </c>
       <c r="E19">
-        <v>1.079395177368421</v>
+        <v>0.8927209</v>
       </c>
       <c r="F19">
-        <v>1.060639613157895</v>
+        <v>1.1081094</v>
       </c>
       <c r="G19">
-        <v>0.8205333647368421</v>
+        <v>0.89934794</v>
       </c>
       <c r="H19">
-        <v>0.9666401105263158</v>
+        <v>0.99274062</v>
       </c>
       <c r="I19">
-        <v>1.064772026842105</v>
+        <v>1.0387629</v>
       </c>
       <c r="J19">
-        <v>1.079395177368421</v>
+        <v>0.8927209</v>
       </c>
       <c r="K19">
-        <v>1.079395177368421</v>
+        <v>0.8927209</v>
       </c>
       <c r="L19">
-        <v>0.8903777200000003</v>
+        <v>0.9581243399999999</v>
       </c>
       <c r="M19">
-        <v>1.034160047894737</v>
+        <v>0.97530866</v>
       </c>
       <c r="N19">
-        <v>1.079395177368421</v>
+        <v>0.8927209</v>
       </c>
       <c r="O19">
-        <v>1.060639613157895</v>
+        <v>1.1081094</v>
       </c>
       <c r="P19">
-        <v>0.9405864889473683</v>
+        <v>1.00372867</v>
       </c>
       <c r="Q19">
-        <v>1.013639861842105</v>
+        <v>1.05042501</v>
       </c>
       <c r="R19">
-        <v>0.9868560517543857</v>
+        <v>0.96672608</v>
       </c>
       <c r="S19">
-        <v>0.949271029473684</v>
+        <v>1.000065986666667</v>
       </c>
       <c r="T19">
-        <v>0.9868560517543857</v>
+        <v>0.9667260799999999</v>
       </c>
       <c r="U19">
-        <v>0.9818020664473683</v>
+        <v>0.973229715</v>
       </c>
       <c r="V19">
-        <v>1.001320688631579</v>
+        <v>0.9571279520000001</v>
       </c>
       <c r="W19">
-        <v>0.9869982344078947</v>
+        <v>0.9886305325</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.5981558321052631</v>
+        <v>0.9238765569863013</v>
       </c>
       <c r="D20">
-        <v>0.9648886836842105</v>
+        <v>0.9369357084931504</v>
       </c>
       <c r="E20">
-        <v>1.138784727894737</v>
+        <v>1.181735933150685</v>
       </c>
       <c r="F20">
-        <v>1.179875067894737</v>
+        <v>0.957895372328767</v>
       </c>
       <c r="G20">
-        <v>0.5981558321052631</v>
+        <v>0.9238765569863013</v>
       </c>
       <c r="H20">
-        <v>0.9142199231578948</v>
+        <v>0.9721952761643835</v>
       </c>
       <c r="I20">
-        <v>1.161190721052632</v>
+        <v>1.027646218356165</v>
       </c>
       <c r="J20">
-        <v>1.138784727894737</v>
+        <v>1.181735933150685</v>
       </c>
       <c r="K20">
-        <v>1.138784727894737</v>
+        <v>1.181735933150685</v>
       </c>
       <c r="L20">
-        <v>0.7479798968421052</v>
+        <v>0.9325023146575344</v>
       </c>
       <c r="M20">
-        <v>1.058554053684211</v>
+        <v>1.055816486575343</v>
       </c>
       <c r="N20">
-        <v>1.138784727894737</v>
+        <v>1.181735933150685</v>
       </c>
       <c r="O20">
-        <v>1.179875067894737</v>
+        <v>0.957895372328767</v>
       </c>
       <c r="P20">
-        <v>0.8890154499999999</v>
+        <v>0.9408859646575342</v>
       </c>
       <c r="Q20">
-        <v>1.047047495526316</v>
+        <v>0.9650453242465753</v>
       </c>
       <c r="R20">
-        <v>0.9722718759649123</v>
+        <v>1.021169287488584</v>
       </c>
       <c r="S20">
-        <v>0.8974169410526316</v>
+        <v>0.951322401826484</v>
       </c>
       <c r="T20">
-        <v>0.9722718759649123</v>
+        <v>1.021169287488584</v>
       </c>
       <c r="U20">
-        <v>0.9577588877631579</v>
+        <v>1.008925784657534</v>
       </c>
       <c r="V20">
-        <v>0.9939640557894738</v>
+        <v>1.043487814356164</v>
       </c>
       <c r="W20">
-        <v>0.9704561132894738</v>
+        <v>0.998575483339041</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.274525819602066</v>
+        <v>0.8205333647368421</v>
       </c>
       <c r="D21">
-        <v>1.0556921547135</v>
+        <v>0.9794678147368421</v>
       </c>
       <c r="E21">
-        <v>0.8167524683051485</v>
+        <v>1.079395177368421</v>
       </c>
       <c r="F21">
-        <v>0.9166065752138568</v>
+        <v>1.060639613157895</v>
       </c>
       <c r="G21">
-        <v>1.274525819602066</v>
+        <v>0.8205333647368421</v>
       </c>
       <c r="H21">
-        <v>1.067328978838221</v>
+        <v>0.9666401105263158</v>
       </c>
       <c r="I21">
-        <v>0.889725005151477</v>
+        <v>1.064772026842105</v>
       </c>
       <c r="J21">
-        <v>0.8167524683051485</v>
+        <v>1.079395177368421</v>
       </c>
       <c r="K21">
-        <v>0.8167524683051485</v>
+        <v>1.079395177368421</v>
       </c>
       <c r="L21">
-        <v>1.184685975631371</v>
+        <v>0.8903777200000003</v>
       </c>
       <c r="M21">
-        <v>0.9363073158876608</v>
+        <v>1.034160047894737</v>
       </c>
       <c r="N21">
-        <v>0.8167524683051485</v>
+        <v>1.079395177368421</v>
       </c>
       <c r="O21">
-        <v>0.9166065752138568</v>
+        <v>1.060639613157895</v>
       </c>
       <c r="P21">
-        <v>1.095566197407962</v>
+        <v>0.9405864889473683</v>
       </c>
       <c r="Q21">
-        <v>0.9919677770260389</v>
+        <v>1.013639861842105</v>
       </c>
       <c r="R21">
-        <v>1.002628287707024</v>
+        <v>0.9868560517543857</v>
       </c>
       <c r="S21">
-        <v>1.086153791218048</v>
+        <v>0.949271029473684</v>
       </c>
       <c r="T21">
-        <v>1.002628287707024</v>
+        <v>0.9868560517543857</v>
       </c>
       <c r="U21">
-        <v>1.018803460489823</v>
+        <v>0.9818020664473683</v>
       </c>
       <c r="V21">
-        <v>0.9783932620528883</v>
+        <v>1.001320688631579</v>
       </c>
       <c r="W21">
-        <v>1.017703036667913</v>
+        <v>0.9869982344078947</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.086263935413478</v>
+        <v>0.5981558321052631</v>
       </c>
       <c r="D22">
-        <v>1.013684794133076</v>
+        <v>0.9648886836842105</v>
       </c>
       <c r="E22">
-        <v>0.9502127844330988</v>
+        <v>1.138784727894737</v>
       </c>
       <c r="F22">
-        <v>0.9923458013234966</v>
+        <v>1.179875067894737</v>
       </c>
       <c r="G22">
-        <v>1.086263935413478</v>
+        <v>0.5981558321052631</v>
       </c>
       <c r="H22">
-        <v>1.008060594746041</v>
+        <v>0.9142199231578948</v>
       </c>
       <c r="I22">
-        <v>0.9777567528305007</v>
+        <v>1.161190721052632</v>
       </c>
       <c r="J22">
-        <v>0.9502127844330988</v>
+        <v>1.138784727894737</v>
       </c>
       <c r="K22">
-        <v>0.9502127844330988</v>
+        <v>1.138784727894737</v>
       </c>
       <c r="L22">
-        <v>1.04782111932408</v>
+        <v>0.7479798968421052</v>
       </c>
       <c r="M22">
-        <v>0.9746441528022979</v>
+        <v>1.058554053684211</v>
       </c>
       <c r="N22">
-        <v>0.9502127844330988</v>
+        <v>1.138784727894737</v>
       </c>
       <c r="O22">
-        <v>0.9923458013234966</v>
+        <v>1.179875067894737</v>
       </c>
       <c r="P22">
-        <v>1.039304868368487</v>
+        <v>0.8890154499999999</v>
       </c>
       <c r="Q22">
-        <v>1.000203198034769</v>
+        <v>1.047047495526316</v>
       </c>
       <c r="R22">
-        <v>1.009607507056691</v>
+        <v>0.9722718759649123</v>
       </c>
       <c r="S22">
-        <v>1.028890110494338</v>
+        <v>0.8974169410526316</v>
       </c>
       <c r="T22">
-        <v>1.009607507056691</v>
+        <v>0.9722718759649123</v>
       </c>
       <c r="U22">
-        <v>1.009220778979029</v>
+        <v>0.9577588877631579</v>
       </c>
       <c r="V22">
-        <v>0.9974191800698426</v>
+        <v>0.9939640557894738</v>
       </c>
       <c r="W22">
-        <v>1.006348741875759</v>
+        <v>0.9704561132894738</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.157636738154069</v>
+        <v>1.274525819602066</v>
       </c>
       <c r="D23">
-        <v>0.974864289375493</v>
+        <v>1.0556921547135</v>
       </c>
       <c r="E23">
-        <v>1.051388670160163</v>
+        <v>0.8167524683051485</v>
       </c>
       <c r="F23">
-        <v>0.8811496961509875</v>
+        <v>0.9166065752138568</v>
       </c>
       <c r="G23">
-        <v>1.157636738154069</v>
+        <v>1.274525819602066</v>
       </c>
       <c r="H23">
-        <v>1.023781856586572</v>
+        <v>1.067328978838221</v>
       </c>
       <c r="I23">
-        <v>0.9370300531303986</v>
+        <v>0.889725005151477</v>
       </c>
       <c r="J23">
-        <v>1.051388670160163</v>
+        <v>0.8167524683051485</v>
       </c>
       <c r="K23">
-        <v>1.051388670160163</v>
+        <v>0.8167524683051485</v>
       </c>
       <c r="L23">
-        <v>1.083746428940472</v>
+        <v>1.184685975631371</v>
       </c>
       <c r="M23">
-        <v>1.006543621874826</v>
+        <v>0.9363073158876608</v>
       </c>
       <c r="N23">
-        <v>1.051388670160163</v>
+        <v>0.8167524683051485</v>
       </c>
       <c r="O23">
-        <v>0.8811496961509875</v>
+        <v>0.9166065752138568</v>
       </c>
       <c r="P23">
-        <v>1.019393217152528</v>
+        <v>1.095566197407962</v>
       </c>
       <c r="Q23">
-        <v>0.9524657763687797</v>
+        <v>0.9919677770260389</v>
       </c>
       <c r="R23">
-        <v>1.030058368155073</v>
+        <v>1.002628287707024</v>
       </c>
       <c r="S23">
-        <v>1.020856096963876</v>
+        <v>1.086153791218048</v>
       </c>
       <c r="T23">
-        <v>1.030058368155073</v>
+        <v>1.002628287707024</v>
       </c>
       <c r="U23">
-        <v>1.028489240262948</v>
+        <v>1.018803460489823</v>
       </c>
       <c r="V23">
-        <v>1.033069126242391</v>
+        <v>0.9783932620528883</v>
       </c>
       <c r="W23">
-        <v>1.014517669296623</v>
+        <v>1.017703036667913</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9897858132154131</v>
+        <v>1.086263935413478</v>
       </c>
       <c r="D24">
-        <v>1.023831357310236</v>
+        <v>1.013684794133076</v>
       </c>
       <c r="E24">
-        <v>0.9355928644891256</v>
+        <v>0.9502127844330988</v>
       </c>
       <c r="F24">
-        <v>1.032157968565828</v>
+        <v>0.9923458013234966</v>
       </c>
       <c r="G24">
-        <v>0.9897858132154131</v>
+        <v>1.086263935413478</v>
       </c>
       <c r="H24">
-        <v>1.00606276986319</v>
+        <v>1.008060594746041</v>
       </c>
       <c r="I24">
-        <v>1.002274981732172</v>
+        <v>0.9777567528305007</v>
       </c>
       <c r="J24">
-        <v>0.9355928644891256</v>
+        <v>0.9502127844330988</v>
       </c>
       <c r="K24">
-        <v>0.9355928644891256</v>
+        <v>0.9502127844330988</v>
       </c>
       <c r="L24">
-        <v>1.004479277257104</v>
+        <v>1.04782111932408</v>
       </c>
       <c r="M24">
-        <v>0.9840237090203153</v>
+        <v>0.9746441528022979</v>
       </c>
       <c r="N24">
-        <v>0.9355928644891256</v>
+        <v>0.9502127844330988</v>
       </c>
       <c r="O24">
-        <v>1.032157968565828</v>
+        <v>0.9923458013234966</v>
       </c>
       <c r="P24">
-        <v>1.01097189089062</v>
+        <v>1.039304868368487</v>
       </c>
       <c r="Q24">
-        <v>1.019110369214509</v>
+        <v>1.000203198034769</v>
       </c>
       <c r="R24">
-        <v>0.9858455487567888</v>
+        <v>1.009607507056691</v>
       </c>
       <c r="S24">
-        <v>1.00933551721481</v>
+        <v>1.028890110494338</v>
       </c>
       <c r="T24">
-        <v>0.9858455487567888</v>
+        <v>1.009607507056691</v>
       </c>
       <c r="U24">
-        <v>0.9908998540333891</v>
+        <v>1.009220778979029</v>
       </c>
       <c r="V24">
-        <v>0.9798384561245363</v>
+        <v>0.9974191800698426</v>
       </c>
       <c r="W24">
-        <v>0.9972760926816731</v>
+        <v>1.006348741875759</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.7373131389974896</v>
+        <v>1.157636738154069</v>
       </c>
       <c r="D25">
-        <v>0.9324713620604266</v>
+        <v>0.974864289375493</v>
       </c>
       <c r="E25">
-        <v>1.217686208489197</v>
+        <v>1.051388670160163</v>
       </c>
       <c r="F25">
-        <v>1.032263682772953</v>
+        <v>0.8811496961509875</v>
       </c>
       <c r="G25">
-        <v>0.7373131389974896</v>
+        <v>1.157636738154069</v>
       </c>
       <c r="H25">
-        <v>0.9474130008138536</v>
+        <v>1.023781856586572</v>
       </c>
       <c r="I25">
-        <v>1.089737353757439</v>
+        <v>0.9370300531303986</v>
       </c>
       <c r="J25">
-        <v>1.217686208489197</v>
+        <v>1.051388670160163</v>
       </c>
       <c r="K25">
-        <v>1.217686208489197</v>
+        <v>1.051388670160163</v>
       </c>
       <c r="L25">
-        <v>0.8289086938651739</v>
+        <v>1.083746428940472</v>
       </c>
       <c r="M25">
-        <v>1.082251531440139</v>
+        <v>1.006543621874826</v>
       </c>
       <c r="N25">
-        <v>1.217686208489197</v>
+        <v>1.051388670160163</v>
       </c>
       <c r="O25">
-        <v>1.032263682772953</v>
+        <v>0.8811496961509875</v>
       </c>
       <c r="P25">
-        <v>0.8847884108852211</v>
+        <v>1.019393217152528</v>
       </c>
       <c r="Q25">
-        <v>0.9898383417934031</v>
+        <v>0.9524657763687797</v>
       </c>
       <c r="R25">
-        <v>0.9957543434198798</v>
+        <v>1.030058368155073</v>
       </c>
       <c r="S25">
-        <v>0.9056632741947652</v>
+        <v>1.020856096963876</v>
       </c>
       <c r="T25">
-        <v>0.9957543434198798</v>
+        <v>1.030058368155073</v>
       </c>
       <c r="U25">
-        <v>0.9836690077683732</v>
+        <v>1.028489240262948</v>
       </c>
       <c r="V25">
-        <v>1.030472447912538</v>
+        <v>1.033069126242391</v>
       </c>
       <c r="W25">
-        <v>0.9835056215245839</v>
+        <v>1.014517669296623</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9257065563060634</v>
+        <v>0.9897858132154131</v>
       </c>
       <c r="D26">
-        <v>0.9895532608739381</v>
+        <v>1.023831357310236</v>
       </c>
       <c r="E26">
-        <v>1.036811344902213</v>
+        <v>0.9355928644891256</v>
       </c>
       <c r="F26">
-        <v>1.037487050008018</v>
+        <v>1.032157968565828</v>
       </c>
       <c r="G26">
-        <v>0.9257065563060634</v>
+        <v>0.9897858132154131</v>
       </c>
       <c r="H26">
-        <v>0.9778860618542849</v>
+        <v>1.00606276986319</v>
       </c>
       <c r="I26">
-        <v>1.034699585537691</v>
+        <v>1.002274981732172</v>
       </c>
       <c r="J26">
-        <v>1.036811344902213</v>
+        <v>0.9355928644891256</v>
       </c>
       <c r="K26">
-        <v>1.036811344902213</v>
+        <v>0.9355928644891256</v>
       </c>
       <c r="L26">
-        <v>0.9482810307479357</v>
+        <v>1.004479277257104</v>
       </c>
       <c r="M26">
-        <v>1.010328879790442</v>
+        <v>0.9840237090203153</v>
       </c>
       <c r="N26">
-        <v>1.036811344902213</v>
+        <v>0.9355928644891256</v>
       </c>
       <c r="O26">
-        <v>1.037487050008018</v>
+        <v>1.032157968565828</v>
       </c>
       <c r="P26">
-        <v>0.9815968031570407</v>
+        <v>1.01097189089062</v>
       </c>
       <c r="Q26">
-        <v>1.007686555931151</v>
+        <v>1.019110369214509</v>
       </c>
       <c r="R26">
-        <v>1.000001650405432</v>
+        <v>0.9858455487567888</v>
       </c>
       <c r="S26">
-        <v>0.9803598893894554</v>
+        <v>1.00933551721481</v>
       </c>
       <c r="T26">
-        <v>1.000001650405432</v>
+        <v>0.9858455487567888</v>
       </c>
       <c r="U26">
-        <v>0.9944727532676449</v>
+        <v>0.9908998540333891</v>
       </c>
       <c r="V26">
-        <v>1.002940471594559</v>
+        <v>0.9798384561245363</v>
       </c>
       <c r="W26">
-        <v>0.9950942212525733</v>
+        <v>0.9972760926816731</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9759133612835745</v>
+        <v>0.7373131389974896</v>
       </c>
       <c r="D27">
-        <v>0.9947670592502837</v>
+        <v>0.9324713620604266</v>
       </c>
       <c r="E27">
-        <v>1.018522862793599</v>
+        <v>1.217686208489197</v>
       </c>
       <c r="F27">
-        <v>0.9955781059120832</v>
+        <v>1.032263682772953</v>
       </c>
       <c r="G27">
-        <v>0.9759133612835745</v>
+        <v>0.7373131389974896</v>
       </c>
       <c r="H27">
-        <v>0.9998086048359111</v>
+        <v>0.9474130008138536</v>
       </c>
       <c r="I27">
-        <v>1.003666062215267</v>
+        <v>1.089737353757439</v>
       </c>
       <c r="J27">
-        <v>1.018522862793599</v>
+        <v>1.217686208489197</v>
       </c>
       <c r="K27">
-        <v>1.018522862793599</v>
+        <v>1.217686208489197</v>
       </c>
       <c r="L27">
-        <v>0.9878726369663549</v>
+        <v>0.8289086938651739</v>
       </c>
       <c r="M27">
-        <v>1.009804451489278</v>
+        <v>1.082251531440139</v>
       </c>
       <c r="N27">
-        <v>1.018522862793599</v>
+        <v>1.217686208489197</v>
       </c>
       <c r="O27">
-        <v>0.9955781059120832</v>
+        <v>1.032263682772953</v>
       </c>
       <c r="P27">
-        <v>0.9857457335978288</v>
+        <v>0.8847884108852211</v>
       </c>
       <c r="Q27">
-        <v>0.9976933553739971</v>
+        <v>0.9898383417934031</v>
       </c>
       <c r="R27">
-        <v>0.9966714433297522</v>
+        <v>0.9957543434198798</v>
       </c>
       <c r="S27">
-        <v>0.9904333573438562</v>
+        <v>0.9056632741947652</v>
       </c>
       <c r="T27">
-        <v>0.9966714433297522</v>
+        <v>0.9957543434198798</v>
       </c>
       <c r="U27">
-        <v>0.9974557337062919</v>
+        <v>0.9836690077683732</v>
       </c>
       <c r="V27">
-        <v>1.001669159523753</v>
+        <v>1.030472447912538</v>
       </c>
       <c r="W27">
-        <v>0.998241643093294</v>
+        <v>0.9835056215245839</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9759565951448562</v>
+        <v>0.9257065563060634</v>
       </c>
       <c r="D28">
-        <v>0.9857618503367906</v>
+        <v>0.9895532608739381</v>
       </c>
       <c r="E28">
-        <v>1.042209639961285</v>
+        <v>1.036811344902213</v>
       </c>
       <c r="F28">
-        <v>0.9956790152023051</v>
+        <v>1.037487050008018</v>
       </c>
       <c r="G28">
-        <v>0.9759565951448562</v>
+        <v>0.9257065563060634</v>
       </c>
       <c r="H28">
-        <v>0.9914894990268772</v>
+        <v>0.9778860618542849</v>
       </c>
       <c r="I28">
-        <v>1.009722614637956</v>
+        <v>1.034699585537691</v>
       </c>
       <c r="J28">
-        <v>1.042209639961285</v>
+        <v>1.036811344902213</v>
       </c>
       <c r="K28">
-        <v>1.042209639961285</v>
+        <v>1.036811344902213</v>
       </c>
       <c r="L28">
-        <v>0.9801108795771191</v>
+        <v>0.9482810307479357</v>
       </c>
       <c r="M28">
-        <v>1.012550074887477</v>
+        <v>1.010328879790442</v>
       </c>
       <c r="N28">
-        <v>1.042209639961285</v>
+        <v>1.036811344902213</v>
       </c>
       <c r="O28">
-        <v>0.9956790152023051</v>
+        <v>1.037487050008018</v>
       </c>
       <c r="P28">
-        <v>0.9858178051735806</v>
+        <v>0.9815968031570407</v>
       </c>
       <c r="Q28">
-        <v>0.9935842571145912</v>
+        <v>1.007686555931151</v>
       </c>
       <c r="R28">
-        <v>1.004615083436149</v>
+        <v>1.000001650405432</v>
       </c>
       <c r="S28">
-        <v>0.9877083697913461</v>
+        <v>0.9803598893894554</v>
       </c>
       <c r="T28">
-        <v>1.004615083436149</v>
+        <v>1.000001650405432</v>
       </c>
       <c r="U28">
-        <v>1.001333687333831</v>
+        <v>0.9944727532676449</v>
       </c>
       <c r="V28">
-        <v>1.009508877859322</v>
+        <v>1.002940471594559</v>
       </c>
       <c r="W28">
-        <v>0.9991850210968333</v>
+        <v>0.9950942212525733</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9759133612835745</v>
+      </c>
+      <c r="D29">
+        <v>0.9947670592502837</v>
+      </c>
+      <c r="E29">
+        <v>1.018522862793599</v>
+      </c>
+      <c r="F29">
+        <v>0.9955781059120832</v>
+      </c>
+      <c r="G29">
+        <v>0.9759133612835745</v>
+      </c>
+      <c r="H29">
+        <v>0.9998086048359111</v>
+      </c>
+      <c r="I29">
+        <v>1.003666062215267</v>
+      </c>
+      <c r="J29">
+        <v>1.018522862793599</v>
+      </c>
+      <c r="K29">
+        <v>1.018522862793599</v>
+      </c>
+      <c r="L29">
+        <v>0.9878726369663549</v>
+      </c>
+      <c r="M29">
+        <v>1.009804451489278</v>
+      </c>
+      <c r="N29">
+        <v>1.018522862793599</v>
+      </c>
+      <c r="O29">
+        <v>0.9955781059120832</v>
+      </c>
+      <c r="P29">
+        <v>0.9857457335978288</v>
+      </c>
+      <c r="Q29">
+        <v>0.9976933553739971</v>
+      </c>
+      <c r="R29">
+        <v>0.9966714433297522</v>
+      </c>
+      <c r="S29">
+        <v>0.9904333573438562</v>
+      </c>
+      <c r="T29">
+        <v>0.9966714433297522</v>
+      </c>
+      <c r="U29">
+        <v>0.9974557337062919</v>
+      </c>
+      <c r="V29">
+        <v>1.001669159523753</v>
+      </c>
+      <c r="W29">
+        <v>0.998241643093294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9759565951448562</v>
+      </c>
+      <c r="D30">
+        <v>0.9857618503367906</v>
+      </c>
+      <c r="E30">
+        <v>1.042209639961285</v>
+      </c>
+      <c r="F30">
+        <v>0.9956790152023051</v>
+      </c>
+      <c r="G30">
+        <v>0.9759565951448562</v>
+      </c>
+      <c r="H30">
+        <v>0.9914894990268772</v>
+      </c>
+      <c r="I30">
+        <v>1.009722614637956</v>
+      </c>
+      <c r="J30">
+        <v>1.042209639961285</v>
+      </c>
+      <c r="K30">
+        <v>1.042209639961285</v>
+      </c>
+      <c r="L30">
+        <v>0.9801108795771191</v>
+      </c>
+      <c r="M30">
+        <v>1.012550074887477</v>
+      </c>
+      <c r="N30">
+        <v>1.042209639961285</v>
+      </c>
+      <c r="O30">
+        <v>0.9956790152023051</v>
+      </c>
+      <c r="P30">
+        <v>0.9858178051735806</v>
+      </c>
+      <c r="Q30">
+        <v>0.9935842571145912</v>
+      </c>
+      <c r="R30">
+        <v>1.004615083436149</v>
+      </c>
+      <c r="S30">
+        <v>0.9877083697913461</v>
+      </c>
+      <c r="T30">
+        <v>1.004615083436149</v>
+      </c>
+      <c r="U30">
+        <v>1.001333687333831</v>
+      </c>
+      <c r="V30">
+        <v>1.009508877859322</v>
+      </c>
+      <c r="W30">
+        <v>0.9991850210968333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.032422020880363</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9985392986599309</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.003113109304583</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9593123476737523</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.032422020880363</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.016578568357809</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.975940638798984</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.003113109304583</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.003113109304583</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.026444680428554</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.005845480703226</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.003113109304583</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9593123476737523</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9958671842770574</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9879454580157809</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9982824926195658</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.002770978970641</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.998282492619566</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.002856511554127</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>1.002907831104218</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.0022745181009</v>
       </c>
     </row>
